--- a/assets/posts/2020-09-01-GwentProRankAnalysis/national_stats.xlsx
+++ b/assets/posts/2020-09-01-GwentProRankAnalysis/national_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="134">
   <si>
     <t>season</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>M2_08 Draconid 2020</t>
+  </si>
+  <si>
+    <t>M2_09 Dryad 2020</t>
   </si>
   <si>
     <t>Algeria</t>
@@ -397,9 +400,6 @@
     <t>Mauritius</t>
   </si>
   <si>
-    <t>Namibia</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
@@ -407,6 +407,15 @@
   </si>
   <si>
     <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Oman</t>
   </si>
 </sst>
 </file>
@@ -764,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H685"/>
+  <dimension ref="A1:H774"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>250</v>
@@ -827,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1480</v>
@@ -853,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>546</v>
@@ -879,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>6193</v>
@@ -905,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>3981</v>
@@ -931,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>212</v>
@@ -957,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>154</v>
@@ -983,7 +992,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>8018</v>
@@ -1009,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>2284</v>
@@ -1035,7 +1044,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>7379</v>
@@ -1061,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>1713</v>
@@ -1087,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>8930</v>
@@ -1113,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>786</v>
@@ -1139,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>170805</v>
@@ -1165,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>380</v>
@@ -1191,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>145</v>
@@ -1217,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>1246</v>
@@ -1243,7 +1252,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>400</v>
@@ -1269,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>2968</v>
@@ -1295,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>2693</v>
@@ -1321,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <v>1840</v>
@@ -1347,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>1535</v>
@@ -1373,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>294</v>
@@ -1399,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>4448</v>
@@ -1425,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>10215</v>
@@ -1451,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>108</v>
@@ -1477,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>966</v>
@@ -1503,7 +1512,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>27382</v>
@@ -1529,7 +1538,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30">
         <v>2220</v>
@@ -1555,7 +1564,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>6042</v>
@@ -1581,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>2288</v>
@@ -1607,7 +1616,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33">
         <v>257</v>
@@ -1633,7 +1642,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34">
         <v>1857</v>
@@ -1659,7 +1668,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>1929</v>
@@ -1685,7 +1694,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>978</v>
@@ -1711,7 +1720,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37">
         <v>1010</v>
@@ -1737,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38">
         <v>1356</v>
@@ -1763,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39">
         <v>11479</v>
@@ -1789,7 +1798,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>18848</v>
@@ -1815,7 +1824,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>117</v>
@@ -1841,7 +1850,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>4703</v>
@@ -1867,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>20728</v>
@@ -1893,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44">
         <v>71</v>
@@ -1919,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45">
         <v>2460</v>
@@ -1945,7 +1954,7 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>126</v>
@@ -1971,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47">
         <v>983</v>
@@ -1997,7 +2006,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48">
         <v>499</v>
@@ -2023,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49">
         <v>999</v>
@@ -2049,7 +2058,7 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50">
         <v>428</v>
@@ -2075,7 +2084,7 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51">
         <v>1614</v>
@@ -2101,7 +2110,7 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52">
         <v>592</v>
@@ -2127,7 +2136,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53">
         <v>106</v>
@@ -2153,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54">
         <v>205</v>
@@ -2179,7 +2188,7 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D55">
         <v>3254</v>
@@ -2205,7 +2214,7 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D56">
         <v>1218</v>
@@ -2231,7 +2240,7 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D57">
         <v>184</v>
@@ -2257,7 +2266,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58">
         <v>1252</v>
@@ -2283,7 +2292,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D59">
         <v>431</v>
@@ -2309,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D60">
         <v>1181</v>
@@ -2335,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61">
         <v>1728</v>
@@ -2361,7 +2370,7 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D62">
         <v>56668</v>
@@ -2387,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D63">
         <v>1819</v>
@@ -2413,7 +2422,7 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64">
         <v>3225</v>
@@ -2439,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D65">
         <v>130060</v>
@@ -2465,7 +2474,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D66">
         <v>1238</v>
@@ -2491,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D67">
         <v>2919</v>
@@ -2517,7 +2526,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D68">
         <v>2463</v>
@@ -2543,7 +2552,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D69">
         <v>1670</v>
@@ -2569,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D70">
         <v>1199</v>
@@ -2595,7 +2604,7 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D71">
         <v>2535</v>
@@ -2621,7 +2630,7 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D72">
         <v>11456</v>
@@ -2647,7 +2656,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D73">
         <v>4576</v>
@@ -2673,7 +2682,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D74">
         <v>813</v>
@@ -2699,7 +2708,7 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D75">
         <v>521</v>
@@ -2725,7 +2734,7 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D76">
         <v>2561</v>
@@ -2751,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D77">
         <v>48</v>
@@ -2777,7 +2786,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D78">
         <v>2659</v>
@@ -2803,7 +2812,7 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D79">
         <v>251</v>
@@ -2829,7 +2838,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D80">
         <v>5759</v>
@@ -2855,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D81">
         <v>183</v>
@@ -2881,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D82">
         <v>35474</v>
@@ -2907,7 +2916,7 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D83">
         <v>101</v>
@@ -2933,7 +2942,7 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D84">
         <v>15258</v>
@@ -2959,7 +2968,7 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D85">
         <v>55322</v>
@@ -2985,7 +2994,7 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D86">
         <v>584</v>
@@ -3011,7 +3020,7 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D87">
         <v>1640</v>
@@ -3037,7 +3046,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D88">
         <v>2582</v>
@@ -3063,7 +3072,7 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D89">
         <v>913</v>
@@ -3089,7 +3098,7 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90">
         <v>8160</v>
@@ -3115,7 +3124,7 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91">
         <v>4343</v>
@@ -3141,7 +3150,7 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D92">
         <v>325</v>
@@ -3167,7 +3176,7 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D93">
         <v>150</v>
@@ -3193,7 +3202,7 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D94">
         <v>8622</v>
@@ -3219,7 +3228,7 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D95">
         <v>1951</v>
@@ -3245,7 +3254,7 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D96">
         <v>297</v>
@@ -3271,7 +3280,7 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D97">
         <v>8463</v>
@@ -3297,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D98">
         <v>1751</v>
@@ -3323,7 +3332,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D99">
         <v>10094</v>
@@ -3349,7 +3358,7 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100">
         <v>947</v>
@@ -3375,7 +3384,7 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D101">
         <v>209561</v>
@@ -3401,7 +3410,7 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D102">
         <v>657</v>
@@ -3427,7 +3436,7 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103">
         <v>129</v>
@@ -3453,7 +3462,7 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104">
         <v>2274</v>
@@ -3479,7 +3488,7 @@
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D105">
         <v>676</v>
@@ -3505,7 +3514,7 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106">
         <v>4282</v>
@@ -3531,7 +3540,7 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D107">
         <v>1690</v>
@@ -3557,7 +3566,7 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D108">
         <v>1264</v>
@@ -3583,7 +3592,7 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D109">
         <v>712</v>
@@ -3609,7 +3618,7 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D110">
         <v>4151</v>
@@ -3635,7 +3644,7 @@
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D111">
         <v>8288</v>
@@ -3661,7 +3670,7 @@
         <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D112">
         <v>298</v>
@@ -3687,7 +3696,7 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D113">
         <v>29645</v>
@@ -3713,7 +3722,7 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D114">
         <v>2802</v>
@@ -3739,7 +3748,7 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D115">
         <v>5341</v>
@@ -3765,7 +3774,7 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D116">
         <v>2294</v>
@@ -3791,7 +3800,7 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D117">
         <v>170</v>
@@ -3817,7 +3826,7 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D118">
         <v>1950</v>
@@ -3843,7 +3852,7 @@
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D119">
         <v>1621</v>
@@ -3869,7 +3878,7 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D120">
         <v>1348</v>
@@ -3895,7 +3904,7 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D121">
         <v>182</v>
@@ -3921,7 +3930,7 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D122">
         <v>1545</v>
@@ -3947,7 +3956,7 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D123">
         <v>2318</v>
@@ -3973,7 +3982,7 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D124">
         <v>13790</v>
@@ -3999,7 +4008,7 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D125">
         <v>19696</v>
@@ -4025,7 +4034,7 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D126">
         <v>5494</v>
@@ -4051,7 +4060,7 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D127">
         <v>17394</v>
@@ -4077,7 +4086,7 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D128">
         <v>507</v>
@@ -4103,7 +4112,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D129">
         <v>1226</v>
@@ -4129,7 +4138,7 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D130">
         <v>203</v>
@@ -4155,7 +4164,7 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D131">
         <v>710</v>
@@ -4181,7 +4190,7 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D132">
         <v>196</v>
@@ -4207,7 +4216,7 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D133">
         <v>1257</v>
@@ -4233,7 +4242,7 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D134">
         <v>2294</v>
@@ -4259,7 +4268,7 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D135">
         <v>741</v>
@@ -4285,7 +4294,7 @@
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D136">
         <v>359</v>
@@ -4311,7 +4320,7 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D137">
         <v>2637</v>
@@ -4337,7 +4346,7 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D138">
         <v>581</v>
@@ -4363,7 +4372,7 @@
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D139">
         <v>1094</v>
@@ -4389,7 +4398,7 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D140">
         <v>306</v>
@@ -4415,7 +4424,7 @@
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D141">
         <v>929</v>
@@ -4441,7 +4450,7 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D142">
         <v>2720</v>
@@ -4467,7 +4476,7 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D143">
         <v>57684</v>
@@ -4493,7 +4502,7 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D144">
         <v>1666</v>
@@ -4519,7 +4528,7 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D145">
         <v>4248</v>
@@ -4545,7 +4554,7 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D146">
         <v>146722</v>
@@ -4571,7 +4580,7 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D147">
         <v>610</v>
@@ -4597,7 +4606,7 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D148">
         <v>2607</v>
@@ -4623,7 +4632,7 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D149">
         <v>3535</v>
@@ -4649,7 +4658,7 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D150">
         <v>894</v>
@@ -4675,7 +4684,7 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D151">
         <v>732</v>
@@ -4701,7 +4710,7 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D152">
         <v>1987</v>
@@ -4727,7 +4736,7 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D153">
         <v>11003</v>
@@ -4753,7 +4762,7 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D154">
         <v>2654</v>
@@ -4779,7 +4788,7 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D155">
         <v>2114</v>
@@ -4805,7 +4814,7 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D156">
         <v>4717</v>
@@ -4831,7 +4840,7 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D157">
         <v>2381</v>
@@ -4857,7 +4866,7 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D158">
         <v>268</v>
@@ -4883,7 +4892,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D159">
         <v>8209</v>
@@ -4909,7 +4918,7 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D160">
         <v>134</v>
@@ -4935,7 +4944,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D161">
         <v>36051</v>
@@ -4961,7 +4970,7 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D162">
         <v>119</v>
@@ -4987,7 +4996,7 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D163">
         <v>14764</v>
@@ -5013,7 +5022,7 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D164">
         <v>58380</v>
@@ -5039,7 +5048,7 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D165">
         <v>396</v>
@@ -5065,7 +5074,7 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D166">
         <v>3553</v>
@@ -5091,7 +5100,7 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D167">
         <v>2432</v>
@@ -5117,7 +5126,7 @@
         <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D168">
         <v>1489</v>
@@ -5143,7 +5152,7 @@
         <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D169">
         <v>6271</v>
@@ -5169,7 +5178,7 @@
         <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D170">
         <v>5032</v>
@@ -5195,7 +5204,7 @@
         <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D171">
         <v>496</v>
@@ -5221,7 +5230,7 @@
         <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D172">
         <v>214</v>
@@ -5247,7 +5256,7 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D173">
         <v>8227</v>
@@ -5273,7 +5282,7 @@
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D174">
         <v>705</v>
@@ -5299,7 +5308,7 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D175">
         <v>568</v>
@@ -5325,7 +5334,7 @@
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D176">
         <v>9345</v>
@@ -5351,7 +5360,7 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D177">
         <v>1294</v>
@@ -5377,7 +5386,7 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D178">
         <v>9563</v>
@@ -5403,7 +5412,7 @@
         <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D179">
         <v>650</v>
@@ -5429,7 +5438,7 @@
         <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D180">
         <v>228135</v>
@@ -5455,7 +5464,7 @@
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D181">
         <v>355</v>
@@ -5481,7 +5490,7 @@
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D182">
         <v>184</v>
@@ -5507,7 +5516,7 @@
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D183">
         <v>2337</v>
@@ -5533,7 +5542,7 @@
         <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D184">
         <v>973</v>
@@ -5559,7 +5568,7 @@
         <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D185">
         <v>5227</v>
@@ -5585,7 +5594,7 @@
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D186">
         <v>2529</v>
@@ -5611,7 +5620,7 @@
         <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D187">
         <v>1317</v>
@@ -5637,7 +5646,7 @@
         <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D188">
         <v>896</v>
@@ -5663,7 +5672,7 @@
         <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D189">
         <v>5682</v>
@@ -5689,7 +5698,7 @@
         <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D190">
         <v>13656</v>
@@ -5715,7 +5724,7 @@
         <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D191">
         <v>513</v>
@@ -5741,7 +5750,7 @@
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D192">
         <v>36450</v>
@@ -5767,7 +5776,7 @@
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D193">
         <v>4693</v>
@@ -5793,7 +5802,7 @@
         <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D194">
         <v>186</v>
@@ -5819,7 +5828,7 @@
         <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D195">
         <v>5592</v>
@@ -5845,7 +5854,7 @@
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D196">
         <v>1597</v>
@@ -5871,7 +5880,7 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D197">
         <v>1289</v>
@@ -5897,7 +5906,7 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D198">
         <v>2613</v>
@@ -5923,7 +5932,7 @@
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D199">
         <v>1573</v>
@@ -5949,7 +5958,7 @@
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D200">
         <v>177</v>
@@ -5975,7 +5984,7 @@
         <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D201">
         <v>2341</v>
@@ -6001,7 +6010,7 @@
         <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D202">
         <v>2324</v>
@@ -6027,7 +6036,7 @@
         <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D203">
         <v>19739</v>
@@ -6053,7 +6062,7 @@
         <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D204">
         <v>14688</v>
@@ -6079,7 +6088,7 @@
         <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D205">
         <v>7159</v>
@@ -6105,7 +6114,7 @@
         <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D206">
         <v>15416</v>
@@ -6131,7 +6140,7 @@
         <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D207">
         <v>237</v>
@@ -6157,7 +6166,7 @@
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D208">
         <v>1105</v>
@@ -6183,7 +6192,7 @@
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D209">
         <v>871</v>
@@ -6209,7 +6218,7 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D210">
         <v>216</v>
@@ -6235,7 +6244,7 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D211">
         <v>1487</v>
@@ -6261,7 +6270,7 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D212">
         <v>2529</v>
@@ -6287,7 +6296,7 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D213">
         <v>526</v>
@@ -6313,7 +6322,7 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D214">
         <v>357</v>
@@ -6339,7 +6348,7 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D215">
         <v>300</v>
@@ -6365,7 +6374,7 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D216">
         <v>444</v>
@@ -6391,7 +6400,7 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D217">
         <v>4333</v>
@@ -6417,7 +6426,7 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D218">
         <v>262</v>
@@ -6443,7 +6452,7 @@
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D219">
         <v>978</v>
@@ -6469,7 +6478,7 @@
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D220">
         <v>748</v>
@@ -6495,7 +6504,7 @@
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D221">
         <v>1554</v>
@@ -6521,7 +6530,7 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D222">
         <v>79340</v>
@@ -6547,7 +6556,7 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D223">
         <v>1036</v>
@@ -6573,7 +6582,7 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D224">
         <v>4958</v>
@@ -6599,7 +6608,7 @@
         <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D225">
         <v>171712</v>
@@ -6625,7 +6634,7 @@
         <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D226">
         <v>539</v>
@@ -6651,7 +6660,7 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D227">
         <v>4734</v>
@@ -6677,7 +6686,7 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D228">
         <v>1342</v>
@@ -6703,7 +6712,7 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D229">
         <v>1567</v>
@@ -6729,7 +6738,7 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D230">
         <v>1483</v>
@@ -6755,7 +6764,7 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D231">
         <v>2314</v>
@@ -6781,7 +6790,7 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D232">
         <v>12137</v>
@@ -6807,7 +6816,7 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D233">
         <v>4421</v>
@@ -6833,7 +6842,7 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D234">
         <v>2102</v>
@@ -6859,7 +6868,7 @@
         <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D235">
         <v>542</v>
@@ -6885,7 +6894,7 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D236">
         <v>2319</v>
@@ -6911,7 +6920,7 @@
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D237">
         <v>1406</v>
@@ -6937,7 +6946,7 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D238">
         <v>433</v>
@@ -6963,7 +6972,7 @@
         <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D239">
         <v>6432</v>
@@ -6989,7 +6998,7 @@
         <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D240">
         <v>46566</v>
@@ -7015,7 +7024,7 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D241">
         <v>131</v>
@@ -7041,7 +7050,7 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D242">
         <v>19673</v>
@@ -7067,7 +7076,7 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D243">
         <v>53344</v>
@@ -7093,7 +7102,7 @@
         <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D244">
         <v>193</v>
@@ -7119,7 +7128,7 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D245">
         <v>301</v>
@@ -7145,7 +7154,7 @@
         <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D246">
         <v>218</v>
@@ -7171,7 +7180,7 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D247">
         <v>3561</v>
@@ -7197,7 +7206,7 @@
         <v>10</v>
       </c>
       <c r="C248" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D248">
         <v>448</v>
@@ -7223,7 +7232,7 @@
         <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D249">
         <v>2902</v>
@@ -7249,7 +7258,7 @@
         <v>10</v>
       </c>
       <c r="C250" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D250">
         <v>1006</v>
@@ -7275,7 +7284,7 @@
         <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D251">
         <v>8298</v>
@@ -7301,7 +7310,7 @@
         <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D252">
         <v>5639</v>
@@ -7327,7 +7336,7 @@
         <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D253">
         <v>222</v>
@@ -7353,7 +7362,7 @@
         <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D254">
         <v>1401</v>
@@ -7379,7 +7388,7 @@
         <v>10</v>
       </c>
       <c r="C255" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D255">
         <v>13598</v>
@@ -7405,7 +7414,7 @@
         <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D256">
         <v>1358</v>
@@ -7431,7 +7440,7 @@
         <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D257">
         <v>332</v>
@@ -7457,7 +7466,7 @@
         <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D258">
         <v>920</v>
@@ -7483,7 +7492,7 @@
         <v>10</v>
       </c>
       <c r="C259" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D259">
         <v>14158</v>
@@ -7509,7 +7518,7 @@
         <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D260">
         <v>2494</v>
@@ -7535,7 +7544,7 @@
         <v>10</v>
       </c>
       <c r="C261" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D261">
         <v>12495</v>
@@ -7561,7 +7570,7 @@
         <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D262">
         <v>1835</v>
@@ -7587,7 +7596,7 @@
         <v>10</v>
       </c>
       <c r="C263" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D263">
         <v>162023</v>
@@ -7613,7 +7622,7 @@
         <v>10</v>
       </c>
       <c r="C264" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D264">
         <v>373</v>
@@ -7639,7 +7648,7 @@
         <v>10</v>
       </c>
       <c r="C265" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D265">
         <v>645</v>
@@ -7665,7 +7674,7 @@
         <v>10</v>
       </c>
       <c r="C266" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D266">
         <v>3760</v>
@@ -7691,7 +7700,7 @@
         <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D267">
         <v>618</v>
@@ -7717,7 +7726,7 @@
         <v>10</v>
       </c>
       <c r="C268" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D268">
         <v>1235</v>
@@ -7743,7 +7752,7 @@
         <v>10</v>
       </c>
       <c r="C269" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D269">
         <v>7651</v>
@@ -7769,7 +7778,7 @@
         <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D270">
         <v>3314</v>
@@ -7795,7 +7804,7 @@
         <v>10</v>
       </c>
       <c r="C271" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D271">
         <v>1102</v>
@@ -7821,7 +7830,7 @@
         <v>10</v>
       </c>
       <c r="C272" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D272">
         <v>1568</v>
@@ -7847,7 +7856,7 @@
         <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D273">
         <v>4998</v>
@@ -7873,7 +7882,7 @@
         <v>10</v>
       </c>
       <c r="C274" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D274">
         <v>17875</v>
@@ -7899,7 +7908,7 @@
         <v>10</v>
       </c>
       <c r="C275" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D275">
         <v>858</v>
@@ -7925,7 +7934,7 @@
         <v>10</v>
       </c>
       <c r="C276" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D276">
         <v>44708</v>
@@ -7951,7 +7960,7 @@
         <v>10</v>
       </c>
       <c r="C277" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D277">
         <v>7403</v>
@@ -7977,7 +7986,7 @@
         <v>10</v>
       </c>
       <c r="C278" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D278">
         <v>6711</v>
@@ -8003,7 +8012,7 @@
         <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D279">
         <v>3782</v>
@@ -8029,7 +8038,7 @@
         <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D280">
         <v>2123</v>
@@ -8055,7 +8064,7 @@
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D281">
         <v>3695</v>
@@ -8081,7 +8090,7 @@
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D282">
         <v>2242</v>
@@ -8107,7 +8116,7 @@
         <v>10</v>
       </c>
       <c r="C283" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D283">
         <v>1938</v>
@@ -8133,7 +8142,7 @@
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D284">
         <v>3408</v>
@@ -8159,7 +8168,7 @@
         <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D285">
         <v>21509</v>
@@ -8185,7 +8194,7 @@
         <v>10</v>
       </c>
       <c r="C286" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D286">
         <v>14532</v>
@@ -8211,7 +8220,7 @@
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D287">
         <v>303</v>
@@ -8231,7 +8240,7 @@
         <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D288">
         <v>267</v>
@@ -8257,7 +8266,7 @@
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D289">
         <v>5531</v>
@@ -8283,7 +8292,7 @@
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D290">
         <v>23762</v>
@@ -8309,7 +8318,7 @@
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D291">
         <v>392</v>
@@ -8335,7 +8344,7 @@
         <v>10</v>
       </c>
       <c r="C292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D292">
         <v>1713</v>
@@ -8361,7 +8370,7 @@
         <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D293">
         <v>1566</v>
@@ -8387,7 +8396,7 @@
         <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D294">
         <v>217</v>
@@ -8413,7 +8422,7 @@
         <v>10</v>
       </c>
       <c r="C295" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D295">
         <v>456</v>
@@ -8439,7 +8448,7 @@
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D296">
         <v>1490</v>
@@ -8465,7 +8474,7 @@
         <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D297">
         <v>526</v>
@@ -8491,7 +8500,7 @@
         <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D298">
         <v>3388</v>
@@ -8517,7 +8526,7 @@
         <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D299">
         <v>632</v>
@@ -8543,7 +8552,7 @@
         <v>10</v>
       </c>
       <c r="C300" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D300">
         <v>378</v>
@@ -8569,7 +8578,7 @@
         <v>10</v>
       </c>
       <c r="C301" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D301">
         <v>6904</v>
@@ -8595,7 +8604,7 @@
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D302">
         <v>920</v>
@@ -8621,7 +8630,7 @@
         <v>10</v>
       </c>
       <c r="C303" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D303">
         <v>713</v>
@@ -8647,7 +8656,7 @@
         <v>10</v>
       </c>
       <c r="C304" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D304">
         <v>2728</v>
@@ -8673,7 +8682,7 @@
         <v>10</v>
       </c>
       <c r="C305" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D305">
         <v>519</v>
@@ -8699,7 +8708,7 @@
         <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D306">
         <v>272</v>
@@ -8725,7 +8734,7 @@
         <v>10</v>
       </c>
       <c r="C307" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D307">
         <v>1601</v>
@@ -8751,7 +8760,7 @@
         <v>10</v>
       </c>
       <c r="C308" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D308">
         <v>3170</v>
@@ -8777,7 +8786,7 @@
         <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D309">
         <v>102088</v>
@@ -8803,7 +8812,7 @@
         <v>10</v>
       </c>
       <c r="C310" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D310">
         <v>2137</v>
@@ -8829,7 +8838,7 @@
         <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D311">
         <v>6612</v>
@@ -8855,7 +8864,7 @@
         <v>10</v>
       </c>
       <c r="C312" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D312">
         <v>232091</v>
@@ -8881,7 +8890,7 @@
         <v>10</v>
       </c>
       <c r="C313" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D313">
         <v>298</v>
@@ -8907,7 +8916,7 @@
         <v>10</v>
       </c>
       <c r="C314" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D314">
         <v>380</v>
@@ -8933,7 +8942,7 @@
         <v>10</v>
       </c>
       <c r="C315" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D315">
         <v>3613</v>
@@ -8959,7 +8968,7 @@
         <v>10</v>
       </c>
       <c r="C316" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D316">
         <v>3066</v>
@@ -8985,7 +8994,7 @@
         <v>10</v>
       </c>
       <c r="C317" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D317">
         <v>1605</v>
@@ -9011,7 +9020,7 @@
         <v>10</v>
       </c>
       <c r="C318" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D318">
         <v>846</v>
@@ -9037,7 +9046,7 @@
         <v>10</v>
       </c>
       <c r="C319" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D319">
         <v>3587</v>
@@ -9063,7 +9072,7 @@
         <v>10</v>
       </c>
       <c r="C320" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D320">
         <v>16882</v>
@@ -9089,7 +9098,7 @@
         <v>10</v>
       </c>
       <c r="C321" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D321">
         <v>4192</v>
@@ -9115,7 +9124,7 @@
         <v>10</v>
       </c>
       <c r="C322" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D322">
         <v>5435</v>
@@ -9141,7 +9150,7 @@
         <v>10</v>
       </c>
       <c r="C323" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D323">
         <v>490</v>
@@ -9167,7 +9176,7 @@
         <v>10</v>
       </c>
       <c r="C324" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D324">
         <v>2715</v>
@@ -9193,7 +9202,7 @@
         <v>10</v>
       </c>
       <c r="C325" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D325">
         <v>235</v>
@@ -9219,7 +9228,7 @@
         <v>10</v>
       </c>
       <c r="C326" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D326">
         <v>4813</v>
@@ -9245,7 +9254,7 @@
         <v>10</v>
       </c>
       <c r="C327" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D327">
         <v>11218</v>
@@ -9271,7 +9280,7 @@
         <v>10</v>
       </c>
       <c r="C328" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D328">
         <v>61799</v>
@@ -9297,7 +9306,7 @@
         <v>10</v>
       </c>
       <c r="C329" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D329">
         <v>618</v>
@@ -9323,7 +9332,7 @@
         <v>10</v>
       </c>
       <c r="C330" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D330">
         <v>28368</v>
@@ -9349,7 +9358,7 @@
         <v>10</v>
       </c>
       <c r="C331" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D331">
         <v>65331</v>
@@ -9375,7 +9384,7 @@
         <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D332">
         <v>1129</v>
@@ -9401,7 +9410,7 @@
         <v>10</v>
       </c>
       <c r="C333" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D333">
         <v>2657</v>
@@ -9427,7 +9436,7 @@
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D334">
         <v>494</v>
@@ -9453,7 +9462,7 @@
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D335">
         <v>2007</v>
@@ -9479,7 +9488,7 @@
         <v>11</v>
       </c>
       <c r="C336" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D336">
         <v>482</v>
@@ -9505,7 +9514,7 @@
         <v>11</v>
       </c>
       <c r="C337" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D337">
         <v>7226</v>
@@ -9531,7 +9540,7 @@
         <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D338">
         <v>5153</v>
@@ -9557,7 +9566,7 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D339">
         <v>750</v>
@@ -9583,7 +9592,7 @@
         <v>11</v>
       </c>
       <c r="C340" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D340">
         <v>542</v>
@@ -9609,7 +9618,7 @@
         <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D341">
         <v>687</v>
@@ -9635,7 +9644,7 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D342">
         <v>13319</v>
@@ -9661,7 +9670,7 @@
         <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D343">
         <v>1323</v>
@@ -9687,7 +9696,7 @@
         <v>11</v>
       </c>
       <c r="C344" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D344">
         <v>617</v>
@@ -9713,7 +9722,7 @@
         <v>11</v>
       </c>
       <c r="C345" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D345">
         <v>14351</v>
@@ -9739,7 +9748,7 @@
         <v>11</v>
       </c>
       <c r="C346" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D346">
         <v>3251</v>
@@ -9765,7 +9774,7 @@
         <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D347">
         <v>10167</v>
@@ -9791,7 +9800,7 @@
         <v>11</v>
       </c>
       <c r="C348" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D348">
         <v>2695</v>
@@ -9817,7 +9826,7 @@
         <v>11</v>
       </c>
       <c r="C349" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D349">
         <v>117703</v>
@@ -9843,7 +9852,7 @@
         <v>11</v>
       </c>
       <c r="C350" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D350">
         <v>689</v>
@@ -9869,7 +9878,7 @@
         <v>11</v>
       </c>
       <c r="C351" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D351">
         <v>459</v>
@@ -9895,7 +9904,7 @@
         <v>11</v>
       </c>
       <c r="C352" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D352">
         <v>1373</v>
@@ -9921,7 +9930,7 @@
         <v>11</v>
       </c>
       <c r="C353" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D353">
         <v>5923</v>
@@ -9947,7 +9956,7 @@
         <v>11</v>
       </c>
       <c r="C354" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D354">
         <v>1584</v>
@@ -9973,7 +9982,7 @@
         <v>11</v>
       </c>
       <c r="C355" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D355">
         <v>291</v>
@@ -9999,7 +10008,7 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D356">
         <v>288</v>
@@ -10025,7 +10034,7 @@
         <v>11</v>
       </c>
       <c r="C357" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D357">
         <v>1761</v>
@@ -10051,7 +10060,7 @@
         <v>11</v>
       </c>
       <c r="C358" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D358">
         <v>1252</v>
@@ -10077,7 +10086,7 @@
         <v>11</v>
       </c>
       <c r="C359" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D359">
         <v>3052</v>
@@ -10103,7 +10112,7 @@
         <v>11</v>
       </c>
       <c r="C360" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D360">
         <v>18452</v>
@@ -10129,7 +10138,7 @@
         <v>11</v>
       </c>
       <c r="C361" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D361">
         <v>990</v>
@@ -10155,7 +10164,7 @@
         <v>11</v>
       </c>
       <c r="C362" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D362">
         <v>38671</v>
@@ -10181,7 +10190,7 @@
         <v>11</v>
       </c>
       <c r="C363" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D363">
         <v>4210</v>
@@ -10207,7 +10216,7 @@
         <v>11</v>
       </c>
       <c r="C364" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D364">
         <v>5188</v>
@@ -10233,7 +10242,7 @@
         <v>11</v>
       </c>
       <c r="C365" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D365">
         <v>6131</v>
@@ -10259,7 +10268,7 @@
         <v>11</v>
       </c>
       <c r="C366" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D366">
         <v>4294</v>
@@ -10285,7 +10294,7 @@
         <v>11</v>
       </c>
       <c r="C367" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D367">
         <v>2921</v>
@@ -10311,7 +10320,7 @@
         <v>11</v>
       </c>
       <c r="C368" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D368">
         <v>1326</v>
@@ -10337,7 +10346,7 @@
         <v>11</v>
       </c>
       <c r="C369" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D369">
         <v>2347</v>
@@ -10363,7 +10372,7 @@
         <v>11</v>
       </c>
       <c r="C370" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D370">
         <v>2885</v>
@@ -10389,7 +10398,7 @@
         <v>11</v>
       </c>
       <c r="C371" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D371">
         <v>21651</v>
@@ -10415,7 +10424,7 @@
         <v>11</v>
       </c>
       <c r="C372" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D372">
         <v>12338</v>
@@ -10441,7 +10450,7 @@
         <v>11</v>
       </c>
       <c r="C373" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D373">
         <v>297</v>
@@ -10467,7 +10476,7 @@
         <v>11</v>
       </c>
       <c r="C374" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D374">
         <v>6144</v>
@@ -10493,7 +10502,7 @@
         <v>11</v>
       </c>
       <c r="C375" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D375">
         <v>18654</v>
@@ -10519,7 +10528,7 @@
         <v>11</v>
       </c>
       <c r="C376" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D376">
         <v>642</v>
@@ -10545,7 +10554,7 @@
         <v>11</v>
       </c>
       <c r="C377" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D377">
         <v>460</v>
@@ -10571,7 +10580,7 @@
         <v>11</v>
       </c>
       <c r="C378" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D378">
         <v>1317</v>
@@ -10597,7 +10606,7 @@
         <v>11</v>
       </c>
       <c r="C379" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D379">
         <v>222</v>
@@ -10623,7 +10632,7 @@
         <v>11</v>
       </c>
       <c r="C380" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D380">
         <v>2263</v>
@@ -10649,7 +10658,7 @@
         <v>11</v>
       </c>
       <c r="C381" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D381">
         <v>170</v>
@@ -10675,7 +10684,7 @@
         <v>11</v>
       </c>
       <c r="C382" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D382">
         <v>2780</v>
@@ -10701,7 +10710,7 @@
         <v>11</v>
       </c>
       <c r="C383" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D383">
         <v>3950</v>
@@ -10727,7 +10736,7 @@
         <v>11</v>
       </c>
       <c r="C384" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D384">
         <v>723</v>
@@ -10753,7 +10762,7 @@
         <v>11</v>
       </c>
       <c r="C385" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D385">
         <v>257</v>
@@ -10779,7 +10788,7 @@
         <v>11</v>
       </c>
       <c r="C386" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D386">
         <v>177</v>
@@ -10805,7 +10814,7 @@
         <v>11</v>
       </c>
       <c r="C387" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D387">
         <v>5014</v>
@@ -10831,7 +10840,7 @@
         <v>11</v>
       </c>
       <c r="C388" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D388">
         <v>1902</v>
@@ -10857,7 +10866,7 @@
         <v>11</v>
       </c>
       <c r="C389" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D389">
         <v>299</v>
@@ -10883,7 +10892,7 @@
         <v>11</v>
       </c>
       <c r="C390" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D390">
         <v>1665</v>
@@ -10909,7 +10918,7 @@
         <v>11</v>
       </c>
       <c r="C391" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D391">
         <v>329</v>
@@ -10935,7 +10944,7 @@
         <v>11</v>
       </c>
       <c r="C392" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D392">
         <v>1211</v>
@@ -10961,7 +10970,7 @@
         <v>11</v>
       </c>
       <c r="C393" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D393">
         <v>6482</v>
@@ -10987,7 +10996,7 @@
         <v>11</v>
       </c>
       <c r="C394" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D394">
         <v>70248</v>
@@ -11013,7 +11022,7 @@
         <v>11</v>
       </c>
       <c r="C395" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D395">
         <v>2938</v>
@@ -11039,7 +11048,7 @@
         <v>11</v>
       </c>
       <c r="C396" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D396">
         <v>5554</v>
@@ -11065,7 +11074,7 @@
         <v>11</v>
       </c>
       <c r="C397" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D397">
         <v>212393</v>
@@ -11091,7 +11100,7 @@
         <v>11</v>
       </c>
       <c r="C398" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D398">
         <v>388</v>
@@ -11117,7 +11126,7 @@
         <v>11</v>
       </c>
       <c r="C399" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D399">
         <v>4118</v>
@@ -11143,7 +11152,7 @@
         <v>11</v>
       </c>
       <c r="C400" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D400">
         <v>3109</v>
@@ -11169,7 +11178,7 @@
         <v>11</v>
       </c>
       <c r="C401" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D401">
         <v>1508</v>
@@ -11195,7 +11204,7 @@
         <v>11</v>
       </c>
       <c r="C402" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D402">
         <v>1003</v>
@@ -11221,7 +11230,7 @@
         <v>11</v>
       </c>
       <c r="C403" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D403">
         <v>2702</v>
@@ -11247,7 +11256,7 @@
         <v>11</v>
       </c>
       <c r="C404" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D404">
         <v>18942</v>
@@ -11273,7 +11282,7 @@
         <v>11</v>
       </c>
       <c r="C405" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D405">
         <v>1797</v>
@@ -11299,7 +11308,7 @@
         <v>11</v>
       </c>
       <c r="C406" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D406">
         <v>3882</v>
@@ -11325,7 +11334,7 @@
         <v>11</v>
       </c>
       <c r="C407" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D407">
         <v>4438</v>
@@ -11351,7 +11360,7 @@
         <v>11</v>
       </c>
       <c r="C408" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D408">
         <v>263</v>
@@ -11377,7 +11386,7 @@
         <v>11</v>
       </c>
       <c r="C409" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D409">
         <v>3980</v>
@@ -11403,7 +11412,7 @@
         <v>11</v>
       </c>
       <c r="C410" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D410">
         <v>153</v>
@@ -11429,7 +11438,7 @@
         <v>11</v>
       </c>
       <c r="C411" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D411">
         <v>236</v>
@@ -11455,7 +11464,7 @@
         <v>11</v>
       </c>
       <c r="C412" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D412">
         <v>11286</v>
@@ -11481,7 +11490,7 @@
         <v>11</v>
       </c>
       <c r="C413" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D413">
         <v>51930</v>
@@ -11507,7 +11516,7 @@
         <v>11</v>
       </c>
       <c r="C414" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D414">
         <v>653</v>
@@ -11533,7 +11542,7 @@
         <v>11</v>
       </c>
       <c r="C415" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D415">
         <v>23993</v>
@@ -11559,7 +11568,7 @@
         <v>11</v>
       </c>
       <c r="C416" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D416">
         <v>55735</v>
@@ -11585,7 +11594,7 @@
         <v>11</v>
       </c>
       <c r="C417" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D417">
         <v>633</v>
@@ -11611,7 +11620,7 @@
         <v>11</v>
       </c>
       <c r="C418" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D418">
         <v>516</v>
@@ -11637,7 +11646,7 @@
         <v>11</v>
       </c>
       <c r="C419" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D419">
         <v>3441</v>
@@ -11663,7 +11672,7 @@
         <v>12</v>
       </c>
       <c r="C420" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D420">
         <v>404</v>
@@ -11689,7 +11698,7 @@
         <v>12</v>
       </c>
       <c r="C421" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D421">
         <v>2192</v>
@@ -11715,7 +11724,7 @@
         <v>12</v>
       </c>
       <c r="C422" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D422">
         <v>933</v>
@@ -11741,7 +11750,7 @@
         <v>12</v>
       </c>
       <c r="C423" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D423">
         <v>6352</v>
@@ -11767,7 +11776,7 @@
         <v>12</v>
       </c>
       <c r="C424" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D424">
         <v>4828</v>
@@ -11793,7 +11802,7 @@
         <v>12</v>
       </c>
       <c r="C425" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D425">
         <v>1194</v>
@@ -11819,7 +11828,7 @@
         <v>12</v>
       </c>
       <c r="C426" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D426">
         <v>838</v>
@@ -11845,7 +11854,7 @@
         <v>12</v>
       </c>
       <c r="C427" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D427">
         <v>11510</v>
@@ -11871,7 +11880,7 @@
         <v>12</v>
       </c>
       <c r="C428" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D428">
         <v>1482</v>
@@ -11897,7 +11906,7 @@
         <v>12</v>
       </c>
       <c r="C429" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D429">
         <v>292</v>
@@ -11923,7 +11932,7 @@
         <v>12</v>
       </c>
       <c r="C430" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D430">
         <v>13713</v>
@@ -11949,7 +11958,7 @@
         <v>12</v>
       </c>
       <c r="C431" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D431">
         <v>2509</v>
@@ -11975,7 +11984,7 @@
         <v>12</v>
       </c>
       <c r="C432" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D432">
         <v>10554</v>
@@ -12001,7 +12010,7 @@
         <v>12</v>
       </c>
       <c r="C433" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D433">
         <v>2945</v>
@@ -12027,7 +12036,7 @@
         <v>12</v>
       </c>
       <c r="C434" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D434">
         <v>97223</v>
@@ -12053,7 +12062,7 @@
         <v>12</v>
       </c>
       <c r="C435" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D435">
         <v>1259</v>
@@ -12079,7 +12088,7 @@
         <v>12</v>
       </c>
       <c r="C436" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D436">
         <v>443</v>
@@ -12105,7 +12114,7 @@
         <v>12</v>
       </c>
       <c r="C437" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D437">
         <v>1655</v>
@@ -12131,7 +12140,7 @@
         <v>12</v>
       </c>
       <c r="C438" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D438">
         <v>488</v>
@@ -12157,7 +12166,7 @@
         <v>12</v>
       </c>
       <c r="C439" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D439">
         <v>159</v>
@@ -12183,7 +12192,7 @@
         <v>12</v>
       </c>
       <c r="C440" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D440">
         <v>6578</v>
@@ -12209,7 +12218,7 @@
         <v>12</v>
       </c>
       <c r="C441" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D441">
         <v>2375</v>
@@ -12235,7 +12244,7 @@
         <v>12</v>
       </c>
       <c r="C442" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D442">
         <v>109</v>
@@ -12261,7 +12270,7 @@
         <v>12</v>
       </c>
       <c r="C443" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D443">
         <v>400</v>
@@ -12287,7 +12296,7 @@
         <v>12</v>
       </c>
       <c r="C444" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D444">
         <v>267</v>
@@ -12313,7 +12322,7 @@
         <v>12</v>
       </c>
       <c r="C445" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D445">
         <v>602</v>
@@ -12339,7 +12348,7 @@
         <v>12</v>
       </c>
       <c r="C446" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D446">
         <v>1832</v>
@@ -12365,7 +12374,7 @@
         <v>12</v>
       </c>
       <c r="C447" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D447">
         <v>14733</v>
@@ -12391,7 +12400,7 @@
         <v>12</v>
       </c>
       <c r="C448" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D448">
         <v>825</v>
@@ -12417,7 +12426,7 @@
         <v>12</v>
       </c>
       <c r="C449" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D449">
         <v>38230</v>
@@ -12443,7 +12452,7 @@
         <v>12</v>
       </c>
       <c r="C450" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D450">
         <v>4220</v>
@@ -12469,7 +12478,7 @@
         <v>12</v>
       </c>
       <c r="C451" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D451">
         <v>381</v>
@@ -12495,7 +12504,7 @@
         <v>12</v>
       </c>
       <c r="C452" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D452">
         <v>3915</v>
@@ -12521,7 +12530,7 @@
         <v>12</v>
       </c>
       <c r="C453" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D453">
         <v>4900</v>
@@ -12547,7 +12556,7 @@
         <v>12</v>
       </c>
       <c r="C454" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D454">
         <v>4601</v>
@@ -12573,7 +12582,7 @@
         <v>12</v>
       </c>
       <c r="C455" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D455">
         <v>3308</v>
@@ -12599,7 +12608,7 @@
         <v>12</v>
       </c>
       <c r="C456" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D456">
         <v>1572</v>
@@ -12625,7 +12634,7 @@
         <v>12</v>
       </c>
       <c r="C457" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D457">
         <v>3014</v>
@@ -12651,7 +12660,7 @@
         <v>12</v>
       </c>
       <c r="C458" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D458">
         <v>2968</v>
@@ -12677,7 +12686,7 @@
         <v>12</v>
       </c>
       <c r="C459" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D459">
         <v>20223</v>
@@ -12703,7 +12712,7 @@
         <v>12</v>
       </c>
       <c r="C460" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D460">
         <v>13076</v>
@@ -12729,7 +12738,7 @@
         <v>12</v>
       </c>
       <c r="C461" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D461">
         <v>6030</v>
@@ -12755,7 +12764,7 @@
         <v>12</v>
       </c>
       <c r="C462" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D462">
         <v>141</v>
@@ -12781,7 +12790,7 @@
         <v>12</v>
       </c>
       <c r="C463" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D463">
         <v>14864</v>
@@ -12807,7 +12816,7 @@
         <v>12</v>
       </c>
       <c r="C464" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D464">
         <v>310</v>
@@ -12833,7 +12842,7 @@
         <v>12</v>
       </c>
       <c r="C465" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D465">
         <v>1268</v>
@@ -12859,7 +12868,7 @@
         <v>12</v>
       </c>
       <c r="C466" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D466">
         <v>1045</v>
@@ -12885,7 +12894,7 @@
         <v>12</v>
       </c>
       <c r="C467" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D467">
         <v>2408</v>
@@ -12911,7 +12920,7 @@
         <v>12</v>
       </c>
       <c r="C468" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D468">
         <v>2996</v>
@@ -12937,7 +12946,7 @@
         <v>12</v>
       </c>
       <c r="C469" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D469">
         <v>4688</v>
@@ -12963,7 +12972,7 @@
         <v>12</v>
       </c>
       <c r="C470" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D470">
         <v>1351</v>
@@ -12989,7 +12998,7 @@
         <v>12</v>
       </c>
       <c r="C471" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D471">
         <v>423</v>
@@ -13015,7 +13024,7 @@
         <v>12</v>
       </c>
       <c r="C472" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D472">
         <v>150</v>
@@ -13041,7 +13050,7 @@
         <v>12</v>
       </c>
       <c r="C473" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D473">
         <v>5340</v>
@@ -13067,7 +13076,7 @@
         <v>12</v>
       </c>
       <c r="C474" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D474">
         <v>565</v>
@@ -13093,7 +13102,7 @@
         <v>12</v>
       </c>
       <c r="C475" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D475">
         <v>136</v>
@@ -13119,7 +13128,7 @@
         <v>12</v>
       </c>
       <c r="C476" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D476">
         <v>1639</v>
@@ -13145,7 +13154,7 @@
         <v>12</v>
       </c>
       <c r="C477" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D477">
         <v>638</v>
@@ -13171,7 +13180,7 @@
         <v>12</v>
       </c>
       <c r="C478" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D478">
         <v>1025</v>
@@ -13197,7 +13206,7 @@
         <v>12</v>
       </c>
       <c r="C479" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D479">
         <v>5918</v>
@@ -13223,7 +13232,7 @@
         <v>12</v>
       </c>
       <c r="C480" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D480">
         <v>68542</v>
@@ -13249,7 +13258,7 @@
         <v>12</v>
       </c>
       <c r="C481" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D481">
         <v>4122</v>
@@ -13275,7 +13284,7 @@
         <v>12</v>
       </c>
       <c r="C482" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D482">
         <v>277</v>
@@ -13301,7 +13310,7 @@
         <v>12</v>
       </c>
       <c r="C483" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D483">
         <v>5735</v>
@@ -13327,7 +13336,7 @@
         <v>12</v>
       </c>
       <c r="C484" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D484">
         <v>190427</v>
@@ -13353,7 +13362,7 @@
         <v>12</v>
       </c>
       <c r="C485" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D485">
         <v>178</v>
@@ -13379,7 +13388,7 @@
         <v>12</v>
       </c>
       <c r="C486" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D486">
         <v>714</v>
@@ -13405,7 +13414,7 @@
         <v>12</v>
       </c>
       <c r="C487" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D487">
         <v>260</v>
@@ -13431,7 +13440,7 @@
         <v>12</v>
       </c>
       <c r="C488" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D488">
         <v>3163</v>
@@ -13457,7 +13466,7 @@
         <v>12</v>
       </c>
       <c r="C489" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D489">
         <v>2612</v>
@@ -13483,7 +13492,7 @@
         <v>12</v>
       </c>
       <c r="C490" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D490">
         <v>396</v>
@@ -13509,7 +13518,7 @@
         <v>12</v>
       </c>
       <c r="C491" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D491">
         <v>3017</v>
@@ -13535,7 +13544,7 @@
         <v>12</v>
       </c>
       <c r="C492" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D492">
         <v>21872</v>
@@ -13561,7 +13570,7 @@
         <v>12</v>
       </c>
       <c r="C493" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D493">
         <v>1965</v>
@@ -13587,7 +13596,7 @@
         <v>12</v>
       </c>
       <c r="C494" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D494">
         <v>2620</v>
@@ -13613,7 +13622,7 @@
         <v>12</v>
       </c>
       <c r="C495" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D495">
         <v>778</v>
@@ -13639,7 +13648,7 @@
         <v>12</v>
       </c>
       <c r="C496" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D496">
         <v>3907</v>
@@ -13665,7 +13674,7 @@
         <v>12</v>
       </c>
       <c r="C497" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D497">
         <v>2280</v>
@@ -13691,7 +13700,7 @@
         <v>12</v>
       </c>
       <c r="C498" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D498">
         <v>562</v>
@@ -13717,7 +13726,7 @@
         <v>12</v>
       </c>
       <c r="C499" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D499">
         <v>8451</v>
@@ -13743,7 +13752,7 @@
         <v>12</v>
       </c>
       <c r="C500" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D500">
         <v>51813</v>
@@ -13769,7 +13778,7 @@
         <v>12</v>
       </c>
       <c r="C501" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D501">
         <v>564</v>
@@ -13795,7 +13804,7 @@
         <v>12</v>
       </c>
       <c r="C502" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D502">
         <v>23572</v>
@@ -13821,7 +13830,7 @@
         <v>12</v>
       </c>
       <c r="C503" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D503">
         <v>50031</v>
@@ -13847,7 +13856,7 @@
         <v>12</v>
       </c>
       <c r="C504" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D504">
         <v>862</v>
@@ -13873,7 +13882,7 @@
         <v>12</v>
       </c>
       <c r="C505" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D505">
         <v>4644</v>
@@ -13899,7 +13908,7 @@
         <v>13</v>
       </c>
       <c r="C506" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D506">
         <v>1106</v>
@@ -13925,7 +13934,7 @@
         <v>13</v>
       </c>
       <c r="C507" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D507">
         <v>4013</v>
@@ -13951,7 +13960,7 @@
         <v>13</v>
       </c>
       <c r="C508" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D508">
         <v>395</v>
@@ -13977,7 +13986,7 @@
         <v>13</v>
       </c>
       <c r="C509" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D509">
         <v>10014</v>
@@ -14003,7 +14012,7 @@
         <v>13</v>
       </c>
       <c r="C510" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D510">
         <v>4130</v>
@@ -14029,7 +14038,7 @@
         <v>13</v>
       </c>
       <c r="C511" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D511">
         <v>1098</v>
@@ -14055,7 +14064,7 @@
         <v>13</v>
       </c>
       <c r="C512" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D512">
         <v>196</v>
@@ -14081,7 +14090,7 @@
         <v>13</v>
       </c>
       <c r="C513" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D513">
         <v>869</v>
@@ -14107,7 +14116,7 @@
         <v>13</v>
       </c>
       <c r="C514" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D514">
         <v>11393</v>
@@ -14133,7 +14142,7 @@
         <v>13</v>
       </c>
       <c r="C515" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D515">
         <v>1407</v>
@@ -14159,7 +14168,7 @@
         <v>13</v>
       </c>
       <c r="C516" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D516">
         <v>192</v>
@@ -14185,7 +14194,7 @@
         <v>13</v>
       </c>
       <c r="C517" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D517">
         <v>23792</v>
@@ -14211,7 +14220,7 @@
         <v>13</v>
       </c>
       <c r="C518" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D518">
         <v>3319</v>
@@ -14237,7 +14246,7 @@
         <v>13</v>
       </c>
       <c r="C519" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D519">
         <v>14498</v>
@@ -14263,7 +14272,7 @@
         <v>13</v>
       </c>
       <c r="C520" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D520">
         <v>4406</v>
@@ -14289,7 +14298,7 @@
         <v>13</v>
       </c>
       <c r="C521" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D521">
         <v>120787</v>
@@ -14315,7 +14324,7 @@
         <v>13</v>
       </c>
       <c r="C522" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D522">
         <v>2064</v>
@@ -14341,7 +14350,7 @@
         <v>13</v>
       </c>
       <c r="C523" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D523">
         <v>451</v>
@@ -14367,7 +14376,7 @@
         <v>13</v>
       </c>
       <c r="C524" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D524">
         <v>1750</v>
@@ -14393,7 +14402,7 @@
         <v>13</v>
       </c>
       <c r="C525" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D525">
         <v>10256</v>
@@ -14419,7 +14428,7 @@
         <v>13</v>
       </c>
       <c r="C526" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D526">
         <v>4587</v>
@@ -14445,7 +14454,7 @@
         <v>13</v>
       </c>
       <c r="C527" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D527">
         <v>591</v>
@@ -14471,7 +14480,7 @@
         <v>13</v>
       </c>
       <c r="C528" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D528">
         <v>916</v>
@@ -14497,7 +14506,7 @@
         <v>13</v>
       </c>
       <c r="C529" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D529">
         <v>1518</v>
@@ -14523,7 +14532,7 @@
         <v>13</v>
       </c>
       <c r="C530" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D530">
         <v>7961</v>
@@ -14549,7 +14558,7 @@
         <v>13</v>
       </c>
       <c r="C531" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D531">
         <v>17110</v>
@@ -14575,7 +14584,7 @@
         <v>13</v>
       </c>
       <c r="C532" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D532">
         <v>423</v>
@@ -14601,7 +14610,7 @@
         <v>13</v>
       </c>
       <c r="C533" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D533">
         <v>48135</v>
@@ -14627,7 +14636,7 @@
         <v>13</v>
       </c>
       <c r="C534" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D534">
         <v>4700</v>
@@ -14653,7 +14662,7 @@
         <v>13</v>
       </c>
       <c r="C535" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D535">
         <v>6077</v>
@@ -14679,7 +14688,7 @@
         <v>13</v>
       </c>
       <c r="C536" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D536">
         <v>5567</v>
@@ -14705,7 +14714,7 @@
         <v>13</v>
       </c>
       <c r="C537" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D537">
         <v>193</v>
@@ -14731,7 +14740,7 @@
         <v>13</v>
       </c>
       <c r="C538" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D538">
         <v>4674</v>
@@ -14757,7 +14766,7 @@
         <v>13</v>
       </c>
       <c r="C539" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D539">
         <v>3759</v>
@@ -14783,7 +14792,7 @@
         <v>13</v>
       </c>
       <c r="C540" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D540">
         <v>2245</v>
@@ -14809,7 +14818,7 @@
         <v>13</v>
       </c>
       <c r="C541" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D541">
         <v>256</v>
@@ -14835,7 +14844,7 @@
         <v>13</v>
       </c>
       <c r="C542" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D542">
         <v>3756</v>
@@ -14861,7 +14870,7 @@
         <v>13</v>
       </c>
       <c r="C543" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D543">
         <v>6159</v>
@@ -14887,7 +14896,7 @@
         <v>13</v>
       </c>
       <c r="C544" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D544">
         <v>22234</v>
@@ -14913,7 +14922,7 @@
         <v>13</v>
       </c>
       <c r="C545" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D545">
         <v>16786</v>
@@ -14939,7 +14948,7 @@
         <v>13</v>
       </c>
       <c r="C546" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D546">
         <v>508</v>
@@ -14965,7 +14974,7 @@
         <v>13</v>
       </c>
       <c r="C547" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D547">
         <v>8746</v>
@@ -14991,7 +15000,7 @@
         <v>13</v>
       </c>
       <c r="C548" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D548">
         <v>17129</v>
@@ -15017,7 +15026,7 @@
         <v>13</v>
       </c>
       <c r="C549" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D549">
         <v>413</v>
@@ -15043,7 +15052,7 @@
         <v>13</v>
       </c>
       <c r="C550" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D550">
         <v>1519</v>
@@ -15069,7 +15078,7 @@
         <v>13</v>
       </c>
       <c r="C551" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D551">
         <v>401</v>
@@ -15095,7 +15104,7 @@
         <v>13</v>
       </c>
       <c r="C552" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D552">
         <v>2153</v>
@@ -15121,7 +15130,7 @@
         <v>13</v>
       </c>
       <c r="C553" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D553">
         <v>2781</v>
@@ -15147,7 +15156,7 @@
         <v>13</v>
       </c>
       <c r="C554" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D554">
         <v>648</v>
@@ -15173,7 +15182,7 @@
         <v>13</v>
       </c>
       <c r="C555" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D555">
         <v>187</v>
@@ -15199,7 +15208,7 @@
         <v>13</v>
       </c>
       <c r="C556" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D556">
         <v>5481</v>
@@ -15225,7 +15234,7 @@
         <v>13</v>
       </c>
       <c r="C557" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D557">
         <v>1302</v>
@@ -15251,7 +15260,7 @@
         <v>13</v>
       </c>
       <c r="C558" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D558">
         <v>160</v>
@@ -15277,7 +15286,7 @@
         <v>13</v>
       </c>
       <c r="C559" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D559">
         <v>7597</v>
@@ -15303,7 +15312,7 @@
         <v>13</v>
       </c>
       <c r="C560" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D560">
         <v>592</v>
@@ -15329,7 +15338,7 @@
         <v>13</v>
       </c>
       <c r="C561" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D561">
         <v>669</v>
@@ -15355,7 +15364,7 @@
         <v>13</v>
       </c>
       <c r="C562" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D562">
         <v>1333</v>
@@ -15381,7 +15390,7 @@
         <v>13</v>
       </c>
       <c r="C563" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D563">
         <v>758</v>
@@ -15407,7 +15416,7 @@
         <v>13</v>
       </c>
       <c r="C564" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D564">
         <v>2340</v>
@@ -15433,7 +15442,7 @@
         <v>13</v>
       </c>
       <c r="C565" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D565">
         <v>8296</v>
@@ -15459,7 +15468,7 @@
         <v>13</v>
       </c>
       <c r="C566" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D566">
         <v>91117</v>
@@ -15485,7 +15494,7 @@
         <v>13</v>
       </c>
       <c r="C567" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D567">
         <v>4078</v>
@@ -15511,7 +15520,7 @@
         <v>13</v>
       </c>
       <c r="C568" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D568">
         <v>298</v>
@@ -15537,7 +15546,7 @@
         <v>13</v>
       </c>
       <c r="C569" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D569">
         <v>6392</v>
@@ -15563,7 +15572,7 @@
         <v>13</v>
       </c>
       <c r="C570" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D570">
         <v>223232</v>
@@ -15589,7 +15598,7 @@
         <v>13</v>
       </c>
       <c r="C571" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D571">
         <v>1517</v>
@@ -15615,7 +15624,7 @@
         <v>13</v>
       </c>
       <c r="C572" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D572">
         <v>6989</v>
@@ -15641,7 +15650,7 @@
         <v>13</v>
       </c>
       <c r="C573" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D573">
         <v>4094</v>
@@ -15667,7 +15676,7 @@
         <v>13</v>
       </c>
       <c r="C574" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D574">
         <v>1412</v>
@@ -15693,7 +15702,7 @@
         <v>13</v>
       </c>
       <c r="C575" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D575">
         <v>714</v>
@@ -15719,7 +15728,7 @@
         <v>13</v>
       </c>
       <c r="C576" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D576">
         <v>3173</v>
@@ -15745,7 +15754,7 @@
         <v>13</v>
       </c>
       <c r="C577" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D577">
         <v>20494</v>
@@ -15771,7 +15780,7 @@
         <v>13</v>
       </c>
       <c r="C578" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D578">
         <v>4386</v>
@@ -15797,7 +15806,7 @@
         <v>13</v>
       </c>
       <c r="C579" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D579">
         <v>4831</v>
@@ -15823,7 +15832,7 @@
         <v>13</v>
       </c>
       <c r="C580" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D580">
         <v>653</v>
@@ -15849,7 +15858,7 @@
         <v>13</v>
       </c>
       <c r="C581" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D581">
         <v>4147</v>
@@ -15875,7 +15884,7 @@
         <v>13</v>
       </c>
       <c r="C582" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D582">
         <v>2554</v>
@@ -15901,7 +15910,7 @@
         <v>13</v>
       </c>
       <c r="C583" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D583">
         <v>255</v>
@@ -15927,7 +15936,7 @@
         <v>13</v>
       </c>
       <c r="C584" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D584">
         <v>11374</v>
@@ -15953,7 +15962,7 @@
         <v>13</v>
       </c>
       <c r="C585" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D585">
         <v>61402</v>
@@ -15979,7 +15988,7 @@
         <v>13</v>
       </c>
       <c r="C586" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D586">
         <v>592</v>
@@ -16005,7 +16014,7 @@
         <v>13</v>
       </c>
       <c r="C587" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D587">
         <v>30871</v>
@@ -16031,7 +16040,7 @@
         <v>13</v>
       </c>
       <c r="C588" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D588">
         <v>69545</v>
@@ -16057,7 +16066,7 @@
         <v>13</v>
       </c>
       <c r="C589" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D589">
         <v>244</v>
@@ -16083,7 +16092,7 @@
         <v>13</v>
       </c>
       <c r="C590" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D590">
         <v>911</v>
@@ -16109,7 +16118,7 @@
         <v>13</v>
       </c>
       <c r="C591" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D591">
         <v>909</v>
@@ -16135,7 +16144,7 @@
         <v>13</v>
       </c>
       <c r="C592" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D592">
         <v>3762</v>
@@ -16161,7 +16170,7 @@
         <v>14</v>
       </c>
       <c r="C593" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D593">
         <v>218</v>
@@ -16187,7 +16196,7 @@
         <v>14</v>
       </c>
       <c r="C594" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D594">
         <v>2752</v>
@@ -16213,7 +16222,7 @@
         <v>14</v>
       </c>
       <c r="C595" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D595">
         <v>1002</v>
@@ -16239,7 +16248,7 @@
         <v>14</v>
       </c>
       <c r="C596" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D596">
         <v>10230</v>
@@ -16265,7 +16274,7 @@
         <v>14</v>
       </c>
       <c r="C597" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D597">
         <v>4644</v>
@@ -16291,7 +16300,7 @@
         <v>14</v>
       </c>
       <c r="C598" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D598">
         <v>1447</v>
@@ -16317,7 +16326,7 @@
         <v>14</v>
       </c>
       <c r="C599" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D599">
         <v>319</v>
@@ -16343,7 +16352,7 @@
         <v>14</v>
       </c>
       <c r="C600" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D600">
         <v>370</v>
@@ -16369,7 +16378,7 @@
         <v>14</v>
       </c>
       <c r="C601" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D601">
         <v>10260</v>
@@ -16395,7 +16404,7 @@
         <v>14</v>
       </c>
       <c r="C602" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D602">
         <v>1654</v>
@@ -16421,7 +16430,7 @@
         <v>14</v>
       </c>
       <c r="C603" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D603">
         <v>1167</v>
@@ -16447,7 +16456,7 @@
         <v>14</v>
       </c>
       <c r="C604" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D604">
         <v>13987</v>
@@ -16473,7 +16482,7 @@
         <v>14</v>
       </c>
       <c r="C605" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D605">
         <v>5516</v>
@@ -16499,7 +16508,7 @@
         <v>14</v>
       </c>
       <c r="C606" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D606">
         <v>10809</v>
@@ -16525,7 +16534,7 @@
         <v>14</v>
       </c>
       <c r="C607" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D607">
         <v>2358</v>
@@ -16551,7 +16560,7 @@
         <v>14</v>
       </c>
       <c r="C608" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D608">
         <v>117365</v>
@@ -16577,7 +16586,7 @@
         <v>14</v>
       </c>
       <c r="C609" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D609">
         <v>730</v>
@@ -16603,7 +16612,7 @@
         <v>14</v>
       </c>
       <c r="C610" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D610">
         <v>570</v>
@@ -16629,7 +16638,7 @@
         <v>14</v>
       </c>
       <c r="C611" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D611">
         <v>291</v>
@@ -16655,7 +16664,7 @@
         <v>14</v>
       </c>
       <c r="C612" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D612">
         <v>2247</v>
@@ -16681,7 +16690,7 @@
         <v>14</v>
       </c>
       <c r="C613" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D613">
         <v>1217</v>
@@ -16707,7 +16716,7 @@
         <v>14</v>
       </c>
       <c r="C614" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D614">
         <v>5618</v>
@@ -16733,7 +16742,7 @@
         <v>14</v>
       </c>
       <c r="C615" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D615">
         <v>900</v>
@@ -16759,7 +16768,7 @@
         <v>14</v>
       </c>
       <c r="C616" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D616">
         <v>329</v>
@@ -16785,7 +16794,7 @@
         <v>14</v>
       </c>
       <c r="C617" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D617">
         <v>532</v>
@@ -16811,7 +16820,7 @@
         <v>14</v>
       </c>
       <c r="C618" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D618">
         <v>342</v>
@@ -16837,7 +16846,7 @@
         <v>14</v>
       </c>
       <c r="C619" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D619">
         <v>1726</v>
@@ -16863,7 +16872,7 @@
         <v>14</v>
       </c>
       <c r="C620" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D620">
         <v>4052</v>
@@ -16889,7 +16898,7 @@
         <v>14</v>
       </c>
       <c r="C621" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D621">
         <v>13331</v>
@@ -16915,7 +16924,7 @@
         <v>14</v>
       </c>
       <c r="C622" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D622">
         <v>150</v>
@@ -16941,7 +16950,7 @@
         <v>14</v>
       </c>
       <c r="C623" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D623">
         <v>35557</v>
@@ -16967,7 +16976,7 @@
         <v>14</v>
       </c>
       <c r="C624" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D624">
         <v>3729</v>
@@ -16993,7 +17002,7 @@
         <v>14</v>
       </c>
       <c r="C625" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D625">
         <v>348</v>
@@ -17019,7 +17028,7 @@
         <v>14</v>
       </c>
       <c r="C626" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D626">
         <v>5154</v>
@@ -17045,7 +17054,7 @@
         <v>14</v>
       </c>
       <c r="C627" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D627">
         <v>4042</v>
@@ -17071,7 +17080,7 @@
         <v>14</v>
       </c>
       <c r="C628" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D628">
         <v>307</v>
@@ -17097,7 +17106,7 @@
         <v>14</v>
       </c>
       <c r="C629" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D629">
         <v>6380</v>
@@ -17123,7 +17132,7 @@
         <v>14</v>
       </c>
       <c r="C630" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D630">
         <v>2465</v>
@@ -17149,7 +17158,7 @@
         <v>14</v>
       </c>
       <c r="C631" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D631">
         <v>943</v>
@@ -17175,7 +17184,7 @@
         <v>14</v>
       </c>
       <c r="C632" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D632">
         <v>432</v>
@@ -17201,7 +17210,7 @@
         <v>14</v>
       </c>
       <c r="C633" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D633">
         <v>2988</v>
@@ -17227,7 +17236,7 @@
         <v>14</v>
       </c>
       <c r="C634" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D634">
         <v>3389</v>
@@ -17253,7 +17262,7 @@
         <v>14</v>
       </c>
       <c r="C635" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D635">
         <v>17017</v>
@@ -17279,7 +17288,7 @@
         <v>14</v>
       </c>
       <c r="C636" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D636">
         <v>17783</v>
@@ -17305,7 +17314,7 @@
         <v>14</v>
       </c>
       <c r="C637" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D637">
         <v>162</v>
@@ -17331,7 +17340,7 @@
         <v>14</v>
       </c>
       <c r="C638" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D638">
         <v>5557</v>
@@ -17357,7 +17366,7 @@
         <v>14</v>
       </c>
       <c r="C639" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D639">
         <v>20616</v>
@@ -17383,7 +17392,7 @@
         <v>14</v>
       </c>
       <c r="C640" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D640">
         <v>156</v>
@@ -17409,7 +17418,7 @@
         <v>14</v>
       </c>
       <c r="C641" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D641">
         <v>1080</v>
@@ -17435,7 +17444,7 @@
         <v>14</v>
       </c>
       <c r="C642" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D642">
         <v>134</v>
@@ -17461,7 +17470,7 @@
         <v>14</v>
       </c>
       <c r="C643" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D643">
         <v>1404</v>
@@ -17487,7 +17496,7 @@
         <v>14</v>
       </c>
       <c r="C644" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D644">
         <v>226</v>
@@ -17513,7 +17522,7 @@
         <v>14</v>
       </c>
       <c r="C645" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D645">
         <v>2178</v>
@@ -17539,7 +17548,7 @@
         <v>14</v>
       </c>
       <c r="C646" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D646">
         <v>229</v>
@@ -17565,7 +17574,7 @@
         <v>14</v>
       </c>
       <c r="C647" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D647">
         <v>4306</v>
@@ -17591,7 +17600,7 @@
         <v>14</v>
       </c>
       <c r="C648" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D648">
         <v>661</v>
@@ -17617,7 +17626,7 @@
         <v>14</v>
       </c>
       <c r="C649" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D649">
         <v>213</v>
@@ -17643,7 +17652,7 @@
         <v>14</v>
       </c>
       <c r="C650" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D650">
         <v>204</v>
@@ -17669,16 +17678,22 @@
         <v>14</v>
       </c>
       <c r="C651" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="D651">
-        <v>460</v>
+        <v>6754</v>
       </c>
       <c r="E651">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="F651">
+        <v>17097130</v>
+      </c>
+      <c r="G651">
+        <v>1.228276324739883</v>
       </c>
       <c r="H651">
-        <v>460</v>
+        <v>321.6190476190476</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17689,22 +17704,22 @@
         <v>14</v>
       </c>
       <c r="C652" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D652">
-        <v>6754</v>
+        <v>1131</v>
       </c>
       <c r="E652">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F652">
-        <v>17097130</v>
+        <v>4783063</v>
       </c>
       <c r="G652">
-        <v>1.228276324739883</v>
+        <v>0.6272131477256311</v>
       </c>
       <c r="H652">
-        <v>321.6190476190476</v>
+        <v>377</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17715,22 +17730,22 @@
         <v>14</v>
       </c>
       <c r="C653" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D653">
-        <v>1131</v>
+        <v>819</v>
       </c>
       <c r="E653">
         <v>3</v>
       </c>
       <c r="F653">
-        <v>4783063</v>
+        <v>2083458</v>
       </c>
       <c r="G653">
-        <v>0.6272131477256311</v>
+        <v>1.43991383555608</v>
       </c>
       <c r="H653">
-        <v>377</v>
+        <v>273</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17741,22 +17756,22 @@
         <v>14</v>
       </c>
       <c r="C654" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D654">
-        <v>819</v>
+        <v>1930</v>
       </c>
       <c r="E654">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F654">
-        <v>2083458</v>
+        <v>5378857</v>
       </c>
       <c r="G654">
-        <v>1.43991383555608</v>
+        <v>1.301391726904062</v>
       </c>
       <c r="H654">
-        <v>273</v>
+        <v>275.7142857142857</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17767,22 +17782,22 @@
         <v>14</v>
       </c>
       <c r="C655" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D655">
-        <v>1930</v>
+        <v>609</v>
       </c>
       <c r="E655">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F655">
-        <v>5378857</v>
+        <v>216565318</v>
       </c>
       <c r="G655">
-        <v>1.301391726904062</v>
+        <v>0.009235089064445675</v>
       </c>
       <c r="H655">
-        <v>275.7142857142857</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17793,22 +17808,22 @@
         <v>14</v>
       </c>
       <c r="C656" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="D656">
-        <v>609</v>
+        <v>453</v>
       </c>
       <c r="E656">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F656">
-        <v>216565318</v>
+        <v>4246439</v>
       </c>
       <c r="G656">
-        <v>0.009235089064445675</v>
+        <v>0.235491431762001</v>
       </c>
       <c r="H656">
-        <v>304.5</v>
+        <v>453</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17819,22 +17834,22 @@
         <v>14</v>
       </c>
       <c r="C657" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D657">
-        <v>453</v>
+        <v>1806</v>
       </c>
       <c r="E657">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F657">
-        <v>4246439</v>
+        <v>32510453</v>
       </c>
       <c r="G657">
-        <v>0.235491431762001</v>
+        <v>0.1845560257188665</v>
       </c>
       <c r="H657">
-        <v>453</v>
+        <v>301</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17845,22 +17860,22 @@
         <v>14</v>
       </c>
       <c r="C658" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D658">
-        <v>1806</v>
+        <v>5347</v>
       </c>
       <c r="E658">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F658">
-        <v>32510453</v>
+        <v>108116615</v>
       </c>
       <c r="G658">
-        <v>0.1845560257188665</v>
+        <v>0.1294898106086655</v>
       </c>
       <c r="H658">
-        <v>301</v>
+        <v>381.9285714285714</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17871,22 +17886,22 @@
         <v>14</v>
       </c>
       <c r="C659" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D659">
-        <v>5347</v>
+        <v>72225</v>
       </c>
       <c r="E659">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="F659">
-        <v>108116615</v>
+        <v>37887768</v>
       </c>
       <c r="G659">
-        <v>0.1294898106086655</v>
+        <v>7.047129300411679</v>
       </c>
       <c r="H659">
-        <v>381.9285714285714</v>
+        <v>270.5056179775281</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17897,22 +17912,22 @@
         <v>14</v>
       </c>
       <c r="C660" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D660">
-        <v>72225</v>
+        <v>1514</v>
       </c>
       <c r="E660">
-        <v>267</v>
+        <v>6</v>
       </c>
       <c r="F660">
-        <v>37887768</v>
+        <v>10226187</v>
       </c>
       <c r="G660">
-        <v>7.047129300411679</v>
+        <v>0.5867289538124034</v>
       </c>
       <c r="H660">
-        <v>270.5056179775281</v>
+        <v>252.3333333333333</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17923,22 +17938,22 @@
         <v>14</v>
       </c>
       <c r="C661" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D661">
-        <v>1514</v>
+        <v>5133</v>
       </c>
       <c r="E661">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F661">
-        <v>10226187</v>
+        <v>19364557</v>
       </c>
       <c r="G661">
-        <v>0.5867289538124034</v>
+        <v>0.8262517960002906</v>
       </c>
       <c r="H661">
-        <v>252.3333333333333</v>
+        <v>320.8125</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17949,22 +17964,22 @@
         <v>14</v>
       </c>
       <c r="C662" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D662">
-        <v>5133</v>
+        <v>195905</v>
       </c>
       <c r="E662">
-        <v>16</v>
+        <v>673</v>
       </c>
       <c r="F662">
-        <v>19364557</v>
+        <v>145872256</v>
       </c>
       <c r="G662">
-        <v>0.8262517960002906</v>
+        <v>4.613625774047122</v>
       </c>
       <c r="H662">
-        <v>320.8125</v>
+        <v>291.0921248142645</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17975,22 +17990,22 @@
         <v>14</v>
       </c>
       <c r="C663" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D663">
-        <v>195905</v>
+        <v>905</v>
       </c>
       <c r="E663">
-        <v>673</v>
+        <v>3</v>
       </c>
       <c r="F663">
-        <v>145872256</v>
+        <v>34268528</v>
       </c>
       <c r="G663">
-        <v>4.613625774047122</v>
+        <v>0.08754388283033342</v>
       </c>
       <c r="H663">
-        <v>291.0921248142645</v>
+        <v>301.6666666666667</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -18001,22 +18016,22 @@
         <v>14</v>
       </c>
       <c r="C664" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D664">
-        <v>905</v>
+        <v>4074</v>
       </c>
       <c r="E664">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F664">
-        <v>34268528</v>
+        <v>8772235</v>
       </c>
       <c r="G664">
-        <v>0.08754388283033342</v>
+        <v>1.139960340779744</v>
       </c>
       <c r="H664">
-        <v>301.6666666666667</v>
+        <v>407.4</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -18027,22 +18042,22 @@
         <v>14</v>
       </c>
       <c r="C665" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D665">
-        <v>4074</v>
+        <v>975</v>
       </c>
       <c r="E665">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F665">
-        <v>8772235</v>
+        <v>5804337</v>
       </c>
       <c r="G665">
-        <v>1.139960340779744</v>
+        <v>0.5168548966057622</v>
       </c>
       <c r="H665">
-        <v>407.4</v>
+        <v>325</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -18053,22 +18068,22 @@
         <v>14</v>
       </c>
       <c r="C666" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D666">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="E666">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F666">
-        <v>5804337</v>
+        <v>5457013</v>
       </c>
       <c r="G666">
-        <v>0.5168548966057622</v>
+        <v>0.7330017355648594</v>
       </c>
       <c r="H666">
-        <v>325</v>
+        <v>239.5</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -18079,22 +18094,22 @@
         <v>14</v>
       </c>
       <c r="C667" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D667">
-        <v>958</v>
+        <v>820</v>
       </c>
       <c r="E667">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F667">
-        <v>5457013</v>
+        <v>2078654</v>
       </c>
       <c r="G667">
-        <v>0.7330017355648594</v>
+        <v>1.443241636174178</v>
       </c>
       <c r="H667">
-        <v>239.5</v>
+        <v>273.3333333333333</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -18105,22 +18120,22 @@
         <v>14</v>
       </c>
       <c r="C668" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D668">
-        <v>820</v>
+        <v>2841</v>
       </c>
       <c r="E668">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F668">
-        <v>2078654</v>
+        <v>58558270</v>
       </c>
       <c r="G668">
-        <v>1.443241636174178</v>
+        <v>0.1536930650444421</v>
       </c>
       <c r="H668">
-        <v>273.3333333333333</v>
+        <v>315.6666666666667</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -18131,22 +18146,22 @@
         <v>14</v>
       </c>
       <c r="C669" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D669">
-        <v>2841</v>
+        <v>15621</v>
       </c>
       <c r="E669">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F669">
-        <v>58558270</v>
+        <v>46736776</v>
       </c>
       <c r="G669">
-        <v>0.1536930650444421</v>
+        <v>1.283785599588641</v>
       </c>
       <c r="H669">
-        <v>315.6666666666667</v>
+        <v>260.35</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -18157,22 +18172,22 @@
         <v>14</v>
       </c>
       <c r="C670" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D670">
-        <v>15621</v>
+        <v>4141</v>
       </c>
       <c r="E670">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F670">
-        <v>46736776</v>
+        <v>10036379</v>
       </c>
       <c r="G670">
-        <v>1.283785599588641</v>
+        <v>1.594200458153284</v>
       </c>
       <c r="H670">
-        <v>260.35</v>
+        <v>258.8125</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -18183,22 +18198,22 @@
         <v>14</v>
       </c>
       <c r="C671" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D671">
-        <v>4141</v>
+        <v>2580</v>
       </c>
       <c r="E671">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F671">
-        <v>10036379</v>
+        <v>8591365</v>
       </c>
       <c r="G671">
-        <v>1.594200458153284</v>
+        <v>0.6983756364675462</v>
       </c>
       <c r="H671">
-        <v>258.8125</v>
+        <v>430</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -18209,22 +18224,22 @@
         <v>14</v>
       </c>
       <c r="C672" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D672">
-        <v>2580</v>
+        <v>190</v>
       </c>
       <c r="E672">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F672">
-        <v>8591365</v>
+        <v>17070135</v>
       </c>
       <c r="G672">
-        <v>0.6983756364675462</v>
+        <v>0.05858184484188321</v>
       </c>
       <c r="H672">
-        <v>430</v>
+        <v>190</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -18235,22 +18250,22 @@
         <v>14</v>
       </c>
       <c r="C673" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D673">
-        <v>190</v>
+        <v>4522</v>
       </c>
       <c r="E673">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F673">
-        <v>17070135</v>
+        <v>23773876</v>
       </c>
       <c r="G673">
-        <v>0.05858184484188321</v>
+        <v>0.7150706094370139</v>
       </c>
       <c r="H673">
-        <v>190</v>
+        <v>266</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -18261,22 +18276,22 @@
         <v>14</v>
       </c>
       <c r="C674" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D674">
-        <v>4522</v>
+        <v>166</v>
       </c>
       <c r="E674">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F674">
-        <v>23773876</v>
+        <v>58005463</v>
       </c>
       <c r="G674">
-        <v>0.7150706094370139</v>
+        <v>0.01723975550371868</v>
       </c>
       <c r="H674">
-        <v>266</v>
+        <v>166</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -18287,22 +18302,22 @@
         <v>14</v>
       </c>
       <c r="C675" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D675">
-        <v>166</v>
+        <v>1573</v>
       </c>
       <c r="E675">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F675">
-        <v>58005463</v>
+        <v>69625582</v>
       </c>
       <c r="G675">
-        <v>0.01723975550371868</v>
+        <v>0.08617522220496483</v>
       </c>
       <c r="H675">
-        <v>166</v>
+        <v>262.1666666666667</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18313,22 +18328,22 @@
         <v>14</v>
       </c>
       <c r="C676" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D676">
-        <v>1573</v>
+        <v>331</v>
       </c>
       <c r="E676">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F676">
-        <v>69625582</v>
+        <v>8082366</v>
       </c>
       <c r="G676">
-        <v>0.08617522220496483</v>
+        <v>0.1237261465268957</v>
       </c>
       <c r="H676">
-        <v>262.1666666666667</v>
+        <v>331</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18339,22 +18354,22 @@
         <v>14</v>
       </c>
       <c r="C677" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D677">
-        <v>331</v>
+        <v>8408</v>
       </c>
       <c r="E677">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F677">
-        <v>8082366</v>
+        <v>83429615</v>
       </c>
       <c r="G677">
-        <v>0.1237261465268957</v>
+        <v>0.323626088889419</v>
       </c>
       <c r="H677">
-        <v>331</v>
+        <v>311.4074074074074</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18365,22 +18380,22 @@
         <v>14</v>
       </c>
       <c r="C678" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D678">
-        <v>8408</v>
+        <v>163</v>
       </c>
       <c r="E678">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F678">
-        <v>83429615</v>
+        <v>5942089</v>
       </c>
       <c r="G678">
-        <v>0.323626088889419</v>
+        <v>0.1682909831878991</v>
       </c>
       <c r="H678">
-        <v>311.4074074074074</v>
+        <v>163</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18391,22 +18406,22 @@
         <v>14</v>
       </c>
       <c r="C679" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D679">
-        <v>163</v>
+        <v>52333</v>
       </c>
       <c r="E679">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="F679">
-        <v>5942089</v>
+        <v>43993638</v>
       </c>
       <c r="G679">
-        <v>0.1682909831878991</v>
+        <v>3.682350616241376</v>
       </c>
       <c r="H679">
-        <v>163</v>
+        <v>323.0432098765432</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18417,22 +18432,22 @@
         <v>14</v>
       </c>
       <c r="C680" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D680">
-        <v>52333</v>
+        <v>27540</v>
       </c>
       <c r="E680">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="F680">
-        <v>43993638</v>
+        <v>67530172</v>
       </c>
       <c r="G680">
-        <v>3.682350616241376</v>
+        <v>1.33273760949402</v>
       </c>
       <c r="H680">
-        <v>323.0432098765432</v>
+        <v>306</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18443,22 +18458,22 @@
         <v>14</v>
       </c>
       <c r="C681" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D681">
-        <v>27540</v>
+        <v>56490</v>
       </c>
       <c r="E681">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="F681">
-        <v>67530172</v>
+        <v>329064917</v>
       </c>
       <c r="G681">
-        <v>1.33273760949402</v>
+        <v>0.5895493259161383</v>
       </c>
       <c r="H681">
-        <v>306</v>
+        <v>291.1855670103093</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18469,22 +18484,22 @@
         <v>14</v>
       </c>
       <c r="C682" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D682">
-        <v>56490</v>
+        <v>778</v>
       </c>
       <c r="E682">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="F682">
-        <v>329064917</v>
+        <v>32981716</v>
       </c>
       <c r="G682">
-        <v>0.5895493259161383</v>
+        <v>0.09095948797812703</v>
       </c>
       <c r="H682">
-        <v>291.1855670103093</v>
+        <v>259.3333333333333</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18495,22 +18510,22 @@
         <v>14</v>
       </c>
       <c r="C683" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D683">
-        <v>778</v>
+        <v>814</v>
       </c>
       <c r="E683">
         <v>3</v>
       </c>
       <c r="F683">
-        <v>32981716</v>
+        <v>28515829</v>
       </c>
       <c r="G683">
-        <v>0.09095948797812703</v>
+        <v>0.1052047268203214</v>
       </c>
       <c r="H683">
-        <v>259.3333333333333</v>
+        <v>271.3333333333333</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18521,22 +18536,22 @@
         <v>14</v>
       </c>
       <c r="C684" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D684">
-        <v>814</v>
+        <v>4570</v>
       </c>
       <c r="E684">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F684">
-        <v>28515829</v>
+        <v>96462106</v>
       </c>
       <c r="G684">
-        <v>0.1052047268203214</v>
+        <v>0.1555014774402707</v>
       </c>
       <c r="H684">
-        <v>271.3333333333333</v>
+        <v>304.6666666666667</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18544,25 +18559,2333 @@
         <v>683</v>
       </c>
       <c r="B685" t="s">
+        <v>15</v>
+      </c>
+      <c r="C685" t="s">
+        <v>16</v>
+      </c>
+      <c r="D685">
+        <v>351</v>
+      </c>
+      <c r="E685">
+        <v>2</v>
+      </c>
+      <c r="F685">
+        <v>43053054</v>
+      </c>
+      <c r="G685">
+        <v>0.04645431192871939</v>
+      </c>
+      <c r="H685">
+        <v>175.5</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8">
+      <c r="A686" s="1">
+        <v>684</v>
+      </c>
+      <c r="B686" t="s">
+        <v>15</v>
+      </c>
+      <c r="C686" t="s">
+        <v>131</v>
+      </c>
+      <c r="D686">
+        <v>197</v>
+      </c>
+      <c r="E686">
+        <v>1</v>
+      </c>
+      <c r="F686">
+        <v>31825295</v>
+      </c>
+      <c r="G686">
+        <v>0.03142154691731844</v>
+      </c>
+      <c r="H686">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8">
+      <c r="A687" s="1">
+        <v>685</v>
+      </c>
+      <c r="B687" t="s">
+        <v>15</v>
+      </c>
+      <c r="C687" t="s">
+        <v>17</v>
+      </c>
+      <c r="D687">
+        <v>2839</v>
+      </c>
+      <c r="E687">
+        <v>12</v>
+      </c>
+      <c r="F687">
+        <v>44780677</v>
+      </c>
+      <c r="G687">
+        <v>0.2679727240389868</v>
+      </c>
+      <c r="H687">
+        <v>236.5833333333333</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8">
+      <c r="A688" s="1">
+        <v>686</v>
+      </c>
+      <c r="B688" t="s">
+        <v>15</v>
+      </c>
+      <c r="C688" t="s">
+        <v>19</v>
+      </c>
+      <c r="D688">
+        <v>10262</v>
+      </c>
+      <c r="E688">
+        <v>30</v>
+      </c>
+      <c r="F688">
+        <v>25203198</v>
+      </c>
+      <c r="G688">
+        <v>1.190325132548655</v>
+      </c>
+      <c r="H688">
+        <v>342.0666666666667</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8">
+      <c r="A689" s="1">
+        <v>687</v>
+      </c>
+      <c r="B689" t="s">
+        <v>15</v>
+      </c>
+      <c r="C689" t="s">
+        <v>20</v>
+      </c>
+      <c r="D689">
+        <v>4742</v>
+      </c>
+      <c r="E689">
         <v>14</v>
       </c>
-      <c r="C685" t="s">
+      <c r="F689">
+        <v>8955102</v>
+      </c>
+      <c r="G689">
+        <v>1.563354610589583</v>
+      </c>
+      <c r="H689">
+        <v>338.7142857142857</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8">
+      <c r="A690" s="1">
+        <v>688</v>
+      </c>
+      <c r="B690" t="s">
+        <v>15</v>
+      </c>
+      <c r="C690" t="s">
+        <v>21</v>
+      </c>
+      <c r="D690">
+        <v>571</v>
+      </c>
+      <c r="E690">
+        <v>2</v>
+      </c>
+      <c r="F690">
+        <v>10047718</v>
+      </c>
+      <c r="G690">
+        <v>0.1990501723874018</v>
+      </c>
+      <c r="H690">
+        <v>285.5</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8">
+      <c r="A691" s="1">
+        <v>689</v>
+      </c>
+      <c r="B691" t="s">
+        <v>15</v>
+      </c>
+      <c r="C691" t="s">
+        <v>22</v>
+      </c>
+      <c r="D691">
+        <v>283</v>
+      </c>
+      <c r="E691">
+        <v>1</v>
+      </c>
+      <c r="F691">
+        <v>1641172</v>
+      </c>
+      <c r="G691">
+        <v>0.6093206562139739</v>
+      </c>
+      <c r="H691">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8">
+      <c r="A692" s="1">
+        <v>690</v>
+      </c>
+      <c r="B692" t="s">
+        <v>15</v>
+      </c>
+      <c r="C692" t="s">
+        <v>105</v>
+      </c>
+      <c r="D692">
+        <v>1115</v>
+      </c>
+      <c r="E692">
+        <v>3</v>
+      </c>
+      <c r="F692">
+        <v>163046161</v>
+      </c>
+      <c r="G692">
+        <v>0.01839969724892817</v>
+      </c>
+      <c r="H692">
+        <v>371.6666666666667</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8">
+      <c r="A693" s="1">
+        <v>691</v>
+      </c>
+      <c r="B693" t="s">
+        <v>15</v>
+      </c>
+      <c r="C693" t="s">
+        <v>23</v>
+      </c>
+      <c r="D693">
+        <v>11331</v>
+      </c>
+      <c r="E693">
+        <v>38</v>
+      </c>
+      <c r="F693">
+        <v>9452411</v>
+      </c>
+      <c r="G693">
+        <v>4.020138354119388</v>
+      </c>
+      <c r="H693">
+        <v>298.1842105263158</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8">
+      <c r="A694" s="1">
+        <v>692</v>
+      </c>
+      <c r="B694" t="s">
+        <v>15</v>
+      </c>
+      <c r="C694" t="s">
+        <v>24</v>
+      </c>
+      <c r="D694">
+        <v>2031</v>
+      </c>
+      <c r="E694">
+        <v>10</v>
+      </c>
+      <c r="F694">
+        <v>11539328</v>
+      </c>
+      <c r="G694">
+        <v>0.8666015906645517</v>
+      </c>
+      <c r="H694">
+        <v>203.1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8">
+      <c r="A695" s="1">
+        <v>693</v>
+      </c>
+      <c r="B695" t="s">
+        <v>15</v>
+      </c>
+      <c r="C695" t="s">
+        <v>111</v>
+      </c>
+      <c r="D695">
+        <v>338</v>
+      </c>
+      <c r="E695">
+        <v>1</v>
+      </c>
+      <c r="F695">
+        <v>11513100</v>
+      </c>
+      <c r="G695">
+        <v>0.08685757962668612</v>
+      </c>
+      <c r="H695">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8">
+      <c r="A696" s="1">
+        <v>694</v>
+      </c>
+      <c r="B696" t="s">
+        <v>15</v>
+      </c>
+      <c r="C696" t="s">
+        <v>102</v>
+      </c>
+      <c r="D696">
+        <v>650</v>
+      </c>
+      <c r="E696">
+        <v>2</v>
+      </c>
+      <c r="F696">
+        <v>3301000</v>
+      </c>
+      <c r="G696">
+        <v>0.6058770069675856</v>
+      </c>
+      <c r="H696">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8">
+      <c r="A697" s="1">
+        <v>695</v>
+      </c>
+      <c r="B697" t="s">
+        <v>15</v>
+      </c>
+      <c r="C697" t="s">
+        <v>25</v>
+      </c>
+      <c r="D697">
+        <v>13979</v>
+      </c>
+      <c r="E697">
+        <v>41</v>
+      </c>
+      <c r="F697">
+        <v>211049527</v>
+      </c>
+      <c r="G697">
+        <v>0.1942671968177403</v>
+      </c>
+      <c r="H697">
+        <v>340.9512195121951</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8">
+      <c r="A698" s="1">
+        <v>696</v>
+      </c>
+      <c r="B698" t="s">
+        <v>15</v>
+      </c>
+      <c r="C698" t="s">
+        <v>26</v>
+      </c>
+      <c r="D698">
+        <v>3283</v>
+      </c>
+      <c r="E698">
+        <v>8</v>
+      </c>
+      <c r="F698">
+        <v>7000119</v>
+      </c>
+      <c r="G698">
+        <v>1.142837714615994</v>
+      </c>
+      <c r="H698">
+        <v>410.375</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8">
+      <c r="A699" s="1">
+        <v>697</v>
+      </c>
+      <c r="B699" t="s">
+        <v>15</v>
+      </c>
+      <c r="C699" t="s">
+        <v>27</v>
+      </c>
+      <c r="D699">
+        <v>9371</v>
+      </c>
+      <c r="E699">
+        <v>35</v>
+      </c>
+      <c r="F699">
+        <v>37411047</v>
+      </c>
+      <c r="G699">
+        <v>0.935552538799569</v>
+      </c>
+      <c r="H699">
+        <v>267.7428571428571</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8">
+      <c r="A700" s="1">
+        <v>698</v>
+      </c>
+      <c r="B700" t="s">
+        <v>15</v>
+      </c>
+      <c r="C700" t="s">
+        <v>28</v>
+      </c>
+      <c r="D700">
+        <v>4146</v>
+      </c>
+      <c r="E700">
+        <v>13</v>
+      </c>
+      <c r="F700">
+        <v>18952038</v>
+      </c>
+      <c r="G700">
+        <v>0.685942060690254</v>
+      </c>
+      <c r="H700">
+        <v>318.9230769230769</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8">
+      <c r="A701" s="1">
+        <v>699</v>
+      </c>
+      <c r="B701" t="s">
+        <v>15</v>
+      </c>
+      <c r="C701" t="s">
+        <v>29</v>
+      </c>
+      <c r="D701">
+        <v>114900</v>
+      </c>
+      <c r="E701">
+        <v>360</v>
+      </c>
+      <c r="F701">
+        <v>1433783686</v>
+      </c>
+      <c r="G701">
+        <v>0.2510839002529981</v>
+      </c>
+      <c r="H701">
+        <v>319.1666666666667</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8">
+      <c r="A702" s="1">
+        <v>700</v>
+      </c>
+      <c r="B702" t="s">
+        <v>15</v>
+      </c>
+      <c r="C702" t="s">
+        <v>30</v>
+      </c>
+      <c r="D702">
+        <v>1232</v>
+      </c>
+      <c r="E702">
+        <v>6</v>
+      </c>
+      <c r="F702">
+        <v>50339443</v>
+      </c>
+      <c r="G702">
+        <v>0.1191908301408897</v>
+      </c>
+      <c r="H702">
+        <v>205.3333333333333</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8">
+      <c r="A703" s="1">
+        <v>701</v>
+      </c>
+      <c r="B703" t="s">
+        <v>15</v>
+      </c>
+      <c r="C703" t="s">
+        <v>31</v>
+      </c>
+      <c r="D703">
+        <v>442</v>
+      </c>
+      <c r="E703">
+        <v>1</v>
+      </c>
+      <c r="F703">
+        <v>86790567</v>
+      </c>
+      <c r="G703">
+        <v>0.01152198948072318</v>
+      </c>
+      <c r="H703">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8">
+      <c r="A704" s="1">
+        <v>702</v>
+      </c>
+      <c r="B704" t="s">
+        <v>15</v>
+      </c>
+      <c r="C704" t="s">
+        <v>106</v>
+      </c>
+      <c r="D704">
+        <v>227</v>
+      </c>
+      <c r="E704">
+        <v>1</v>
+      </c>
+      <c r="F704">
+        <v>5047561</v>
+      </c>
+      <c r="G704">
+        <v>0.1981154858752574</v>
+      </c>
+      <c r="H704">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8">
+      <c r="A705" s="1">
+        <v>703</v>
+      </c>
+      <c r="B705" t="s">
+        <v>15</v>
+      </c>
+      <c r="C705" t="s">
+        <v>32</v>
+      </c>
+      <c r="D705">
+        <v>2639</v>
+      </c>
+      <c r="E705">
+        <v>10</v>
+      </c>
+      <c r="F705">
+        <v>4130304</v>
+      </c>
+      <c r="G705">
+        <v>2.421129292178009</v>
+      </c>
+      <c r="H705">
+        <v>263.9</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8">
+      <c r="A706" s="1">
+        <v>704</v>
+      </c>
+      <c r="B706" t="s">
+        <v>15</v>
+      </c>
+      <c r="C706" t="s">
+        <v>33</v>
+      </c>
+      <c r="D706">
+        <v>511</v>
+      </c>
+      <c r="E706">
+        <v>1</v>
+      </c>
+      <c r="F706">
+        <v>1198575</v>
+      </c>
+      <c r="G706">
+        <v>0.8343240931940012</v>
+      </c>
+      <c r="H706">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8">
+      <c r="A707" s="1">
+        <v>705</v>
+      </c>
+      <c r="B707" t="s">
+        <v>15</v>
+      </c>
+      <c r="C707" t="s">
+        <v>34</v>
+      </c>
+      <c r="D707">
+        <v>6204</v>
+      </c>
+      <c r="E707">
+        <v>22</v>
+      </c>
+      <c r="F707">
+        <v>10689209</v>
+      </c>
+      <c r="G707">
+        <v>2.058150420671913</v>
+      </c>
+      <c r="H707">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8">
+      <c r="A708" s="1">
+        <v>706</v>
+      </c>
+      <c r="B708" t="s">
+        <v>15</v>
+      </c>
+      <c r="C708" t="s">
+        <v>35</v>
+      </c>
+      <c r="D708">
+        <v>1354</v>
+      </c>
+      <c r="E708">
+        <v>4</v>
+      </c>
+      <c r="F708">
+        <v>5771876</v>
+      </c>
+      <c r="G708">
+        <v>0.6930155810693092</v>
+      </c>
+      <c r="H708">
+        <v>338.5</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8">
+      <c r="A709" s="1">
+        <v>707</v>
+      </c>
+      <c r="B709" t="s">
+        <v>15</v>
+      </c>
+      <c r="C709" t="s">
+        <v>119</v>
+      </c>
+      <c r="D709">
+        <v>676</v>
+      </c>
+      <c r="E709">
+        <v>2</v>
+      </c>
+      <c r="F709">
+        <v>17373662</v>
+      </c>
+      <c r="G709">
+        <v>0.1151167784891867</v>
+      </c>
+      <c r="H709">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8">
+      <c r="A710" s="1">
+        <v>708</v>
+      </c>
+      <c r="B710" t="s">
+        <v>15</v>
+      </c>
+      <c r="C710" t="s">
+        <v>36</v>
+      </c>
+      <c r="D710">
+        <v>1372</v>
+      </c>
+      <c r="E710">
+        <v>6</v>
+      </c>
+      <c r="F710">
+        <v>100388073</v>
+      </c>
+      <c r="G710">
+        <v>0.05976805631083286</v>
+      </c>
+      <c r="H710">
+        <v>228.6666666666667</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8">
+      <c r="A711" s="1">
+        <v>709</v>
+      </c>
+      <c r="B711" t="s">
+        <v>15</v>
+      </c>
+      <c r="C711" t="s">
+        <v>37</v>
+      </c>
+      <c r="D711">
+        <v>917</v>
+      </c>
+      <c r="E711">
+        <v>3</v>
+      </c>
+      <c r="F711">
+        <v>1325648</v>
+      </c>
+      <c r="G711">
+        <v>2.263044186692093</v>
+      </c>
+      <c r="H711">
+        <v>305.6666666666667</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8">
+      <c r="A712" s="1">
+        <v>710</v>
+      </c>
+      <c r="B712" t="s">
+        <v>15</v>
+      </c>
+      <c r="C712" t="s">
+        <v>39</v>
+      </c>
+      <c r="D712">
+        <v>3200</v>
+      </c>
+      <c r="E712">
+        <v>13</v>
+      </c>
+      <c r="F712">
+        <v>5532156</v>
+      </c>
+      <c r="G712">
+        <v>2.349897580617756</v>
+      </c>
+      <c r="H712">
+        <v>246.1538461538462</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8">
+      <c r="A713" s="1">
+        <v>711</v>
+      </c>
+      <c r="B713" t="s">
+        <v>15</v>
+      </c>
+      <c r="C713" t="s">
+        <v>40</v>
+      </c>
+      <c r="D713">
+        <v>15018</v>
+      </c>
+      <c r="E713">
+        <v>55</v>
+      </c>
+      <c r="F713">
+        <v>65129728</v>
+      </c>
+      <c r="G713">
+        <v>0.844468443043398</v>
+      </c>
+      <c r="H713">
+        <v>273.0545454545455</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8">
+      <c r="A714" s="1">
+        <v>712</v>
+      </c>
+      <c r="B714" t="s">
+        <v>15</v>
+      </c>
+      <c r="C714" t="s">
+        <v>42</v>
+      </c>
+      <c r="D714">
+        <v>189</v>
+      </c>
+      <c r="E714">
+        <v>1</v>
+      </c>
+      <c r="F714">
+        <v>3996765</v>
+      </c>
+      <c r="G714">
+        <v>0.2502023511514938</v>
+      </c>
+      <c r="H714">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8">
+      <c r="A715" s="1">
+        <v>713</v>
+      </c>
+      <c r="B715" t="s">
+        <v>15</v>
+      </c>
+      <c r="C715" t="s">
+        <v>43</v>
+      </c>
+      <c r="D715">
+        <v>39894</v>
+      </c>
+      <c r="E715">
+        <v>154</v>
+      </c>
+      <c r="F715">
+        <v>83517045</v>
+      </c>
+      <c r="G715">
+        <v>1.843934971597714</v>
+      </c>
+      <c r="H715">
+        <v>259.051948051948</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8">
+      <c r="A716" s="1">
+        <v>714</v>
+      </c>
+      <c r="B716" t="s">
+        <v>15</v>
+      </c>
+      <c r="C716" t="s">
+        <v>44</v>
+      </c>
+      <c r="D716">
+        <v>2596</v>
+      </c>
+      <c r="E716">
+        <v>8</v>
+      </c>
+      <c r="F716">
+        <v>10473455</v>
+      </c>
+      <c r="G716">
+        <v>0.7638358115827107</v>
+      </c>
+      <c r="H716">
+        <v>324.5</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8">
+      <c r="A717" s="1">
+        <v>715</v>
+      </c>
+      <c r="B717" t="s">
+        <v>15</v>
+      </c>
+      <c r="C717" t="s">
+        <v>122</v>
+      </c>
+      <c r="D717">
+        <v>397</v>
+      </c>
+      <c r="E717">
+        <v>1</v>
+      </c>
+      <c r="F717">
+        <v>17581472</v>
+      </c>
+      <c r="G717">
+        <v>0.05687805890200775</v>
+      </c>
+      <c r="H717">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8">
+      <c r="A718" s="1">
+        <v>716</v>
+      </c>
+      <c r="B718" t="s">
+        <v>15</v>
+      </c>
+      <c r="C718" t="s">
+        <v>45</v>
+      </c>
+      <c r="D718">
+        <v>7118</v>
+      </c>
+      <c r="E718">
+        <v>22</v>
+      </c>
+      <c r="F718">
+        <v>7436154</v>
+      </c>
+      <c r="G718">
+        <v>2.95851861056132</v>
+      </c>
+      <c r="H718">
+        <v>323.5454545454546</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8">
+      <c r="A719" s="1">
+        <v>717</v>
+      </c>
+      <c r="B719" t="s">
+        <v>15</v>
+      </c>
+      <c r="C719" t="s">
+        <v>46</v>
+      </c>
+      <c r="D719">
+        <v>4214</v>
+      </c>
+      <c r="E719">
+        <v>16</v>
+      </c>
+      <c r="F719">
+        <v>9684679</v>
+      </c>
+      <c r="G719">
+        <v>1.652093992996567</v>
+      </c>
+      <c r="H719">
+        <v>263.375</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8">
+      <c r="A720" s="1">
+        <v>718</v>
+      </c>
+      <c r="B720" t="s">
+        <v>15</v>
+      </c>
+      <c r="C720" t="s">
+        <v>47</v>
+      </c>
+      <c r="D720">
+        <v>384</v>
+      </c>
+      <c r="E720">
+        <v>1</v>
+      </c>
+      <c r="F720">
+        <v>339031</v>
+      </c>
+      <c r="G720">
+        <v>2.949582781515554</v>
+      </c>
+      <c r="H720">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8">
+      <c r="A721" s="1">
+        <v>719</v>
+      </c>
+      <c r="B721" t="s">
+        <v>15</v>
+      </c>
+      <c r="C721" t="s">
+        <v>48</v>
+      </c>
+      <c r="D721">
+        <v>7824</v>
+      </c>
+      <c r="E721">
+        <v>24</v>
+      </c>
+      <c r="F721">
+        <v>1366417754</v>
+      </c>
+      <c r="G721">
+        <v>0.01756417459429468</v>
+      </c>
+      <c r="H721">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8">
+      <c r="A722" s="1">
+        <v>720</v>
+      </c>
+      <c r="B722" t="s">
+        <v>15</v>
+      </c>
+      <c r="C722" t="s">
+        <v>49</v>
+      </c>
+      <c r="D722">
+        <v>3317</v>
+      </c>
+      <c r="E722">
+        <v>12</v>
+      </c>
+      <c r="F722">
+        <v>270625568</v>
+      </c>
+      <c r="G722">
+        <v>0.04434170831929672</v>
+      </c>
+      <c r="H722">
+        <v>276.4166666666667</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8">
+      <c r="A723" s="1">
+        <v>721</v>
+      </c>
+      <c r="B723" t="s">
+        <v>15</v>
+      </c>
+      <c r="C723" t="s">
+        <v>50</v>
+      </c>
+      <c r="D723">
+        <v>580</v>
+      </c>
+      <c r="E723">
+        <v>3</v>
+      </c>
+      <c r="F723">
+        <v>82913906</v>
+      </c>
+      <c r="G723">
+        <v>0.03618210918684738</v>
+      </c>
+      <c r="H723">
+        <v>193.3333333333333</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8">
+      <c r="A724" s="1">
+        <v>722</v>
+      </c>
+      <c r="B724" t="s">
+        <v>15</v>
+      </c>
+      <c r="C724" t="s">
+        <v>51</v>
+      </c>
+      <c r="D724">
+        <v>2615</v>
+      </c>
+      <c r="E724">
+        <v>6</v>
+      </c>
+      <c r="F724">
+        <v>4882495</v>
+      </c>
+      <c r="G724">
+        <v>1.228879906687052</v>
+      </c>
+      <c r="H724">
+        <v>435.8333333333333</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8">
+      <c r="A725" s="1">
+        <v>723</v>
+      </c>
+      <c r="B725" t="s">
+        <v>15</v>
+      </c>
+      <c r="C725" t="s">
+        <v>52</v>
+      </c>
+      <c r="D725">
+        <v>3759</v>
+      </c>
+      <c r="E725">
+        <v>14</v>
+      </c>
+      <c r="F725">
+        <v>8519377</v>
+      </c>
+      <c r="G725">
+        <v>1.643312650678565</v>
+      </c>
+      <c r="H725">
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8">
+      <c r="A726" s="1">
+        <v>724</v>
+      </c>
+      <c r="B726" t="s">
+        <v>15</v>
+      </c>
+      <c r="C726" t="s">
+        <v>53</v>
+      </c>
+      <c r="D726">
+        <v>20899</v>
+      </c>
+      <c r="E726">
+        <v>70</v>
+      </c>
+      <c r="F726">
+        <v>60550075</v>
+      </c>
+      <c r="G726">
+        <v>1.156067932203222</v>
+      </c>
+      <c r="H726">
+        <v>298.5571428571429</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8">
+      <c r="A727" s="1">
+        <v>725</v>
+      </c>
+      <c r="B727" t="s">
+        <v>15</v>
+      </c>
+      <c r="C727" t="s">
+        <v>54</v>
+      </c>
+      <c r="D727">
+        <v>18881</v>
+      </c>
+      <c r="E727">
+        <v>54</v>
+      </c>
+      <c r="F727">
+        <v>126860301</v>
+      </c>
+      <c r="G727">
+        <v>0.4256650786284986</v>
+      </c>
+      <c r="H727">
+        <v>349.6481481481482</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8">
+      <c r="A728" s="1">
+        <v>726</v>
+      </c>
+      <c r="B728" t="s">
+        <v>15</v>
+      </c>
+      <c r="C728" t="s">
+        <v>55</v>
+      </c>
+      <c r="D728">
+        <v>145</v>
+      </c>
+      <c r="E728">
+        <v>1</v>
+      </c>
+      <c r="F728">
+        <v>10101694</v>
+      </c>
+      <c r="G728">
+        <v>0.09899329755979541</v>
+      </c>
+      <c r="H728">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8">
+      <c r="A729" s="1">
+        <v>727</v>
+      </c>
+      <c r="B729" t="s">
+        <v>15</v>
+      </c>
+      <c r="C729" t="s">
+        <v>56</v>
+      </c>
+      <c r="D729">
+        <v>5685</v>
+      </c>
+      <c r="E729">
+        <v>21</v>
+      </c>
+      <c r="F729">
+        <v>18551427</v>
+      </c>
+      <c r="G729">
+        <v>1.131988390973913</v>
+      </c>
+      <c r="H729">
+        <v>270.7142857142857</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8">
+      <c r="A730" s="1">
+        <v>728</v>
+      </c>
+      <c r="B730" t="s">
+        <v>15</v>
+      </c>
+      <c r="C730" t="s">
+        <v>57</v>
+      </c>
+      <c r="D730">
+        <v>20824</v>
+      </c>
+      <c r="E730">
+        <v>64</v>
+      </c>
+      <c r="F730">
+        <v>51225308</v>
+      </c>
+      <c r="G730">
+        <v>1.249382434167111</v>
+      </c>
+      <c r="H730">
+        <v>325.375</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8">
+      <c r="A731" s="1">
+        <v>729</v>
+      </c>
+      <c r="B731" t="s">
+        <v>15</v>
+      </c>
+      <c r="C731" t="s">
+        <v>114</v>
+      </c>
+      <c r="D731">
+        <v>711</v>
+      </c>
+      <c r="E731">
+        <v>2</v>
+      </c>
+      <c r="F731">
+        <v>6415850</v>
+      </c>
+      <c r="G731">
+        <v>0.3117279861592774</v>
+      </c>
+      <c r="H731">
+        <v>355.5</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8">
+      <c r="A732" s="1">
+        <v>730</v>
+      </c>
+      <c r="B732" t="s">
+        <v>15</v>
+      </c>
+      <c r="C732" t="s">
+        <v>59</v>
+      </c>
+      <c r="D732">
+        <v>1217</v>
+      </c>
+      <c r="E732">
+        <v>4</v>
+      </c>
+      <c r="F732">
+        <v>1906743</v>
+      </c>
+      <c r="G732">
+        <v>2.097818111827341</v>
+      </c>
+      <c r="H732">
+        <v>304.25</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8">
+      <c r="A733" s="1">
+        <v>731</v>
+      </c>
+      <c r="B733" t="s">
+        <v>15</v>
+      </c>
+      <c r="C733" t="s">
+        <v>61</v>
+      </c>
+      <c r="D733">
+        <v>1536</v>
+      </c>
+      <c r="E733">
+        <v>5</v>
+      </c>
+      <c r="F733">
+        <v>2759627</v>
+      </c>
+      <c r="G733">
+        <v>1.811839063757529</v>
+      </c>
+      <c r="H733">
+        <v>307.2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8">
+      <c r="A734" s="1">
+        <v>732</v>
+      </c>
+      <c r="B734" t="s">
+        <v>15</v>
+      </c>
+      <c r="C734" t="s">
+        <v>63</v>
+      </c>
+      <c r="D734">
+        <v>2111</v>
+      </c>
+      <c r="E734">
+        <v>8</v>
+      </c>
+      <c r="F734">
+        <v>31949777</v>
+      </c>
+      <c r="G734">
+        <v>0.25039298396355</v>
+      </c>
+      <c r="H734">
+        <v>263.875</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8">
+      <c r="A735" s="1">
+        <v>733</v>
+      </c>
+      <c r="B735" t="s">
+        <v>15</v>
+      </c>
+      <c r="C735" t="s">
+        <v>64</v>
+      </c>
+      <c r="D735">
+        <v>242</v>
+      </c>
+      <c r="E735">
+        <v>1</v>
+      </c>
+      <c r="F735">
+        <v>440372</v>
+      </c>
+      <c r="G735">
+        <v>2.270807408282089</v>
+      </c>
+      <c r="H735">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8">
+      <c r="A736" s="1">
+        <v>734</v>
+      </c>
+      <c r="B736" t="s">
+        <v>15</v>
+      </c>
+      <c r="C736" t="s">
+        <v>65</v>
+      </c>
+      <c r="D736">
+        <v>3194</v>
+      </c>
+      <c r="E736">
+        <v>13</v>
+      </c>
+      <c r="F736">
+        <v>127575529</v>
+      </c>
+      <c r="G736">
+        <v>0.1019004201032943</v>
+      </c>
+      <c r="H736">
+        <v>245.6923076923077</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8">
+      <c r="A737" s="1">
+        <v>735</v>
+      </c>
+      <c r="B737" t="s">
+        <v>15</v>
+      </c>
+      <c r="C737" t="s">
+        <v>66</v>
+      </c>
+      <c r="D737">
+        <v>648</v>
+      </c>
+      <c r="E737">
+        <v>2</v>
+      </c>
+      <c r="F737">
+        <v>4043263</v>
+      </c>
+      <c r="G737">
+        <v>0.4946499893773915</v>
+      </c>
+      <c r="H737">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8">
+      <c r="A738" s="1">
+        <v>736</v>
+      </c>
+      <c r="B738" t="s">
+        <v>15</v>
+      </c>
+      <c r="C738" t="s">
+        <v>68</v>
+      </c>
+      <c r="D738">
+        <v>350</v>
+      </c>
+      <c r="E738">
+        <v>1</v>
+      </c>
+      <c r="F738">
+        <v>54045420</v>
+      </c>
+      <c r="G738">
+        <v>0.01850295547707835</v>
+      </c>
+      <c r="H738">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8">
+      <c r="A739" s="1">
+        <v>737</v>
+      </c>
+      <c r="B739" t="s">
+        <v>15</v>
+      </c>
+      <c r="C739" t="s">
+        <v>132</v>
+      </c>
+      <c r="D739">
+        <v>334</v>
+      </c>
+      <c r="E739">
+        <v>1</v>
+      </c>
+      <c r="H739">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8">
+      <c r="A740" s="1">
+        <v>738</v>
+      </c>
+      <c r="B740" t="s">
+        <v>15</v>
+      </c>
+      <c r="C740" t="s">
+        <v>109</v>
+      </c>
+      <c r="D740">
+        <v>600</v>
+      </c>
+      <c r="E740">
+        <v>1</v>
+      </c>
+      <c r="F740">
+        <v>28608710</v>
+      </c>
+      <c r="G740">
+        <v>0.03495438976451577</v>
+      </c>
+      <c r="H740">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8">
+      <c r="A741" s="1">
+        <v>739</v>
+      </c>
+      <c r="B741" t="s">
+        <v>15</v>
+      </c>
+      <c r="C741" t="s">
+        <v>69</v>
+      </c>
+      <c r="D741">
+        <v>5396</v>
+      </c>
+      <c r="E741">
+        <v>17</v>
+      </c>
+      <c r="F741">
+        <v>17097130</v>
+      </c>
+      <c r="G741">
+        <v>0.9943189295513341</v>
+      </c>
+      <c r="H741">
+        <v>317.4117647058824</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8">
+      <c r="A742" s="1">
+        <v>740</v>
+      </c>
+      <c r="B742" t="s">
+        <v>15</v>
+      </c>
+      <c r="C742" t="s">
+        <v>70</v>
+      </c>
+      <c r="D742">
+        <v>1514</v>
+      </c>
+      <c r="E742">
+        <v>5</v>
+      </c>
+      <c r="F742">
+        <v>4783063</v>
+      </c>
+      <c r="G742">
+        <v>1.045355246209385</v>
+      </c>
+      <c r="H742">
+        <v>302.8</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8">
+      <c r="A743" s="1">
+        <v>741</v>
+      </c>
+      <c r="B743" t="s">
+        <v>15</v>
+      </c>
+      <c r="C743" t="s">
+        <v>71</v>
+      </c>
+      <c r="D743">
+        <v>185</v>
+      </c>
+      <c r="E743">
+        <v>1</v>
+      </c>
+      <c r="F743">
+        <v>2083458</v>
+      </c>
+      <c r="G743">
+        <v>0.4799712785186934</v>
+      </c>
+      <c r="H743">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8">
+      <c r="A744" s="1">
+        <v>742</v>
+      </c>
+      <c r="B744" t="s">
+        <v>15</v>
+      </c>
+      <c r="C744" t="s">
+        <v>72</v>
+      </c>
+      <c r="D744">
+        <v>873</v>
+      </c>
+      <c r="E744">
+        <v>3</v>
+      </c>
+      <c r="F744">
+        <v>5378857</v>
+      </c>
+      <c r="G744">
+        <v>0.5577393115303121</v>
+      </c>
+      <c r="H744">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8">
+      <c r="A745" s="1">
+        <v>743</v>
+      </c>
+      <c r="B745" t="s">
+        <v>15</v>
+      </c>
+      <c r="C745" t="s">
+        <v>133</v>
+      </c>
+      <c r="D745">
+        <v>212</v>
+      </c>
+      <c r="E745">
+        <v>1</v>
+      </c>
+      <c r="F745">
+        <v>4974986</v>
+      </c>
+      <c r="G745">
+        <v>0.2010055907695017</v>
+      </c>
+      <c r="H745">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8">
+      <c r="A746" s="1">
+        <v>744</v>
+      </c>
+      <c r="B746" t="s">
+        <v>15</v>
+      </c>
+      <c r="C746" t="s">
+        <v>73</v>
+      </c>
+      <c r="D746">
+        <v>973</v>
+      </c>
+      <c r="E746">
+        <v>3</v>
+      </c>
+      <c r="F746">
+        <v>216565318</v>
+      </c>
+      <c r="G746">
+        <v>0.01385263359666851</v>
+      </c>
+      <c r="H746">
+        <v>324.3333333333333</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8">
+      <c r="A747" s="1">
+        <v>745</v>
+      </c>
+      <c r="B747" t="s">
+        <v>15</v>
+      </c>
+      <c r="C747" t="s">
+        <v>128</v>
+      </c>
+      <c r="D747">
+        <v>571</v>
+      </c>
+      <c r="E747">
+        <v>1</v>
+      </c>
+      <c r="F747">
+        <v>4246439</v>
+      </c>
+      <c r="G747">
+        <v>0.235491431762001</v>
+      </c>
+      <c r="H747">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8">
+      <c r="A748" s="1">
+        <v>746</v>
+      </c>
+      <c r="B748" t="s">
+        <v>15</v>
+      </c>
+      <c r="C748" t="s">
+        <v>74</v>
+      </c>
+      <c r="D748">
+        <v>1900</v>
+      </c>
+      <c r="E748">
+        <v>6</v>
+      </c>
+      <c r="F748">
+        <v>32510453</v>
+      </c>
+      <c r="G748">
+        <v>0.1845560257188665</v>
+      </c>
+      <c r="H748">
+        <v>316.6666666666667</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8">
+      <c r="A749" s="1">
+        <v>747</v>
+      </c>
+      <c r="B749" t="s">
+        <v>15</v>
+      </c>
+      <c r="C749" t="s">
+        <v>75</v>
+      </c>
+      <c r="D749">
+        <v>4787</v>
+      </c>
+      <c r="E749">
+        <v>12</v>
+      </c>
+      <c r="F749">
+        <v>108116615</v>
+      </c>
+      <c r="G749">
+        <v>0.110991266235999</v>
+      </c>
+      <c r="H749">
+        <v>398.9166666666667</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8">
+      <c r="A750" s="1">
+        <v>748</v>
+      </c>
+      <c r="B750" t="s">
+        <v>15</v>
+      </c>
+      <c r="C750" t="s">
+        <v>76</v>
+      </c>
+      <c r="D750">
+        <v>75056</v>
+      </c>
+      <c r="E750">
+        <v>276</v>
+      </c>
+      <c r="F750">
+        <v>37887768</v>
+      </c>
+      <c r="G750">
+        <v>7.284672984695219</v>
+      </c>
+      <c r="H750">
+        <v>271.9420289855072</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8">
+      <c r="A751" s="1">
+        <v>749</v>
+      </c>
+      <c r="B751" t="s">
+        <v>15</v>
+      </c>
+      <c r="C751" t="s">
+        <v>77</v>
+      </c>
+      <c r="D751">
+        <v>3867</v>
+      </c>
+      <c r="E751">
+        <v>13</v>
+      </c>
+      <c r="F751">
+        <v>10226187</v>
+      </c>
+      <c r="G751">
+        <v>1.271246066593541</v>
+      </c>
+      <c r="H751">
+        <v>297.4615384615385</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8">
+      <c r="A752" s="1">
+        <v>750</v>
+      </c>
+      <c r="B752" t="s">
+        <v>15</v>
+      </c>
+      <c r="C752" t="s">
+        <v>125</v>
+      </c>
+      <c r="D752">
+        <v>184</v>
+      </c>
+      <c r="E752">
+        <v>1</v>
+      </c>
+      <c r="F752">
+        <v>2933408</v>
+      </c>
+      <c r="G752">
+        <v>0.3409004134440214</v>
+      </c>
+      <c r="H752">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8">
+      <c r="A753" s="1">
+        <v>751</v>
+      </c>
+      <c r="B753" t="s">
+        <v>15</v>
+      </c>
+      <c r="C753" t="s">
+        <v>78</v>
+      </c>
+      <c r="D753">
+        <v>4859</v>
+      </c>
+      <c r="E753">
+        <v>17</v>
+      </c>
+      <c r="F753">
+        <v>19364557</v>
+      </c>
+      <c r="G753">
+        <v>0.8778925332503088</v>
+      </c>
+      <c r="H753">
+        <v>285.8235294117647</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8">
+      <c r="A754" s="1">
+        <v>752</v>
+      </c>
+      <c r="B754" t="s">
+        <v>15</v>
+      </c>
+      <c r="C754" t="s">
+        <v>79</v>
+      </c>
+      <c r="D754">
+        <v>187536</v>
+      </c>
+      <c r="E754">
+        <v>652</v>
+      </c>
+      <c r="F754">
+        <v>145872256</v>
+      </c>
+      <c r="G754">
+        <v>4.469664197145207</v>
+      </c>
+      <c r="H754">
+        <v>287.6319018404908</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8">
+      <c r="A755" s="1">
+        <v>753</v>
+      </c>
+      <c r="B755" t="s">
+        <v>15</v>
+      </c>
+      <c r="C755" t="s">
+        <v>80</v>
+      </c>
+      <c r="D755">
+        <v>2522</v>
+      </c>
+      <c r="E755">
+        <v>8</v>
+      </c>
+      <c r="F755">
+        <v>34268528</v>
+      </c>
+      <c r="G755">
+        <v>0.2334503542142224</v>
+      </c>
+      <c r="H755">
+        <v>315.25</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8">
+      <c r="A756" s="1">
+        <v>754</v>
+      </c>
+      <c r="B756" t="s">
+        <v>15</v>
+      </c>
+      <c r="C756" t="s">
+        <v>81</v>
+      </c>
+      <c r="D756">
+        <v>4562</v>
+      </c>
+      <c r="E756">
+        <v>12</v>
+      </c>
+      <c r="F756">
+        <v>8772235</v>
+      </c>
+      <c r="G756">
+        <v>1.367952408935693</v>
+      </c>
+      <c r="H756">
+        <v>380.1666666666667</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8">
+      <c r="A757" s="1">
+        <v>755</v>
+      </c>
+      <c r="B757" t="s">
+        <v>15</v>
+      </c>
+      <c r="C757" t="s">
+        <v>82</v>
+      </c>
+      <c r="D757">
+        <v>4503</v>
+      </c>
+      <c r="E757">
+        <v>14</v>
+      </c>
+      <c r="F757">
+        <v>5804337</v>
+      </c>
+      <c r="G757">
+        <v>2.411989517493557</v>
+      </c>
+      <c r="H757">
+        <v>321.6428571428572</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8">
+      <c r="A758" s="1">
+        <v>756</v>
+      </c>
+      <c r="B758" t="s">
+        <v>15</v>
+      </c>
+      <c r="C758" t="s">
+        <v>83</v>
+      </c>
+      <c r="D758">
+        <v>759</v>
+      </c>
+      <c r="E758">
+        <v>3</v>
+      </c>
+      <c r="F758">
+        <v>5457013</v>
+      </c>
+      <c r="G758">
+        <v>0.5497513016736445</v>
+      </c>
+      <c r="H758">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8">
+      <c r="A759" s="1">
+        <v>757</v>
+      </c>
+      <c r="B759" t="s">
+        <v>15</v>
+      </c>
+      <c r="C759" t="s">
+        <v>84</v>
+      </c>
+      <c r="D759">
+        <v>1400</v>
+      </c>
+      <c r="E759">
+        <v>5</v>
+      </c>
+      <c r="F759">
+        <v>2078654</v>
+      </c>
+      <c r="G759">
+        <v>2.405402726956964</v>
+      </c>
+      <c r="H759">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8">
+      <c r="A760" s="1">
+        <v>758</v>
+      </c>
+      <c r="B760" t="s">
+        <v>15</v>
+      </c>
+      <c r="C760" t="s">
+        <v>85</v>
+      </c>
+      <c r="D760">
+        <v>3618</v>
+      </c>
+      <c r="E760">
+        <v>8</v>
+      </c>
+      <c r="F760">
+        <v>58558270</v>
+      </c>
+      <c r="G760">
+        <v>0.1366160578172818</v>
+      </c>
+      <c r="H760">
+        <v>452.25</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8">
+      <c r="A761" s="1">
+        <v>759</v>
+      </c>
+      <c r="B761" t="s">
+        <v>15</v>
+      </c>
+      <c r="C761" t="s">
+        <v>86</v>
+      </c>
+      <c r="D761">
+        <v>20527</v>
+      </c>
+      <c r="E761">
+        <v>68</v>
+      </c>
+      <c r="F761">
+        <v>46736776</v>
+      </c>
+      <c r="G761">
+        <v>1.454957012867126</v>
+      </c>
+      <c r="H761">
+        <v>301.8676470588235</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8">
+      <c r="A762" s="1">
+        <v>760</v>
+      </c>
+      <c r="B762" t="s">
+        <v>15</v>
+      </c>
+      <c r="C762" t="s">
+        <v>87</v>
+      </c>
+      <c r="D762">
+        <v>2644</v>
+      </c>
+      <c r="E762">
+        <v>11</v>
+      </c>
+      <c r="F762">
+        <v>10036379</v>
+      </c>
+      <c r="G762">
+        <v>1.096012814980383</v>
+      </c>
+      <c r="H762">
+        <v>240.3636363636364</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8">
+      <c r="A763" s="1">
+        <v>761</v>
+      </c>
+      <c r="B763" t="s">
+        <v>15</v>
+      </c>
+      <c r="C763" t="s">
+        <v>88</v>
+      </c>
+      <c r="D763">
+        <v>3193</v>
+      </c>
+      <c r="E763">
+        <v>10</v>
+      </c>
+      <c r="F763">
+        <v>8591365</v>
+      </c>
+      <c r="G763">
+        <v>1.163959394112577</v>
+      </c>
+      <c r="H763">
+        <v>319.3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8">
+      <c r="A764" s="1">
+        <v>762</v>
+      </c>
+      <c r="B764" t="s">
+        <v>15</v>
+      </c>
+      <c r="C764" t="s">
+        <v>89</v>
+      </c>
+      <c r="D764">
+        <v>238</v>
+      </c>
+      <c r="E764">
+        <v>1</v>
+      </c>
+      <c r="F764">
+        <v>17070135</v>
+      </c>
+      <c r="G764">
+        <v>0.05858184484188321</v>
+      </c>
+      <c r="H764">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8">
+      <c r="A765" s="1">
+        <v>763</v>
+      </c>
+      <c r="B765" t="s">
+        <v>15</v>
+      </c>
+      <c r="C765" t="s">
+        <v>90</v>
+      </c>
+      <c r="D765">
+        <v>5695</v>
+      </c>
+      <c r="E765">
+        <v>17</v>
+      </c>
+      <c r="F765">
+        <v>23773876</v>
+      </c>
+      <c r="G765">
+        <v>0.7150706094370139</v>
+      </c>
+      <c r="H765">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8">
+      <c r="A766" s="1">
+        <v>764</v>
+      </c>
+      <c r="B766" t="s">
+        <v>15</v>
+      </c>
+      <c r="C766" t="s">
+        <v>92</v>
+      </c>
+      <c r="D766">
+        <v>3627</v>
+      </c>
+      <c r="E766">
+        <v>8</v>
+      </c>
+      <c r="F766">
+        <v>69625582</v>
+      </c>
+      <c r="G766">
+        <v>0.1149002962732864</v>
+      </c>
+      <c r="H766">
+        <v>453.375</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8">
+      <c r="A767" s="1">
+        <v>765</v>
+      </c>
+      <c r="B767" t="s">
+        <v>15</v>
+      </c>
+      <c r="C767" t="s">
+        <v>94</v>
+      </c>
+      <c r="D767">
+        <v>10531</v>
+      </c>
+      <c r="E767">
+        <v>36</v>
+      </c>
+      <c r="F767">
+        <v>83429615</v>
+      </c>
+      <c r="G767">
+        <v>0.4315014518525586</v>
+      </c>
+      <c r="H767">
+        <v>292.5277777777778</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8">
+      <c r="A768" s="1">
+        <v>766</v>
+      </c>
+      <c r="B768" t="s">
+        <v>15</v>
+      </c>
+      <c r="C768" t="s">
+        <v>96</v>
+      </c>
+      <c r="D768">
+        <v>54267</v>
+      </c>
+      <c r="E768">
+        <v>163</v>
+      </c>
+      <c r="F768">
+        <v>43993638</v>
+      </c>
+      <c r="G768">
+        <v>3.70508117560089</v>
+      </c>
+      <c r="H768">
+        <v>332.9263803680981</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8">
+      <c r="A769" s="1">
+        <v>767</v>
+      </c>
+      <c r="B769" t="s">
+        <v>15</v>
+      </c>
+      <c r="C769" t="s">
+        <v>97</v>
+      </c>
+      <c r="D769">
+        <v>642</v>
+      </c>
+      <c r="E769">
+        <v>2</v>
+      </c>
+      <c r="F769">
+        <v>9770529</v>
+      </c>
+      <c r="G769">
+        <v>0.2046972072852964</v>
+      </c>
+      <c r="H769">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8">
+      <c r="A770" s="1">
+        <v>768</v>
+      </c>
+      <c r="B770" t="s">
+        <v>15</v>
+      </c>
+      <c r="C770" t="s">
+        <v>98</v>
+      </c>
+      <c r="D770">
+        <v>24302</v>
+      </c>
+      <c r="E770">
+        <v>77</v>
+      </c>
+      <c r="F770">
+        <v>67530172</v>
+      </c>
+      <c r="G770">
+        <v>1.140231065900439</v>
+      </c>
+      <c r="H770">
+        <v>315.6103896103896</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8">
+      <c r="A771" s="1">
+        <v>769</v>
+      </c>
+      <c r="B771" t="s">
+        <v>15</v>
+      </c>
+      <c r="C771" t="s">
+        <v>99</v>
+      </c>
+      <c r="D771">
+        <v>53493</v>
+      </c>
+      <c r="E771">
+        <v>181</v>
+      </c>
+      <c r="F771">
+        <v>329064917</v>
+      </c>
+      <c r="G771">
+        <v>0.5500434432516548</v>
+      </c>
+      <c r="H771">
+        <v>295.5414364640884</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8">
+      <c r="A772" s="1">
+        <v>770</v>
+      </c>
+      <c r="B772" t="s">
+        <v>15</v>
+      </c>
+      <c r="C772" t="s">
         <v>100</v>
       </c>
-      <c r="D685">
-        <v>4570</v>
-      </c>
-      <c r="E685">
+      <c r="D772">
+        <v>1392</v>
+      </c>
+      <c r="E772">
+        <v>4</v>
+      </c>
+      <c r="F772">
+        <v>32981716</v>
+      </c>
+      <c r="G772">
+        <v>0.1212793173041694</v>
+      </c>
+      <c r="H772">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8">
+      <c r="A773" s="1">
+        <v>771</v>
+      </c>
+      <c r="B773" t="s">
         <v>15</v>
       </c>
-      <c r="F685">
+      <c r="C773" t="s">
+        <v>110</v>
+      </c>
+      <c r="D773">
+        <v>469</v>
+      </c>
+      <c r="E773">
+        <v>2</v>
+      </c>
+      <c r="F773">
+        <v>28515829</v>
+      </c>
+      <c r="G773">
+        <v>0.07013648454688096</v>
+      </c>
+      <c r="H773">
+        <v>234.5</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8">
+      <c r="A774" s="1">
+        <v>772</v>
+      </c>
+      <c r="B774" t="s">
+        <v>15</v>
+      </c>
+      <c r="C774" t="s">
+        <v>101</v>
+      </c>
+      <c r="D774">
+        <v>4786</v>
+      </c>
+      <c r="E774">
+        <v>15</v>
+      </c>
+      <c r="F774">
         <v>96462106</v>
       </c>
-      <c r="G685">
+      <c r="G774">
         <v>0.1555014774402707</v>
       </c>
-      <c r="H685">
-        <v>304.6666666666667</v>
+      <c r="H774">
+        <v>319.0666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/assets/posts/2020-09-01-GwentProRankAnalysis/national_stats.xlsx
+++ b/assets/posts/2020-09-01-GwentProRankAnalysis/national_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="136">
   <si>
     <t>season</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>M2_09 Dryad 2020</t>
+  </si>
+  <si>
+    <t>M2_10 Cat 2020</t>
   </si>
   <si>
     <t>Algeria</t>
@@ -412,10 +415,13 @@
     <t>Angola</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Oman</t>
   </si>
   <si>
-    <t>Oman</t>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Namibia</t>
   </si>
 </sst>
 </file>
@@ -773,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H774"/>
+  <dimension ref="A1:H861"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,7 +816,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>250</v>
@@ -836,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1480</v>
@@ -862,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>546</v>
@@ -888,7 +894,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>6193</v>
@@ -914,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>3981</v>
@@ -940,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>212</v>
@@ -966,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>154</v>
@@ -992,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>8018</v>
@@ -1018,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>2284</v>
@@ -1044,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>7379</v>
@@ -1070,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>1713</v>
@@ -1096,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>8930</v>
@@ -1122,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>786</v>
@@ -1148,7 +1154,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>170805</v>
@@ -1174,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>380</v>
@@ -1200,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>145</v>
@@ -1226,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>1246</v>
@@ -1252,7 +1258,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>400</v>
@@ -1278,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>2968</v>
@@ -1304,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>2693</v>
@@ -1330,7 +1336,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>1840</v>
@@ -1356,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>1535</v>
@@ -1382,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24">
         <v>294</v>
@@ -1408,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>4448</v>
@@ -1434,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>10215</v>
@@ -1460,7 +1466,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>108</v>
@@ -1486,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28">
         <v>966</v>
@@ -1512,7 +1518,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29">
         <v>27382</v>
@@ -1538,7 +1544,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <v>2220</v>
@@ -1564,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>6042</v>
@@ -1590,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32">
         <v>2288</v>
@@ -1616,7 +1622,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>257</v>
@@ -1642,7 +1648,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34">
         <v>1857</v>
@@ -1668,7 +1674,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>1929</v>
@@ -1694,7 +1700,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>978</v>
@@ -1720,7 +1726,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37">
         <v>1010</v>
@@ -1746,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D38">
         <v>1356</v>
@@ -1772,7 +1778,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39">
         <v>11479</v>
@@ -1798,7 +1804,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D40">
         <v>18848</v>
@@ -1824,7 +1830,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>117</v>
@@ -1850,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <v>4703</v>
@@ -1876,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43">
         <v>20728</v>
@@ -1902,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44">
         <v>71</v>
@@ -1928,7 +1934,7 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>2460</v>
@@ -1954,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46">
         <v>126</v>
@@ -1980,7 +1986,7 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47">
         <v>983</v>
@@ -2006,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D48">
         <v>499</v>
@@ -2032,7 +2038,7 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49">
         <v>999</v>
@@ -2058,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50">
         <v>428</v>
@@ -2084,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51">
         <v>1614</v>
@@ -2110,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52">
         <v>592</v>
@@ -2136,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53">
         <v>106</v>
@@ -2162,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54">
         <v>205</v>
@@ -2188,7 +2194,7 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D55">
         <v>3254</v>
@@ -2214,7 +2220,7 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D56">
         <v>1218</v>
@@ -2240,7 +2246,7 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D57">
         <v>184</v>
@@ -2266,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D58">
         <v>1252</v>
@@ -2292,7 +2298,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D59">
         <v>431</v>
@@ -2318,7 +2324,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D60">
         <v>1181</v>
@@ -2344,7 +2350,7 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D61">
         <v>1728</v>
@@ -2370,7 +2376,7 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D62">
         <v>56668</v>
@@ -2396,7 +2402,7 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63">
         <v>1819</v>
@@ -2422,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D64">
         <v>3225</v>
@@ -2448,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D65">
         <v>130060</v>
@@ -2474,7 +2480,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D66">
         <v>1238</v>
@@ -2500,7 +2506,7 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D67">
         <v>2919</v>
@@ -2526,7 +2532,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68">
         <v>2463</v>
@@ -2552,7 +2558,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D69">
         <v>1670</v>
@@ -2578,7 +2584,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D70">
         <v>1199</v>
@@ -2604,7 +2610,7 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D71">
         <v>2535</v>
@@ -2630,7 +2636,7 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D72">
         <v>11456</v>
@@ -2656,7 +2662,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D73">
         <v>4576</v>
@@ -2682,7 +2688,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D74">
         <v>813</v>
@@ -2708,7 +2714,7 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D75">
         <v>521</v>
@@ -2734,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D76">
         <v>2561</v>
@@ -2760,7 +2766,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D77">
         <v>48</v>
@@ -2786,7 +2792,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D78">
         <v>2659</v>
@@ -2812,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D79">
         <v>251</v>
@@ -2838,7 +2844,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D80">
         <v>5759</v>
@@ -2864,7 +2870,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D81">
         <v>183</v>
@@ -2890,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D82">
         <v>35474</v>
@@ -2916,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D83">
         <v>101</v>
@@ -2942,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D84">
         <v>15258</v>
@@ -2968,7 +2974,7 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D85">
         <v>55322</v>
@@ -2994,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D86">
         <v>584</v>
@@ -3020,7 +3026,7 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D87">
         <v>1640</v>
@@ -3046,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88">
         <v>2582</v>
@@ -3072,7 +3078,7 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89">
         <v>913</v>
@@ -3098,7 +3104,7 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90">
         <v>8160</v>
@@ -3124,7 +3130,7 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D91">
         <v>4343</v>
@@ -3150,7 +3156,7 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D92">
         <v>325</v>
@@ -3176,7 +3182,7 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D93">
         <v>150</v>
@@ -3202,7 +3208,7 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D94">
         <v>8622</v>
@@ -3228,7 +3234,7 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D95">
         <v>1951</v>
@@ -3254,7 +3260,7 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D96">
         <v>297</v>
@@ -3280,7 +3286,7 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D97">
         <v>8463</v>
@@ -3306,7 +3312,7 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D98">
         <v>1751</v>
@@ -3332,7 +3338,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99">
         <v>10094</v>
@@ -3358,7 +3364,7 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D100">
         <v>947</v>
@@ -3384,7 +3390,7 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D101">
         <v>209561</v>
@@ -3410,7 +3416,7 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D102">
         <v>657</v>
@@ -3436,7 +3442,7 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D103">
         <v>129</v>
@@ -3462,7 +3468,7 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D104">
         <v>2274</v>
@@ -3488,7 +3494,7 @@
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D105">
         <v>676</v>
@@ -3514,7 +3520,7 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D106">
         <v>4282</v>
@@ -3540,7 +3546,7 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D107">
         <v>1690</v>
@@ -3566,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D108">
         <v>1264</v>
@@ -3592,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D109">
         <v>712</v>
@@ -3618,7 +3624,7 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D110">
         <v>4151</v>
@@ -3644,7 +3650,7 @@
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D111">
         <v>8288</v>
@@ -3670,7 +3676,7 @@
         <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D112">
         <v>298</v>
@@ -3696,7 +3702,7 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D113">
         <v>29645</v>
@@ -3722,7 +3728,7 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D114">
         <v>2802</v>
@@ -3748,7 +3754,7 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D115">
         <v>5341</v>
@@ -3774,7 +3780,7 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D116">
         <v>2294</v>
@@ -3800,7 +3806,7 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D117">
         <v>170</v>
@@ -3826,7 +3832,7 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D118">
         <v>1950</v>
@@ -3852,7 +3858,7 @@
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D119">
         <v>1621</v>
@@ -3878,7 +3884,7 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D120">
         <v>1348</v>
@@ -3904,7 +3910,7 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D121">
         <v>182</v>
@@ -3930,7 +3936,7 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D122">
         <v>1545</v>
@@ -3956,7 +3962,7 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D123">
         <v>2318</v>
@@ -3982,7 +3988,7 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D124">
         <v>13790</v>
@@ -4008,7 +4014,7 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D125">
         <v>19696</v>
@@ -4034,7 +4040,7 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D126">
         <v>5494</v>
@@ -4060,7 +4066,7 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D127">
         <v>17394</v>
@@ -4086,7 +4092,7 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D128">
         <v>507</v>
@@ -4112,7 +4118,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D129">
         <v>1226</v>
@@ -4138,7 +4144,7 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D130">
         <v>203</v>
@@ -4164,7 +4170,7 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D131">
         <v>710</v>
@@ -4190,7 +4196,7 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D132">
         <v>196</v>
@@ -4216,7 +4222,7 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D133">
         <v>1257</v>
@@ -4242,7 +4248,7 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D134">
         <v>2294</v>
@@ -4268,7 +4274,7 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D135">
         <v>741</v>
@@ -4294,7 +4300,7 @@
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D136">
         <v>359</v>
@@ -4320,7 +4326,7 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D137">
         <v>2637</v>
@@ -4346,7 +4352,7 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D138">
         <v>581</v>
@@ -4372,7 +4378,7 @@
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D139">
         <v>1094</v>
@@ -4398,7 +4404,7 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D140">
         <v>306</v>
@@ -4424,7 +4430,7 @@
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D141">
         <v>929</v>
@@ -4450,7 +4456,7 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D142">
         <v>2720</v>
@@ -4476,7 +4482,7 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D143">
         <v>57684</v>
@@ -4502,7 +4508,7 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D144">
         <v>1666</v>
@@ -4528,7 +4534,7 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D145">
         <v>4248</v>
@@ -4554,7 +4560,7 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D146">
         <v>146722</v>
@@ -4580,7 +4586,7 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D147">
         <v>610</v>
@@ -4606,7 +4612,7 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D148">
         <v>2607</v>
@@ -4632,7 +4638,7 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D149">
         <v>3535</v>
@@ -4658,7 +4664,7 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D150">
         <v>894</v>
@@ -4684,7 +4690,7 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D151">
         <v>732</v>
@@ -4710,7 +4716,7 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D152">
         <v>1987</v>
@@ -4736,7 +4742,7 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D153">
         <v>11003</v>
@@ -4762,7 +4768,7 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D154">
         <v>2654</v>
@@ -4788,7 +4794,7 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D155">
         <v>2114</v>
@@ -4814,7 +4820,7 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D156">
         <v>4717</v>
@@ -4840,7 +4846,7 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D157">
         <v>2381</v>
@@ -4866,7 +4872,7 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D158">
         <v>268</v>
@@ -4892,7 +4898,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D159">
         <v>8209</v>
@@ -4918,7 +4924,7 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D160">
         <v>134</v>
@@ -4944,7 +4950,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D161">
         <v>36051</v>
@@ -4970,7 +4976,7 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D162">
         <v>119</v>
@@ -4996,7 +5002,7 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D163">
         <v>14764</v>
@@ -5022,7 +5028,7 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D164">
         <v>58380</v>
@@ -5048,7 +5054,7 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D165">
         <v>396</v>
@@ -5074,7 +5080,7 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D166">
         <v>3553</v>
@@ -5100,7 +5106,7 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D167">
         <v>2432</v>
@@ -5126,7 +5132,7 @@
         <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D168">
         <v>1489</v>
@@ -5152,7 +5158,7 @@
         <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D169">
         <v>6271</v>
@@ -5178,7 +5184,7 @@
         <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D170">
         <v>5032</v>
@@ -5204,7 +5210,7 @@
         <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D171">
         <v>496</v>
@@ -5230,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D172">
         <v>214</v>
@@ -5256,7 +5262,7 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D173">
         <v>8227</v>
@@ -5282,7 +5288,7 @@
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D174">
         <v>705</v>
@@ -5308,7 +5314,7 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D175">
         <v>568</v>
@@ -5334,7 +5340,7 @@
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D176">
         <v>9345</v>
@@ -5360,7 +5366,7 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D177">
         <v>1294</v>
@@ -5386,7 +5392,7 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178">
         <v>9563</v>
@@ -5412,7 +5418,7 @@
         <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D179">
         <v>650</v>
@@ -5438,7 +5444,7 @@
         <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D180">
         <v>228135</v>
@@ -5464,7 +5470,7 @@
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D181">
         <v>355</v>
@@ -5490,7 +5496,7 @@
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D182">
         <v>184</v>
@@ -5516,7 +5522,7 @@
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D183">
         <v>2337</v>
@@ -5542,7 +5548,7 @@
         <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D184">
         <v>973</v>
@@ -5568,7 +5574,7 @@
         <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D185">
         <v>5227</v>
@@ -5594,7 +5600,7 @@
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D186">
         <v>2529</v>
@@ -5620,7 +5626,7 @@
         <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D187">
         <v>1317</v>
@@ -5646,7 +5652,7 @@
         <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D188">
         <v>896</v>
@@ -5672,7 +5678,7 @@
         <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D189">
         <v>5682</v>
@@ -5698,7 +5704,7 @@
         <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D190">
         <v>13656</v>
@@ -5724,7 +5730,7 @@
         <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D191">
         <v>513</v>
@@ -5750,7 +5756,7 @@
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D192">
         <v>36450</v>
@@ -5776,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D193">
         <v>4693</v>
@@ -5802,7 +5808,7 @@
         <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D194">
         <v>186</v>
@@ -5828,7 +5834,7 @@
         <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D195">
         <v>5592</v>
@@ -5854,7 +5860,7 @@
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D196">
         <v>1597</v>
@@ -5880,7 +5886,7 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D197">
         <v>1289</v>
@@ -5906,7 +5912,7 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D198">
         <v>2613</v>
@@ -5932,7 +5938,7 @@
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D199">
         <v>1573</v>
@@ -5958,7 +5964,7 @@
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D200">
         <v>177</v>
@@ -5984,7 +5990,7 @@
         <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D201">
         <v>2341</v>
@@ -6010,7 +6016,7 @@
         <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D202">
         <v>2324</v>
@@ -6036,7 +6042,7 @@
         <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D203">
         <v>19739</v>
@@ -6062,7 +6068,7 @@
         <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D204">
         <v>14688</v>
@@ -6088,7 +6094,7 @@
         <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D205">
         <v>7159</v>
@@ -6114,7 +6120,7 @@
         <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D206">
         <v>15416</v>
@@ -6140,7 +6146,7 @@
         <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D207">
         <v>237</v>
@@ -6166,7 +6172,7 @@
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D208">
         <v>1105</v>
@@ -6192,7 +6198,7 @@
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D209">
         <v>871</v>
@@ -6218,7 +6224,7 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D210">
         <v>216</v>
@@ -6244,7 +6250,7 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D211">
         <v>1487</v>
@@ -6270,7 +6276,7 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D212">
         <v>2529</v>
@@ -6296,7 +6302,7 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D213">
         <v>526</v>
@@ -6322,7 +6328,7 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D214">
         <v>357</v>
@@ -6348,7 +6354,7 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D215">
         <v>300</v>
@@ -6374,7 +6380,7 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D216">
         <v>444</v>
@@ -6400,7 +6406,7 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D217">
         <v>4333</v>
@@ -6426,7 +6432,7 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D218">
         <v>262</v>
@@ -6452,7 +6458,7 @@
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D219">
         <v>978</v>
@@ -6478,7 +6484,7 @@
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D220">
         <v>748</v>
@@ -6504,7 +6510,7 @@
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D221">
         <v>1554</v>
@@ -6530,7 +6536,7 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D222">
         <v>79340</v>
@@ -6556,7 +6562,7 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D223">
         <v>1036</v>
@@ -6582,7 +6588,7 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D224">
         <v>4958</v>
@@ -6608,7 +6614,7 @@
         <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D225">
         <v>171712</v>
@@ -6634,7 +6640,7 @@
         <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D226">
         <v>539</v>
@@ -6660,7 +6666,7 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D227">
         <v>4734</v>
@@ -6686,7 +6692,7 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D228">
         <v>1342</v>
@@ -6712,7 +6718,7 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D229">
         <v>1567</v>
@@ -6738,7 +6744,7 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D230">
         <v>1483</v>
@@ -6764,7 +6770,7 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D231">
         <v>2314</v>
@@ -6790,7 +6796,7 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D232">
         <v>12137</v>
@@ -6816,7 +6822,7 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D233">
         <v>4421</v>
@@ -6842,7 +6848,7 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D234">
         <v>2102</v>
@@ -6868,7 +6874,7 @@
         <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D235">
         <v>542</v>
@@ -6894,7 +6900,7 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D236">
         <v>2319</v>
@@ -6920,7 +6926,7 @@
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D237">
         <v>1406</v>
@@ -6946,7 +6952,7 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D238">
         <v>433</v>
@@ -6972,7 +6978,7 @@
         <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D239">
         <v>6432</v>
@@ -6998,7 +7004,7 @@
         <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D240">
         <v>46566</v>
@@ -7024,7 +7030,7 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D241">
         <v>131</v>
@@ -7050,7 +7056,7 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D242">
         <v>19673</v>
@@ -7076,7 +7082,7 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D243">
         <v>53344</v>
@@ -7102,7 +7108,7 @@
         <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D244">
         <v>193</v>
@@ -7128,7 +7134,7 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D245">
         <v>301</v>
@@ -7154,7 +7160,7 @@
         <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D246">
         <v>218</v>
@@ -7180,7 +7186,7 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D247">
         <v>3561</v>
@@ -7206,7 +7212,7 @@
         <v>10</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D248">
         <v>448</v>
@@ -7232,7 +7238,7 @@
         <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D249">
         <v>2902</v>
@@ -7258,7 +7264,7 @@
         <v>10</v>
       </c>
       <c r="C250" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D250">
         <v>1006</v>
@@ -7284,7 +7290,7 @@
         <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D251">
         <v>8298</v>
@@ -7310,7 +7316,7 @@
         <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D252">
         <v>5639</v>
@@ -7336,7 +7342,7 @@
         <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D253">
         <v>222</v>
@@ -7362,7 +7368,7 @@
         <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D254">
         <v>1401</v>
@@ -7388,7 +7394,7 @@
         <v>10</v>
       </c>
       <c r="C255" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D255">
         <v>13598</v>
@@ -7414,7 +7420,7 @@
         <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D256">
         <v>1358</v>
@@ -7440,7 +7446,7 @@
         <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D257">
         <v>332</v>
@@ -7466,7 +7472,7 @@
         <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D258">
         <v>920</v>
@@ -7492,7 +7498,7 @@
         <v>10</v>
       </c>
       <c r="C259" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D259">
         <v>14158</v>
@@ -7518,7 +7524,7 @@
         <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D260">
         <v>2494</v>
@@ -7544,7 +7550,7 @@
         <v>10</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D261">
         <v>12495</v>
@@ -7570,7 +7576,7 @@
         <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D262">
         <v>1835</v>
@@ -7596,7 +7602,7 @@
         <v>10</v>
       </c>
       <c r="C263" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D263">
         <v>162023</v>
@@ -7622,7 +7628,7 @@
         <v>10</v>
       </c>
       <c r="C264" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D264">
         <v>373</v>
@@ -7648,7 +7654,7 @@
         <v>10</v>
       </c>
       <c r="C265" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D265">
         <v>645</v>
@@ -7674,7 +7680,7 @@
         <v>10</v>
       </c>
       <c r="C266" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D266">
         <v>3760</v>
@@ -7700,7 +7706,7 @@
         <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D267">
         <v>618</v>
@@ -7726,7 +7732,7 @@
         <v>10</v>
       </c>
       <c r="C268" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D268">
         <v>1235</v>
@@ -7752,7 +7758,7 @@
         <v>10</v>
       </c>
       <c r="C269" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D269">
         <v>7651</v>
@@ -7778,7 +7784,7 @@
         <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D270">
         <v>3314</v>
@@ -7804,7 +7810,7 @@
         <v>10</v>
       </c>
       <c r="C271" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D271">
         <v>1102</v>
@@ -7830,7 +7836,7 @@
         <v>10</v>
       </c>
       <c r="C272" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D272">
         <v>1568</v>
@@ -7856,7 +7862,7 @@
         <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D273">
         <v>4998</v>
@@ -7882,7 +7888,7 @@
         <v>10</v>
       </c>
       <c r="C274" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D274">
         <v>17875</v>
@@ -7908,7 +7914,7 @@
         <v>10</v>
       </c>
       <c r="C275" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D275">
         <v>858</v>
@@ -7934,7 +7940,7 @@
         <v>10</v>
       </c>
       <c r="C276" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D276">
         <v>44708</v>
@@ -7960,7 +7966,7 @@
         <v>10</v>
       </c>
       <c r="C277" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D277">
         <v>7403</v>
@@ -7986,7 +7992,7 @@
         <v>10</v>
       </c>
       <c r="C278" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D278">
         <v>6711</v>
@@ -8012,7 +8018,7 @@
         <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D279">
         <v>3782</v>
@@ -8038,7 +8044,7 @@
         <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D280">
         <v>2123</v>
@@ -8064,7 +8070,7 @@
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D281">
         <v>3695</v>
@@ -8090,7 +8096,7 @@
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D282">
         <v>2242</v>
@@ -8116,7 +8122,7 @@
         <v>10</v>
       </c>
       <c r="C283" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D283">
         <v>1938</v>
@@ -8142,7 +8148,7 @@
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D284">
         <v>3408</v>
@@ -8168,7 +8174,7 @@
         <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D285">
         <v>21509</v>
@@ -8194,7 +8200,7 @@
         <v>10</v>
       </c>
       <c r="C286" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D286">
         <v>14532</v>
@@ -8220,7 +8226,7 @@
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D287">
         <v>303</v>
@@ -8240,7 +8246,7 @@
         <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D288">
         <v>267</v>
@@ -8266,7 +8272,7 @@
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D289">
         <v>5531</v>
@@ -8292,7 +8298,7 @@
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D290">
         <v>23762</v>
@@ -8318,7 +8324,7 @@
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D291">
         <v>392</v>
@@ -8344,7 +8350,7 @@
         <v>10</v>
       </c>
       <c r="C292" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D292">
         <v>1713</v>
@@ -8370,7 +8376,7 @@
         <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D293">
         <v>1566</v>
@@ -8396,7 +8402,7 @@
         <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D294">
         <v>217</v>
@@ -8422,7 +8428,7 @@
         <v>10</v>
       </c>
       <c r="C295" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D295">
         <v>456</v>
@@ -8448,7 +8454,7 @@
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D296">
         <v>1490</v>
@@ -8474,7 +8480,7 @@
         <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D297">
         <v>526</v>
@@ -8500,7 +8506,7 @@
         <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D298">
         <v>3388</v>
@@ -8526,7 +8532,7 @@
         <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D299">
         <v>632</v>
@@ -8552,7 +8558,7 @@
         <v>10</v>
       </c>
       <c r="C300" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D300">
         <v>378</v>
@@ -8578,7 +8584,7 @@
         <v>10</v>
       </c>
       <c r="C301" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D301">
         <v>6904</v>
@@ -8604,7 +8610,7 @@
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D302">
         <v>920</v>
@@ -8630,7 +8636,7 @@
         <v>10</v>
       </c>
       <c r="C303" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D303">
         <v>713</v>
@@ -8656,7 +8662,7 @@
         <v>10</v>
       </c>
       <c r="C304" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D304">
         <v>2728</v>
@@ -8682,7 +8688,7 @@
         <v>10</v>
       </c>
       <c r="C305" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D305">
         <v>519</v>
@@ -8708,7 +8714,7 @@
         <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D306">
         <v>272</v>
@@ -8734,7 +8740,7 @@
         <v>10</v>
       </c>
       <c r="C307" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D307">
         <v>1601</v>
@@ -8760,7 +8766,7 @@
         <v>10</v>
       </c>
       <c r="C308" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D308">
         <v>3170</v>
@@ -8786,7 +8792,7 @@
         <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D309">
         <v>102088</v>
@@ -8812,7 +8818,7 @@
         <v>10</v>
       </c>
       <c r="C310" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D310">
         <v>2137</v>
@@ -8838,7 +8844,7 @@
         <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D311">
         <v>6612</v>
@@ -8864,7 +8870,7 @@
         <v>10</v>
       </c>
       <c r="C312" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D312">
         <v>232091</v>
@@ -8890,7 +8896,7 @@
         <v>10</v>
       </c>
       <c r="C313" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D313">
         <v>298</v>
@@ -8916,7 +8922,7 @@
         <v>10</v>
       </c>
       <c r="C314" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D314">
         <v>380</v>
@@ -8942,7 +8948,7 @@
         <v>10</v>
       </c>
       <c r="C315" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D315">
         <v>3613</v>
@@ -8968,7 +8974,7 @@
         <v>10</v>
       </c>
       <c r="C316" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D316">
         <v>3066</v>
@@ -8994,7 +9000,7 @@
         <v>10</v>
       </c>
       <c r="C317" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D317">
         <v>1605</v>
@@ -9020,7 +9026,7 @@
         <v>10</v>
       </c>
       <c r="C318" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D318">
         <v>846</v>
@@ -9046,7 +9052,7 @@
         <v>10</v>
       </c>
       <c r="C319" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D319">
         <v>3587</v>
@@ -9072,7 +9078,7 @@
         <v>10</v>
       </c>
       <c r="C320" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D320">
         <v>16882</v>
@@ -9098,7 +9104,7 @@
         <v>10</v>
       </c>
       <c r="C321" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D321">
         <v>4192</v>
@@ -9124,7 +9130,7 @@
         <v>10</v>
       </c>
       <c r="C322" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D322">
         <v>5435</v>
@@ -9150,7 +9156,7 @@
         <v>10</v>
       </c>
       <c r="C323" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D323">
         <v>490</v>
@@ -9176,7 +9182,7 @@
         <v>10</v>
       </c>
       <c r="C324" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D324">
         <v>2715</v>
@@ -9202,7 +9208,7 @@
         <v>10</v>
       </c>
       <c r="C325" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D325">
         <v>235</v>
@@ -9228,7 +9234,7 @@
         <v>10</v>
       </c>
       <c r="C326" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D326">
         <v>4813</v>
@@ -9254,7 +9260,7 @@
         <v>10</v>
       </c>
       <c r="C327" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D327">
         <v>11218</v>
@@ -9280,7 +9286,7 @@
         <v>10</v>
       </c>
       <c r="C328" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D328">
         <v>61799</v>
@@ -9306,7 +9312,7 @@
         <v>10</v>
       </c>
       <c r="C329" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D329">
         <v>618</v>
@@ -9332,7 +9338,7 @@
         <v>10</v>
       </c>
       <c r="C330" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D330">
         <v>28368</v>
@@ -9358,7 +9364,7 @@
         <v>10</v>
       </c>
       <c r="C331" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D331">
         <v>65331</v>
@@ -9384,7 +9390,7 @@
         <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D332">
         <v>1129</v>
@@ -9410,7 +9416,7 @@
         <v>10</v>
       </c>
       <c r="C333" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D333">
         <v>2657</v>
@@ -9436,7 +9442,7 @@
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D334">
         <v>494</v>
@@ -9462,7 +9468,7 @@
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D335">
         <v>2007</v>
@@ -9488,7 +9494,7 @@
         <v>11</v>
       </c>
       <c r="C336" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D336">
         <v>482</v>
@@ -9514,7 +9520,7 @@
         <v>11</v>
       </c>
       <c r="C337" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D337">
         <v>7226</v>
@@ -9540,7 +9546,7 @@
         <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D338">
         <v>5153</v>
@@ -9566,7 +9572,7 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D339">
         <v>750</v>
@@ -9592,7 +9598,7 @@
         <v>11</v>
       </c>
       <c r="C340" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D340">
         <v>542</v>
@@ -9618,7 +9624,7 @@
         <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D341">
         <v>687</v>
@@ -9644,7 +9650,7 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D342">
         <v>13319</v>
@@ -9670,7 +9676,7 @@
         <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D343">
         <v>1323</v>
@@ -9696,7 +9702,7 @@
         <v>11</v>
       </c>
       <c r="C344" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D344">
         <v>617</v>
@@ -9722,7 +9728,7 @@
         <v>11</v>
       </c>
       <c r="C345" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D345">
         <v>14351</v>
@@ -9748,7 +9754,7 @@
         <v>11</v>
       </c>
       <c r="C346" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D346">
         <v>3251</v>
@@ -9774,7 +9780,7 @@
         <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D347">
         <v>10167</v>
@@ -9800,7 +9806,7 @@
         <v>11</v>
       </c>
       <c r="C348" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D348">
         <v>2695</v>
@@ -9826,7 +9832,7 @@
         <v>11</v>
       </c>
       <c r="C349" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D349">
         <v>117703</v>
@@ -9852,7 +9858,7 @@
         <v>11</v>
       </c>
       <c r="C350" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D350">
         <v>689</v>
@@ -9878,7 +9884,7 @@
         <v>11</v>
       </c>
       <c r="C351" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D351">
         <v>459</v>
@@ -9904,7 +9910,7 @@
         <v>11</v>
       </c>
       <c r="C352" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D352">
         <v>1373</v>
@@ -9930,7 +9936,7 @@
         <v>11</v>
       </c>
       <c r="C353" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D353">
         <v>5923</v>
@@ -9956,7 +9962,7 @@
         <v>11</v>
       </c>
       <c r="C354" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D354">
         <v>1584</v>
@@ -9982,7 +9988,7 @@
         <v>11</v>
       </c>
       <c r="C355" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D355">
         <v>291</v>
@@ -10008,7 +10014,7 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D356">
         <v>288</v>
@@ -10034,7 +10040,7 @@
         <v>11</v>
       </c>
       <c r="C357" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D357">
         <v>1761</v>
@@ -10060,7 +10066,7 @@
         <v>11</v>
       </c>
       <c r="C358" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D358">
         <v>1252</v>
@@ -10086,7 +10092,7 @@
         <v>11</v>
       </c>
       <c r="C359" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D359">
         <v>3052</v>
@@ -10112,7 +10118,7 @@
         <v>11</v>
       </c>
       <c r="C360" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D360">
         <v>18452</v>
@@ -10138,7 +10144,7 @@
         <v>11</v>
       </c>
       <c r="C361" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D361">
         <v>990</v>
@@ -10164,7 +10170,7 @@
         <v>11</v>
       </c>
       <c r="C362" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D362">
         <v>38671</v>
@@ -10190,7 +10196,7 @@
         <v>11</v>
       </c>
       <c r="C363" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D363">
         <v>4210</v>
@@ -10216,7 +10222,7 @@
         <v>11</v>
       </c>
       <c r="C364" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D364">
         <v>5188</v>
@@ -10242,7 +10248,7 @@
         <v>11</v>
       </c>
       <c r="C365" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D365">
         <v>6131</v>
@@ -10268,7 +10274,7 @@
         <v>11</v>
       </c>
       <c r="C366" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D366">
         <v>4294</v>
@@ -10294,7 +10300,7 @@
         <v>11</v>
       </c>
       <c r="C367" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D367">
         <v>2921</v>
@@ -10320,7 +10326,7 @@
         <v>11</v>
       </c>
       <c r="C368" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D368">
         <v>1326</v>
@@ -10346,7 +10352,7 @@
         <v>11</v>
       </c>
       <c r="C369" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D369">
         <v>2347</v>
@@ -10372,7 +10378,7 @@
         <v>11</v>
       </c>
       <c r="C370" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D370">
         <v>2885</v>
@@ -10398,7 +10404,7 @@
         <v>11</v>
       </c>
       <c r="C371" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D371">
         <v>21651</v>
@@ -10424,7 +10430,7 @@
         <v>11</v>
       </c>
       <c r="C372" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D372">
         <v>12338</v>
@@ -10450,7 +10456,7 @@
         <v>11</v>
       </c>
       <c r="C373" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D373">
         <v>297</v>
@@ -10476,7 +10482,7 @@
         <v>11</v>
       </c>
       <c r="C374" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D374">
         <v>6144</v>
@@ -10502,7 +10508,7 @@
         <v>11</v>
       </c>
       <c r="C375" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D375">
         <v>18654</v>
@@ -10528,7 +10534,7 @@
         <v>11</v>
       </c>
       <c r="C376" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D376">
         <v>642</v>
@@ -10554,7 +10560,7 @@
         <v>11</v>
       </c>
       <c r="C377" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D377">
         <v>460</v>
@@ -10580,7 +10586,7 @@
         <v>11</v>
       </c>
       <c r="C378" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D378">
         <v>1317</v>
@@ -10606,7 +10612,7 @@
         <v>11</v>
       </c>
       <c r="C379" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D379">
         <v>222</v>
@@ -10632,7 +10638,7 @@
         <v>11</v>
       </c>
       <c r="C380" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D380">
         <v>2263</v>
@@ -10658,7 +10664,7 @@
         <v>11</v>
       </c>
       <c r="C381" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D381">
         <v>170</v>
@@ -10684,7 +10690,7 @@
         <v>11</v>
       </c>
       <c r="C382" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D382">
         <v>2780</v>
@@ -10710,7 +10716,7 @@
         <v>11</v>
       </c>
       <c r="C383" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D383">
         <v>3950</v>
@@ -10736,7 +10742,7 @@
         <v>11</v>
       </c>
       <c r="C384" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D384">
         <v>723</v>
@@ -10762,7 +10768,7 @@
         <v>11</v>
       </c>
       <c r="C385" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D385">
         <v>257</v>
@@ -10788,7 +10794,7 @@
         <v>11</v>
       </c>
       <c r="C386" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D386">
         <v>177</v>
@@ -10814,7 +10820,7 @@
         <v>11</v>
       </c>
       <c r="C387" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D387">
         <v>5014</v>
@@ -10840,7 +10846,7 @@
         <v>11</v>
       </c>
       <c r="C388" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D388">
         <v>1902</v>
@@ -10866,7 +10872,7 @@
         <v>11</v>
       </c>
       <c r="C389" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D389">
         <v>299</v>
@@ -10892,7 +10898,7 @@
         <v>11</v>
       </c>
       <c r="C390" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D390">
         <v>1665</v>
@@ -10918,7 +10924,7 @@
         <v>11</v>
       </c>
       <c r="C391" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D391">
         <v>329</v>
@@ -10944,7 +10950,7 @@
         <v>11</v>
       </c>
       <c r="C392" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D392">
         <v>1211</v>
@@ -10970,7 +10976,7 @@
         <v>11</v>
       </c>
       <c r="C393" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D393">
         <v>6482</v>
@@ -10996,7 +11002,7 @@
         <v>11</v>
       </c>
       <c r="C394" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D394">
         <v>70248</v>
@@ -11022,7 +11028,7 @@
         <v>11</v>
       </c>
       <c r="C395" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D395">
         <v>2938</v>
@@ -11048,7 +11054,7 @@
         <v>11</v>
       </c>
       <c r="C396" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D396">
         <v>5554</v>
@@ -11074,7 +11080,7 @@
         <v>11</v>
       </c>
       <c r="C397" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D397">
         <v>212393</v>
@@ -11100,7 +11106,7 @@
         <v>11</v>
       </c>
       <c r="C398" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D398">
         <v>388</v>
@@ -11126,7 +11132,7 @@
         <v>11</v>
       </c>
       <c r="C399" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D399">
         <v>4118</v>
@@ -11152,7 +11158,7 @@
         <v>11</v>
       </c>
       <c r="C400" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D400">
         <v>3109</v>
@@ -11178,7 +11184,7 @@
         <v>11</v>
       </c>
       <c r="C401" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D401">
         <v>1508</v>
@@ -11204,7 +11210,7 @@
         <v>11</v>
       </c>
       <c r="C402" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D402">
         <v>1003</v>
@@ -11230,7 +11236,7 @@
         <v>11</v>
       </c>
       <c r="C403" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D403">
         <v>2702</v>
@@ -11256,7 +11262,7 @@
         <v>11</v>
       </c>
       <c r="C404" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D404">
         <v>18942</v>
@@ -11282,7 +11288,7 @@
         <v>11</v>
       </c>
       <c r="C405" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D405">
         <v>1797</v>
@@ -11308,7 +11314,7 @@
         <v>11</v>
       </c>
       <c r="C406" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D406">
         <v>3882</v>
@@ -11334,7 +11340,7 @@
         <v>11</v>
       </c>
       <c r="C407" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D407">
         <v>4438</v>
@@ -11360,7 +11366,7 @@
         <v>11</v>
       </c>
       <c r="C408" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D408">
         <v>263</v>
@@ -11386,7 +11392,7 @@
         <v>11</v>
       </c>
       <c r="C409" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D409">
         <v>3980</v>
@@ -11412,7 +11418,7 @@
         <v>11</v>
       </c>
       <c r="C410" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D410">
         <v>153</v>
@@ -11438,7 +11444,7 @@
         <v>11</v>
       </c>
       <c r="C411" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D411">
         <v>236</v>
@@ -11464,7 +11470,7 @@
         <v>11</v>
       </c>
       <c r="C412" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D412">
         <v>11286</v>
@@ -11490,7 +11496,7 @@
         <v>11</v>
       </c>
       <c r="C413" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D413">
         <v>51930</v>
@@ -11516,7 +11522,7 @@
         <v>11</v>
       </c>
       <c r="C414" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D414">
         <v>653</v>
@@ -11542,7 +11548,7 @@
         <v>11</v>
       </c>
       <c r="C415" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D415">
         <v>23993</v>
@@ -11568,7 +11574,7 @@
         <v>11</v>
       </c>
       <c r="C416" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D416">
         <v>55735</v>
@@ -11594,7 +11600,7 @@
         <v>11</v>
       </c>
       <c r="C417" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D417">
         <v>633</v>
@@ -11620,7 +11626,7 @@
         <v>11</v>
       </c>
       <c r="C418" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D418">
         <v>516</v>
@@ -11646,7 +11652,7 @@
         <v>11</v>
       </c>
       <c r="C419" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D419">
         <v>3441</v>
@@ -11672,7 +11678,7 @@
         <v>12</v>
       </c>
       <c r="C420" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D420">
         <v>404</v>
@@ -11698,7 +11704,7 @@
         <v>12</v>
       </c>
       <c r="C421" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D421">
         <v>2192</v>
@@ -11724,7 +11730,7 @@
         <v>12</v>
       </c>
       <c r="C422" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D422">
         <v>933</v>
@@ -11750,7 +11756,7 @@
         <v>12</v>
       </c>
       <c r="C423" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D423">
         <v>6352</v>
@@ -11776,7 +11782,7 @@
         <v>12</v>
       </c>
       <c r="C424" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D424">
         <v>4828</v>
@@ -11802,7 +11808,7 @@
         <v>12</v>
       </c>
       <c r="C425" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D425">
         <v>1194</v>
@@ -11828,7 +11834,7 @@
         <v>12</v>
       </c>
       <c r="C426" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D426">
         <v>838</v>
@@ -11854,7 +11860,7 @@
         <v>12</v>
       </c>
       <c r="C427" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D427">
         <v>11510</v>
@@ -11880,7 +11886,7 @@
         <v>12</v>
       </c>
       <c r="C428" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D428">
         <v>1482</v>
@@ -11906,7 +11912,7 @@
         <v>12</v>
       </c>
       <c r="C429" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D429">
         <v>292</v>
@@ -11932,7 +11938,7 @@
         <v>12</v>
       </c>
       <c r="C430" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D430">
         <v>13713</v>
@@ -11958,7 +11964,7 @@
         <v>12</v>
       </c>
       <c r="C431" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D431">
         <v>2509</v>
@@ -11984,7 +11990,7 @@
         <v>12</v>
       </c>
       <c r="C432" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D432">
         <v>10554</v>
@@ -12010,7 +12016,7 @@
         <v>12</v>
       </c>
       <c r="C433" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D433">
         <v>2945</v>
@@ -12036,7 +12042,7 @@
         <v>12</v>
       </c>
       <c r="C434" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D434">
         <v>97223</v>
@@ -12062,7 +12068,7 @@
         <v>12</v>
       </c>
       <c r="C435" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D435">
         <v>1259</v>
@@ -12088,7 +12094,7 @@
         <v>12</v>
       </c>
       <c r="C436" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D436">
         <v>443</v>
@@ -12114,7 +12120,7 @@
         <v>12</v>
       </c>
       <c r="C437" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D437">
         <v>1655</v>
@@ -12140,7 +12146,7 @@
         <v>12</v>
       </c>
       <c r="C438" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D438">
         <v>488</v>
@@ -12166,7 +12172,7 @@
         <v>12</v>
       </c>
       <c r="C439" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D439">
         <v>159</v>
@@ -12192,7 +12198,7 @@
         <v>12</v>
       </c>
       <c r="C440" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D440">
         <v>6578</v>
@@ -12218,7 +12224,7 @@
         <v>12</v>
       </c>
       <c r="C441" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D441">
         <v>2375</v>
@@ -12244,7 +12250,7 @@
         <v>12</v>
       </c>
       <c r="C442" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D442">
         <v>109</v>
@@ -12270,7 +12276,7 @@
         <v>12</v>
       </c>
       <c r="C443" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D443">
         <v>400</v>
@@ -12296,7 +12302,7 @@
         <v>12</v>
       </c>
       <c r="C444" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D444">
         <v>267</v>
@@ -12322,7 +12328,7 @@
         <v>12</v>
       </c>
       <c r="C445" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D445">
         <v>602</v>
@@ -12348,7 +12354,7 @@
         <v>12</v>
       </c>
       <c r="C446" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D446">
         <v>1832</v>
@@ -12374,7 +12380,7 @@
         <v>12</v>
       </c>
       <c r="C447" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D447">
         <v>14733</v>
@@ -12400,7 +12406,7 @@
         <v>12</v>
       </c>
       <c r="C448" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D448">
         <v>825</v>
@@ -12426,7 +12432,7 @@
         <v>12</v>
       </c>
       <c r="C449" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D449">
         <v>38230</v>
@@ -12452,7 +12458,7 @@
         <v>12</v>
       </c>
       <c r="C450" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D450">
         <v>4220</v>
@@ -12478,7 +12484,7 @@
         <v>12</v>
       </c>
       <c r="C451" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D451">
         <v>381</v>
@@ -12504,7 +12510,7 @@
         <v>12</v>
       </c>
       <c r="C452" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D452">
         <v>3915</v>
@@ -12530,7 +12536,7 @@
         <v>12</v>
       </c>
       <c r="C453" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D453">
         <v>4900</v>
@@ -12556,7 +12562,7 @@
         <v>12</v>
       </c>
       <c r="C454" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D454">
         <v>4601</v>
@@ -12582,7 +12588,7 @@
         <v>12</v>
       </c>
       <c r="C455" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D455">
         <v>3308</v>
@@ -12608,7 +12614,7 @@
         <v>12</v>
       </c>
       <c r="C456" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D456">
         <v>1572</v>
@@ -12634,7 +12640,7 @@
         <v>12</v>
       </c>
       <c r="C457" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D457">
         <v>3014</v>
@@ -12660,7 +12666,7 @@
         <v>12</v>
       </c>
       <c r="C458" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D458">
         <v>2968</v>
@@ -12686,7 +12692,7 @@
         <v>12</v>
       </c>
       <c r="C459" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D459">
         <v>20223</v>
@@ -12712,7 +12718,7 @@
         <v>12</v>
       </c>
       <c r="C460" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D460">
         <v>13076</v>
@@ -12738,7 +12744,7 @@
         <v>12</v>
       </c>
       <c r="C461" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D461">
         <v>6030</v>
@@ -12764,7 +12770,7 @@
         <v>12</v>
       </c>
       <c r="C462" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D462">
         <v>141</v>
@@ -12790,7 +12796,7 @@
         <v>12</v>
       </c>
       <c r="C463" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D463">
         <v>14864</v>
@@ -12816,7 +12822,7 @@
         <v>12</v>
       </c>
       <c r="C464" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D464">
         <v>310</v>
@@ -12842,7 +12848,7 @@
         <v>12</v>
       </c>
       <c r="C465" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D465">
         <v>1268</v>
@@ -12868,7 +12874,7 @@
         <v>12</v>
       </c>
       <c r="C466" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D466">
         <v>1045</v>
@@ -12894,7 +12900,7 @@
         <v>12</v>
       </c>
       <c r="C467" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D467">
         <v>2408</v>
@@ -12920,7 +12926,7 @@
         <v>12</v>
       </c>
       <c r="C468" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D468">
         <v>2996</v>
@@ -12946,7 +12952,7 @@
         <v>12</v>
       </c>
       <c r="C469" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D469">
         <v>4688</v>
@@ -12972,7 +12978,7 @@
         <v>12</v>
       </c>
       <c r="C470" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D470">
         <v>1351</v>
@@ -12998,7 +13004,7 @@
         <v>12</v>
       </c>
       <c r="C471" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D471">
         <v>423</v>
@@ -13024,7 +13030,7 @@
         <v>12</v>
       </c>
       <c r="C472" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D472">
         <v>150</v>
@@ -13050,7 +13056,7 @@
         <v>12</v>
       </c>
       <c r="C473" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D473">
         <v>5340</v>
@@ -13076,7 +13082,7 @@
         <v>12</v>
       </c>
       <c r="C474" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D474">
         <v>565</v>
@@ -13102,7 +13108,7 @@
         <v>12</v>
       </c>
       <c r="C475" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D475">
         <v>136</v>
@@ -13128,7 +13134,7 @@
         <v>12</v>
       </c>
       <c r="C476" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D476">
         <v>1639</v>
@@ -13154,7 +13160,7 @@
         <v>12</v>
       </c>
       <c r="C477" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D477">
         <v>638</v>
@@ -13180,7 +13186,7 @@
         <v>12</v>
       </c>
       <c r="C478" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D478">
         <v>1025</v>
@@ -13206,7 +13212,7 @@
         <v>12</v>
       </c>
       <c r="C479" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D479">
         <v>5918</v>
@@ -13232,7 +13238,7 @@
         <v>12</v>
       </c>
       <c r="C480" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D480">
         <v>68542</v>
@@ -13258,7 +13264,7 @@
         <v>12</v>
       </c>
       <c r="C481" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D481">
         <v>4122</v>
@@ -13284,7 +13290,7 @@
         <v>12</v>
       </c>
       <c r="C482" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D482">
         <v>277</v>
@@ -13310,7 +13316,7 @@
         <v>12</v>
       </c>
       <c r="C483" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D483">
         <v>5735</v>
@@ -13336,7 +13342,7 @@
         <v>12</v>
       </c>
       <c r="C484" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D484">
         <v>190427</v>
@@ -13362,7 +13368,7 @@
         <v>12</v>
       </c>
       <c r="C485" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D485">
         <v>178</v>
@@ -13388,7 +13394,7 @@
         <v>12</v>
       </c>
       <c r="C486" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D486">
         <v>714</v>
@@ -13414,7 +13420,7 @@
         <v>12</v>
       </c>
       <c r="C487" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D487">
         <v>260</v>
@@ -13440,7 +13446,7 @@
         <v>12</v>
       </c>
       <c r="C488" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D488">
         <v>3163</v>
@@ -13466,7 +13472,7 @@
         <v>12</v>
       </c>
       <c r="C489" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D489">
         <v>2612</v>
@@ -13492,7 +13498,7 @@
         <v>12</v>
       </c>
       <c r="C490" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D490">
         <v>396</v>
@@ -13518,7 +13524,7 @@
         <v>12</v>
       </c>
       <c r="C491" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D491">
         <v>3017</v>
@@ -13544,7 +13550,7 @@
         <v>12</v>
       </c>
       <c r="C492" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D492">
         <v>21872</v>
@@ -13570,7 +13576,7 @@
         <v>12</v>
       </c>
       <c r="C493" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D493">
         <v>1965</v>
@@ -13596,7 +13602,7 @@
         <v>12</v>
       </c>
       <c r="C494" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D494">
         <v>2620</v>
@@ -13622,7 +13628,7 @@
         <v>12</v>
       </c>
       <c r="C495" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D495">
         <v>778</v>
@@ -13648,7 +13654,7 @@
         <v>12</v>
       </c>
       <c r="C496" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D496">
         <v>3907</v>
@@ -13674,7 +13680,7 @@
         <v>12</v>
       </c>
       <c r="C497" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D497">
         <v>2280</v>
@@ -13700,7 +13706,7 @@
         <v>12</v>
       </c>
       <c r="C498" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D498">
         <v>562</v>
@@ -13726,7 +13732,7 @@
         <v>12</v>
       </c>
       <c r="C499" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D499">
         <v>8451</v>
@@ -13752,7 +13758,7 @@
         <v>12</v>
       </c>
       <c r="C500" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D500">
         <v>51813</v>
@@ -13778,7 +13784,7 @@
         <v>12</v>
       </c>
       <c r="C501" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D501">
         <v>564</v>
@@ -13804,7 +13810,7 @@
         <v>12</v>
       </c>
       <c r="C502" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D502">
         <v>23572</v>
@@ -13830,7 +13836,7 @@
         <v>12</v>
       </c>
       <c r="C503" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D503">
         <v>50031</v>
@@ -13856,7 +13862,7 @@
         <v>12</v>
       </c>
       <c r="C504" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D504">
         <v>862</v>
@@ -13882,7 +13888,7 @@
         <v>12</v>
       </c>
       <c r="C505" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D505">
         <v>4644</v>
@@ -13908,7 +13914,7 @@
         <v>13</v>
       </c>
       <c r="C506" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D506">
         <v>1106</v>
@@ -13934,7 +13940,7 @@
         <v>13</v>
       </c>
       <c r="C507" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D507">
         <v>4013</v>
@@ -13960,7 +13966,7 @@
         <v>13</v>
       </c>
       <c r="C508" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D508">
         <v>395</v>
@@ -13986,7 +13992,7 @@
         <v>13</v>
       </c>
       <c r="C509" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D509">
         <v>10014</v>
@@ -14012,7 +14018,7 @@
         <v>13</v>
       </c>
       <c r="C510" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D510">
         <v>4130</v>
@@ -14038,7 +14044,7 @@
         <v>13</v>
       </c>
       <c r="C511" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D511">
         <v>1098</v>
@@ -14064,7 +14070,7 @@
         <v>13</v>
       </c>
       <c r="C512" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D512">
         <v>196</v>
@@ -14090,7 +14096,7 @@
         <v>13</v>
       </c>
       <c r="C513" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D513">
         <v>869</v>
@@ -14116,7 +14122,7 @@
         <v>13</v>
       </c>
       <c r="C514" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D514">
         <v>11393</v>
@@ -14142,7 +14148,7 @@
         <v>13</v>
       </c>
       <c r="C515" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D515">
         <v>1407</v>
@@ -14168,7 +14174,7 @@
         <v>13</v>
       </c>
       <c r="C516" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D516">
         <v>192</v>
@@ -14194,7 +14200,7 @@
         <v>13</v>
       </c>
       <c r="C517" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D517">
         <v>23792</v>
@@ -14220,7 +14226,7 @@
         <v>13</v>
       </c>
       <c r="C518" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D518">
         <v>3319</v>
@@ -14246,7 +14252,7 @@
         <v>13</v>
       </c>
       <c r="C519" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D519">
         <v>14498</v>
@@ -14272,7 +14278,7 @@
         <v>13</v>
       </c>
       <c r="C520" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D520">
         <v>4406</v>
@@ -14298,7 +14304,7 @@
         <v>13</v>
       </c>
       <c r="C521" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D521">
         <v>120787</v>
@@ -14324,7 +14330,7 @@
         <v>13</v>
       </c>
       <c r="C522" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D522">
         <v>2064</v>
@@ -14350,7 +14356,7 @@
         <v>13</v>
       </c>
       <c r="C523" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D523">
         <v>451</v>
@@ -14376,7 +14382,7 @@
         <v>13</v>
       </c>
       <c r="C524" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D524">
         <v>1750</v>
@@ -14402,7 +14408,7 @@
         <v>13</v>
       </c>
       <c r="C525" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D525">
         <v>10256</v>
@@ -14428,7 +14434,7 @@
         <v>13</v>
       </c>
       <c r="C526" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D526">
         <v>4587</v>
@@ -14454,7 +14460,7 @@
         <v>13</v>
       </c>
       <c r="C527" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D527">
         <v>591</v>
@@ -14480,7 +14486,7 @@
         <v>13</v>
       </c>
       <c r="C528" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D528">
         <v>916</v>
@@ -14506,7 +14512,7 @@
         <v>13</v>
       </c>
       <c r="C529" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D529">
         <v>1518</v>
@@ -14532,7 +14538,7 @@
         <v>13</v>
       </c>
       <c r="C530" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D530">
         <v>7961</v>
@@ -14558,7 +14564,7 @@
         <v>13</v>
       </c>
       <c r="C531" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D531">
         <v>17110</v>
@@ -14584,7 +14590,7 @@
         <v>13</v>
       </c>
       <c r="C532" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D532">
         <v>423</v>
@@ -14610,7 +14616,7 @@
         <v>13</v>
       </c>
       <c r="C533" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D533">
         <v>48135</v>
@@ -14636,7 +14642,7 @@
         <v>13</v>
       </c>
       <c r="C534" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D534">
         <v>4700</v>
@@ -14662,7 +14668,7 @@
         <v>13</v>
       </c>
       <c r="C535" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D535">
         <v>6077</v>
@@ -14688,7 +14694,7 @@
         <v>13</v>
       </c>
       <c r="C536" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D536">
         <v>5567</v>
@@ -14714,7 +14720,7 @@
         <v>13</v>
       </c>
       <c r="C537" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D537">
         <v>193</v>
@@ -14740,7 +14746,7 @@
         <v>13</v>
       </c>
       <c r="C538" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D538">
         <v>4674</v>
@@ -14766,7 +14772,7 @@
         <v>13</v>
       </c>
       <c r="C539" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D539">
         <v>3759</v>
@@ -14792,7 +14798,7 @@
         <v>13</v>
       </c>
       <c r="C540" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D540">
         <v>2245</v>
@@ -14818,7 +14824,7 @@
         <v>13</v>
       </c>
       <c r="C541" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D541">
         <v>256</v>
@@ -14844,7 +14850,7 @@
         <v>13</v>
       </c>
       <c r="C542" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D542">
         <v>3756</v>
@@ -14870,7 +14876,7 @@
         <v>13</v>
       </c>
       <c r="C543" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D543">
         <v>6159</v>
@@ -14896,7 +14902,7 @@
         <v>13</v>
       </c>
       <c r="C544" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D544">
         <v>22234</v>
@@ -14922,7 +14928,7 @@
         <v>13</v>
       </c>
       <c r="C545" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D545">
         <v>16786</v>
@@ -14948,7 +14954,7 @@
         <v>13</v>
       </c>
       <c r="C546" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D546">
         <v>508</v>
@@ -14974,7 +14980,7 @@
         <v>13</v>
       </c>
       <c r="C547" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D547">
         <v>8746</v>
@@ -15000,7 +15006,7 @@
         <v>13</v>
       </c>
       <c r="C548" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D548">
         <v>17129</v>
@@ -15026,7 +15032,7 @@
         <v>13</v>
       </c>
       <c r="C549" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D549">
         <v>413</v>
@@ -15052,7 +15058,7 @@
         <v>13</v>
       </c>
       <c r="C550" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D550">
         <v>1519</v>
@@ -15078,7 +15084,7 @@
         <v>13</v>
       </c>
       <c r="C551" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D551">
         <v>401</v>
@@ -15104,7 +15110,7 @@
         <v>13</v>
       </c>
       <c r="C552" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D552">
         <v>2153</v>
@@ -15130,7 +15136,7 @@
         <v>13</v>
       </c>
       <c r="C553" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D553">
         <v>2781</v>
@@ -15156,7 +15162,7 @@
         <v>13</v>
       </c>
       <c r="C554" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D554">
         <v>648</v>
@@ -15182,7 +15188,7 @@
         <v>13</v>
       </c>
       <c r="C555" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D555">
         <v>187</v>
@@ -15208,7 +15214,7 @@
         <v>13</v>
       </c>
       <c r="C556" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D556">
         <v>5481</v>
@@ -15234,7 +15240,7 @@
         <v>13</v>
       </c>
       <c r="C557" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D557">
         <v>1302</v>
@@ -15260,7 +15266,7 @@
         <v>13</v>
       </c>
       <c r="C558" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D558">
         <v>160</v>
@@ -15286,7 +15292,7 @@
         <v>13</v>
       </c>
       <c r="C559" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D559">
         <v>7597</v>
@@ -15312,7 +15318,7 @@
         <v>13</v>
       </c>
       <c r="C560" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D560">
         <v>592</v>
@@ -15338,7 +15344,7 @@
         <v>13</v>
       </c>
       <c r="C561" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D561">
         <v>669</v>
@@ -15364,7 +15370,7 @@
         <v>13</v>
       </c>
       <c r="C562" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D562">
         <v>1333</v>
@@ -15390,7 +15396,7 @@
         <v>13</v>
       </c>
       <c r="C563" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D563">
         <v>758</v>
@@ -15416,7 +15422,7 @@
         <v>13</v>
       </c>
       <c r="C564" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D564">
         <v>2340</v>
@@ -15442,7 +15448,7 @@
         <v>13</v>
       </c>
       <c r="C565" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D565">
         <v>8296</v>
@@ -15468,7 +15474,7 @@
         <v>13</v>
       </c>
       <c r="C566" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D566">
         <v>91117</v>
@@ -15494,7 +15500,7 @@
         <v>13</v>
       </c>
       <c r="C567" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D567">
         <v>4078</v>
@@ -15520,7 +15526,7 @@
         <v>13</v>
       </c>
       <c r="C568" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D568">
         <v>298</v>
@@ -15546,7 +15552,7 @@
         <v>13</v>
       </c>
       <c r="C569" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D569">
         <v>6392</v>
@@ -15572,7 +15578,7 @@
         <v>13</v>
       </c>
       <c r="C570" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D570">
         <v>223232</v>
@@ -15598,7 +15604,7 @@
         <v>13</v>
       </c>
       <c r="C571" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D571">
         <v>1517</v>
@@ -15624,7 +15630,7 @@
         <v>13</v>
       </c>
       <c r="C572" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D572">
         <v>6989</v>
@@ -15650,7 +15656,7 @@
         <v>13</v>
       </c>
       <c r="C573" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D573">
         <v>4094</v>
@@ -15676,7 +15682,7 @@
         <v>13</v>
       </c>
       <c r="C574" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D574">
         <v>1412</v>
@@ -15702,7 +15708,7 @@
         <v>13</v>
       </c>
       <c r="C575" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D575">
         <v>714</v>
@@ -15728,7 +15734,7 @@
         <v>13</v>
       </c>
       <c r="C576" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D576">
         <v>3173</v>
@@ -15754,7 +15760,7 @@
         <v>13</v>
       </c>
       <c r="C577" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D577">
         <v>20494</v>
@@ -15780,7 +15786,7 @@
         <v>13</v>
       </c>
       <c r="C578" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D578">
         <v>4386</v>
@@ -15806,7 +15812,7 @@
         <v>13</v>
       </c>
       <c r="C579" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D579">
         <v>4831</v>
@@ -15832,7 +15838,7 @@
         <v>13</v>
       </c>
       <c r="C580" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D580">
         <v>653</v>
@@ -15858,7 +15864,7 @@
         <v>13</v>
       </c>
       <c r="C581" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D581">
         <v>4147</v>
@@ -15884,7 +15890,7 @@
         <v>13</v>
       </c>
       <c r="C582" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D582">
         <v>2554</v>
@@ -15910,7 +15916,7 @@
         <v>13</v>
       </c>
       <c r="C583" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D583">
         <v>255</v>
@@ -15936,7 +15942,7 @@
         <v>13</v>
       </c>
       <c r="C584" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D584">
         <v>11374</v>
@@ -15962,7 +15968,7 @@
         <v>13</v>
       </c>
       <c r="C585" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D585">
         <v>61402</v>
@@ -15988,7 +15994,7 @@
         <v>13</v>
       </c>
       <c r="C586" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D586">
         <v>592</v>
@@ -16014,7 +16020,7 @@
         <v>13</v>
       </c>
       <c r="C587" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D587">
         <v>30871</v>
@@ -16040,7 +16046,7 @@
         <v>13</v>
       </c>
       <c r="C588" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D588">
         <v>69545</v>
@@ -16066,7 +16072,7 @@
         <v>13</v>
       </c>
       <c r="C589" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D589">
         <v>244</v>
@@ -16092,7 +16098,7 @@
         <v>13</v>
       </c>
       <c r="C590" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D590">
         <v>911</v>
@@ -16118,7 +16124,7 @@
         <v>13</v>
       </c>
       <c r="C591" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D591">
         <v>909</v>
@@ -16144,7 +16150,7 @@
         <v>13</v>
       </c>
       <c r="C592" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D592">
         <v>3762</v>
@@ -16170,7 +16176,7 @@
         <v>14</v>
       </c>
       <c r="C593" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D593">
         <v>218</v>
@@ -16196,7 +16202,7 @@
         <v>14</v>
       </c>
       <c r="C594" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D594">
         <v>2752</v>
@@ -16222,7 +16228,7 @@
         <v>14</v>
       </c>
       <c r="C595" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D595">
         <v>1002</v>
@@ -16248,7 +16254,7 @@
         <v>14</v>
       </c>
       <c r="C596" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D596">
         <v>10230</v>
@@ -16274,7 +16280,7 @@
         <v>14</v>
       </c>
       <c r="C597" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D597">
         <v>4644</v>
@@ -16300,7 +16306,7 @@
         <v>14</v>
       </c>
       <c r="C598" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D598">
         <v>1447</v>
@@ -16326,7 +16332,7 @@
         <v>14</v>
       </c>
       <c r="C599" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D599">
         <v>319</v>
@@ -16352,7 +16358,7 @@
         <v>14</v>
       </c>
       <c r="C600" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D600">
         <v>370</v>
@@ -16378,7 +16384,7 @@
         <v>14</v>
       </c>
       <c r="C601" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D601">
         <v>10260</v>
@@ -16404,7 +16410,7 @@
         <v>14</v>
       </c>
       <c r="C602" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D602">
         <v>1654</v>
@@ -16430,7 +16436,7 @@
         <v>14</v>
       </c>
       <c r="C603" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D603">
         <v>1167</v>
@@ -16456,7 +16462,7 @@
         <v>14</v>
       </c>
       <c r="C604" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D604">
         <v>13987</v>
@@ -16482,7 +16488,7 @@
         <v>14</v>
       </c>
       <c r="C605" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D605">
         <v>5516</v>
@@ -16508,7 +16514,7 @@
         <v>14</v>
       </c>
       <c r="C606" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D606">
         <v>10809</v>
@@ -16534,7 +16540,7 @@
         <v>14</v>
       </c>
       <c r="C607" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D607">
         <v>2358</v>
@@ -16560,7 +16566,7 @@
         <v>14</v>
       </c>
       <c r="C608" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D608">
         <v>117365</v>
@@ -16586,7 +16592,7 @@
         <v>14</v>
       </c>
       <c r="C609" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D609">
         <v>730</v>
@@ -16612,7 +16618,7 @@
         <v>14</v>
       </c>
       <c r="C610" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D610">
         <v>570</v>
@@ -16638,7 +16644,7 @@
         <v>14</v>
       </c>
       <c r="C611" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D611">
         <v>291</v>
@@ -16664,7 +16670,7 @@
         <v>14</v>
       </c>
       <c r="C612" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D612">
         <v>2247</v>
@@ -16690,7 +16696,7 @@
         <v>14</v>
       </c>
       <c r="C613" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D613">
         <v>1217</v>
@@ -16716,7 +16722,7 @@
         <v>14</v>
       </c>
       <c r="C614" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D614">
         <v>5618</v>
@@ -16742,7 +16748,7 @@
         <v>14</v>
       </c>
       <c r="C615" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D615">
         <v>900</v>
@@ -16768,7 +16774,7 @@
         <v>14</v>
       </c>
       <c r="C616" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D616">
         <v>329</v>
@@ -16794,7 +16800,7 @@
         <v>14</v>
       </c>
       <c r="C617" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D617">
         <v>532</v>
@@ -16820,7 +16826,7 @@
         <v>14</v>
       </c>
       <c r="C618" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D618">
         <v>342</v>
@@ -16846,7 +16852,7 @@
         <v>14</v>
       </c>
       <c r="C619" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D619">
         <v>1726</v>
@@ -16872,7 +16878,7 @@
         <v>14</v>
       </c>
       <c r="C620" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D620">
         <v>4052</v>
@@ -16898,7 +16904,7 @@
         <v>14</v>
       </c>
       <c r="C621" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D621">
         <v>13331</v>
@@ -16924,7 +16930,7 @@
         <v>14</v>
       </c>
       <c r="C622" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D622">
         <v>150</v>
@@ -16950,7 +16956,7 @@
         <v>14</v>
       </c>
       <c r="C623" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D623">
         <v>35557</v>
@@ -16976,7 +16982,7 @@
         <v>14</v>
       </c>
       <c r="C624" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D624">
         <v>3729</v>
@@ -17002,7 +17008,7 @@
         <v>14</v>
       </c>
       <c r="C625" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D625">
         <v>348</v>
@@ -17028,7 +17034,7 @@
         <v>14</v>
       </c>
       <c r="C626" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D626">
         <v>5154</v>
@@ -17054,7 +17060,7 @@
         <v>14</v>
       </c>
       <c r="C627" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D627">
         <v>4042</v>
@@ -17080,7 +17086,7 @@
         <v>14</v>
       </c>
       <c r="C628" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D628">
         <v>307</v>
@@ -17106,7 +17112,7 @@
         <v>14</v>
       </c>
       <c r="C629" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D629">
         <v>6380</v>
@@ -17132,7 +17138,7 @@
         <v>14</v>
       </c>
       <c r="C630" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D630">
         <v>2465</v>
@@ -17158,7 +17164,7 @@
         <v>14</v>
       </c>
       <c r="C631" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D631">
         <v>943</v>
@@ -17184,7 +17190,7 @@
         <v>14</v>
       </c>
       <c r="C632" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D632">
         <v>432</v>
@@ -17210,7 +17216,7 @@
         <v>14</v>
       </c>
       <c r="C633" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D633">
         <v>2988</v>
@@ -17236,7 +17242,7 @@
         <v>14</v>
       </c>
       <c r="C634" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D634">
         <v>3389</v>
@@ -17262,7 +17268,7 @@
         <v>14</v>
       </c>
       <c r="C635" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D635">
         <v>17017</v>
@@ -17288,7 +17294,7 @@
         <v>14</v>
       </c>
       <c r="C636" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D636">
         <v>17783</v>
@@ -17314,7 +17320,7 @@
         <v>14</v>
       </c>
       <c r="C637" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D637">
         <v>162</v>
@@ -17340,7 +17346,7 @@
         <v>14</v>
       </c>
       <c r="C638" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D638">
         <v>5557</v>
@@ -17366,7 +17372,7 @@
         <v>14</v>
       </c>
       <c r="C639" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D639">
         <v>20616</v>
@@ -17392,7 +17398,7 @@
         <v>14</v>
       </c>
       <c r="C640" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D640">
         <v>156</v>
@@ -17418,7 +17424,7 @@
         <v>14</v>
       </c>
       <c r="C641" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D641">
         <v>1080</v>
@@ -17444,7 +17450,7 @@
         <v>14</v>
       </c>
       <c r="C642" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D642">
         <v>134</v>
@@ -17470,7 +17476,7 @@
         <v>14</v>
       </c>
       <c r="C643" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D643">
         <v>1404</v>
@@ -17496,7 +17502,7 @@
         <v>14</v>
       </c>
       <c r="C644" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D644">
         <v>226</v>
@@ -17522,7 +17528,7 @@
         <v>14</v>
       </c>
       <c r="C645" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D645">
         <v>2178</v>
@@ -17548,7 +17554,7 @@
         <v>14</v>
       </c>
       <c r="C646" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D646">
         <v>229</v>
@@ -17574,7 +17580,7 @@
         <v>14</v>
       </c>
       <c r="C647" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D647">
         <v>4306</v>
@@ -17600,7 +17606,7 @@
         <v>14</v>
       </c>
       <c r="C648" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D648">
         <v>661</v>
@@ -17626,7 +17632,7 @@
         <v>14</v>
       </c>
       <c r="C649" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D649">
         <v>213</v>
@@ -17652,7 +17658,7 @@
         <v>14</v>
       </c>
       <c r="C650" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D650">
         <v>204</v>
@@ -17678,7 +17684,7 @@
         <v>14</v>
       </c>
       <c r="C651" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D651">
         <v>6754</v>
@@ -17704,7 +17710,7 @@
         <v>14</v>
       </c>
       <c r="C652" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D652">
         <v>1131</v>
@@ -17730,7 +17736,7 @@
         <v>14</v>
       </c>
       <c r="C653" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D653">
         <v>819</v>
@@ -17756,7 +17762,7 @@
         <v>14</v>
       </c>
       <c r="C654" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D654">
         <v>1930</v>
@@ -17782,7 +17788,7 @@
         <v>14</v>
       </c>
       <c r="C655" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D655">
         <v>609</v>
@@ -17808,7 +17814,7 @@
         <v>14</v>
       </c>
       <c r="C656" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D656">
         <v>453</v>
@@ -17834,7 +17840,7 @@
         <v>14</v>
       </c>
       <c r="C657" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D657">
         <v>1806</v>
@@ -17860,7 +17866,7 @@
         <v>14</v>
       </c>
       <c r="C658" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D658">
         <v>5347</v>
@@ -17886,7 +17892,7 @@
         <v>14</v>
       </c>
       <c r="C659" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D659">
         <v>72225</v>
@@ -17912,7 +17918,7 @@
         <v>14</v>
       </c>
       <c r="C660" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D660">
         <v>1514</v>
@@ -17938,7 +17944,7 @@
         <v>14</v>
       </c>
       <c r="C661" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D661">
         <v>5133</v>
@@ -17964,7 +17970,7 @@
         <v>14</v>
       </c>
       <c r="C662" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D662">
         <v>195905</v>
@@ -17990,7 +17996,7 @@
         <v>14</v>
       </c>
       <c r="C663" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D663">
         <v>905</v>
@@ -18016,7 +18022,7 @@
         <v>14</v>
       </c>
       <c r="C664" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D664">
         <v>4074</v>
@@ -18042,7 +18048,7 @@
         <v>14</v>
       </c>
       <c r="C665" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D665">
         <v>975</v>
@@ -18068,7 +18074,7 @@
         <v>14</v>
       </c>
       <c r="C666" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D666">
         <v>958</v>
@@ -18094,7 +18100,7 @@
         <v>14</v>
       </c>
       <c r="C667" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D667">
         <v>820</v>
@@ -18120,7 +18126,7 @@
         <v>14</v>
       </c>
       <c r="C668" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D668">
         <v>2841</v>
@@ -18146,7 +18152,7 @@
         <v>14</v>
       </c>
       <c r="C669" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D669">
         <v>15621</v>
@@ -18172,7 +18178,7 @@
         <v>14</v>
       </c>
       <c r="C670" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D670">
         <v>4141</v>
@@ -18198,7 +18204,7 @@
         <v>14</v>
       </c>
       <c r="C671" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D671">
         <v>2580</v>
@@ -18224,7 +18230,7 @@
         <v>14</v>
       </c>
       <c r="C672" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D672">
         <v>190</v>
@@ -18250,7 +18256,7 @@
         <v>14</v>
       </c>
       <c r="C673" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D673">
         <v>4522</v>
@@ -18276,7 +18282,7 @@
         <v>14</v>
       </c>
       <c r="C674" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D674">
         <v>166</v>
@@ -18302,7 +18308,7 @@
         <v>14</v>
       </c>
       <c r="C675" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D675">
         <v>1573</v>
@@ -18328,7 +18334,7 @@
         <v>14</v>
       </c>
       <c r="C676" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D676">
         <v>331</v>
@@ -18354,7 +18360,7 @@
         <v>14</v>
       </c>
       <c r="C677" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D677">
         <v>8408</v>
@@ -18380,7 +18386,7 @@
         <v>14</v>
       </c>
       <c r="C678" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D678">
         <v>163</v>
@@ -18406,7 +18412,7 @@
         <v>14</v>
       </c>
       <c r="C679" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D679">
         <v>52333</v>
@@ -18432,7 +18438,7 @@
         <v>14</v>
       </c>
       <c r="C680" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D680">
         <v>27540</v>
@@ -18458,7 +18464,7 @@
         <v>14</v>
       </c>
       <c r="C681" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D681">
         <v>56490</v>
@@ -18484,7 +18490,7 @@
         <v>14</v>
       </c>
       <c r="C682" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D682">
         <v>778</v>
@@ -18510,7 +18516,7 @@
         <v>14</v>
       </c>
       <c r="C683" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D683">
         <v>814</v>
@@ -18536,7 +18542,7 @@
         <v>14</v>
       </c>
       <c r="C684" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D684">
         <v>4570</v>
@@ -18562,7 +18568,7 @@
         <v>15</v>
       </c>
       <c r="C685" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D685">
         <v>351</v>
@@ -18588,7 +18594,7 @@
         <v>15</v>
       </c>
       <c r="C686" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D686">
         <v>197</v>
@@ -18614,7 +18620,7 @@
         <v>15</v>
       </c>
       <c r="C687" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D687">
         <v>2839</v>
@@ -18640,7 +18646,7 @@
         <v>15</v>
       </c>
       <c r="C688" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D688">
         <v>10262</v>
@@ -18666,7 +18672,7 @@
         <v>15</v>
       </c>
       <c r="C689" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D689">
         <v>4742</v>
@@ -18692,7 +18698,7 @@
         <v>15</v>
       </c>
       <c r="C690" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D690">
         <v>571</v>
@@ -18718,7 +18724,7 @@
         <v>15</v>
       </c>
       <c r="C691" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D691">
         <v>283</v>
@@ -18744,7 +18750,7 @@
         <v>15</v>
       </c>
       <c r="C692" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D692">
         <v>1115</v>
@@ -18770,7 +18776,7 @@
         <v>15</v>
       </c>
       <c r="C693" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D693">
         <v>11331</v>
@@ -18796,7 +18802,7 @@
         <v>15</v>
       </c>
       <c r="C694" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D694">
         <v>2031</v>
@@ -18822,7 +18828,7 @@
         <v>15</v>
       </c>
       <c r="C695" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D695">
         <v>338</v>
@@ -18848,7 +18854,7 @@
         <v>15</v>
       </c>
       <c r="C696" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D696">
         <v>650</v>
@@ -18874,7 +18880,7 @@
         <v>15</v>
       </c>
       <c r="C697" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D697">
         <v>13979</v>
@@ -18900,7 +18906,7 @@
         <v>15</v>
       </c>
       <c r="C698" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D698">
         <v>3283</v>
@@ -18926,7 +18932,7 @@
         <v>15</v>
       </c>
       <c r="C699" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D699">
         <v>9371</v>
@@ -18952,7 +18958,7 @@
         <v>15</v>
       </c>
       <c r="C700" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D700">
         <v>4146</v>
@@ -18978,7 +18984,7 @@
         <v>15</v>
       </c>
       <c r="C701" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D701">
         <v>114900</v>
@@ -19004,7 +19010,7 @@
         <v>15</v>
       </c>
       <c r="C702" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D702">
         <v>1232</v>
@@ -19030,7 +19036,7 @@
         <v>15</v>
       </c>
       <c r="C703" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D703">
         <v>442</v>
@@ -19056,7 +19062,7 @@
         <v>15</v>
       </c>
       <c r="C704" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D704">
         <v>227</v>
@@ -19082,7 +19088,7 @@
         <v>15</v>
       </c>
       <c r="C705" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D705">
         <v>2639</v>
@@ -19108,7 +19114,7 @@
         <v>15</v>
       </c>
       <c r="C706" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D706">
         <v>511</v>
@@ -19134,7 +19140,7 @@
         <v>15</v>
       </c>
       <c r="C707" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D707">
         <v>6204</v>
@@ -19160,7 +19166,7 @@
         <v>15</v>
       </c>
       <c r="C708" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D708">
         <v>1354</v>
@@ -19186,7 +19192,7 @@
         <v>15</v>
       </c>
       <c r="C709" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D709">
         <v>676</v>
@@ -19212,7 +19218,7 @@
         <v>15</v>
       </c>
       <c r="C710" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D710">
         <v>1372</v>
@@ -19238,7 +19244,7 @@
         <v>15</v>
       </c>
       <c r="C711" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D711">
         <v>917</v>
@@ -19264,7 +19270,7 @@
         <v>15</v>
       </c>
       <c r="C712" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D712">
         <v>3200</v>
@@ -19290,7 +19296,7 @@
         <v>15</v>
       </c>
       <c r="C713" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D713">
         <v>15018</v>
@@ -19316,7 +19322,7 @@
         <v>15</v>
       </c>
       <c r="C714" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D714">
         <v>189</v>
@@ -19342,7 +19348,7 @@
         <v>15</v>
       </c>
       <c r="C715" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D715">
         <v>39894</v>
@@ -19368,7 +19374,7 @@
         <v>15</v>
       </c>
       <c r="C716" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D716">
         <v>2596</v>
@@ -19394,7 +19400,7 @@
         <v>15</v>
       </c>
       <c r="C717" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D717">
         <v>397</v>
@@ -19420,7 +19426,7 @@
         <v>15</v>
       </c>
       <c r="C718" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D718">
         <v>7118</v>
@@ -19446,7 +19452,7 @@
         <v>15</v>
       </c>
       <c r="C719" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D719">
         <v>4214</v>
@@ -19472,7 +19478,7 @@
         <v>15</v>
       </c>
       <c r="C720" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D720">
         <v>384</v>
@@ -19498,7 +19504,7 @@
         <v>15</v>
       </c>
       <c r="C721" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D721">
         <v>7824</v>
@@ -19524,7 +19530,7 @@
         <v>15</v>
       </c>
       <c r="C722" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D722">
         <v>3317</v>
@@ -19550,7 +19556,7 @@
         <v>15</v>
       </c>
       <c r="C723" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D723">
         <v>580</v>
@@ -19576,7 +19582,7 @@
         <v>15</v>
       </c>
       <c r="C724" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D724">
         <v>2615</v>
@@ -19602,7 +19608,7 @@
         <v>15</v>
       </c>
       <c r="C725" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D725">
         <v>3759</v>
@@ -19628,7 +19634,7 @@
         <v>15</v>
       </c>
       <c r="C726" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D726">
         <v>20899</v>
@@ -19654,7 +19660,7 @@
         <v>15</v>
       </c>
       <c r="C727" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D727">
         <v>18881</v>
@@ -19680,7 +19686,7 @@
         <v>15</v>
       </c>
       <c r="C728" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D728">
         <v>145</v>
@@ -19706,7 +19712,7 @@
         <v>15</v>
       </c>
       <c r="C729" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D729">
         <v>5685</v>
@@ -19732,7 +19738,7 @@
         <v>15</v>
       </c>
       <c r="C730" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D730">
         <v>20824</v>
@@ -19758,7 +19764,7 @@
         <v>15</v>
       </c>
       <c r="C731" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D731">
         <v>711</v>
@@ -19784,7 +19790,7 @@
         <v>15</v>
       </c>
       <c r="C732" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D732">
         <v>1217</v>
@@ -19810,7 +19816,7 @@
         <v>15</v>
       </c>
       <c r="C733" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D733">
         <v>1536</v>
@@ -19836,7 +19842,7 @@
         <v>15</v>
       </c>
       <c r="C734" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D734">
         <v>2111</v>
@@ -19862,7 +19868,7 @@
         <v>15</v>
       </c>
       <c r="C735" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D735">
         <v>242</v>
@@ -19888,7 +19894,7 @@
         <v>15</v>
       </c>
       <c r="C736" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D736">
         <v>3194</v>
@@ -19914,7 +19920,7 @@
         <v>15</v>
       </c>
       <c r="C737" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D737">
         <v>648</v>
@@ -19940,7 +19946,7 @@
         <v>15</v>
       </c>
       <c r="C738" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D738">
         <v>350</v>
@@ -19966,16 +19972,22 @@
         <v>15</v>
       </c>
       <c r="C739" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D739">
-        <v>334</v>
+        <v>600</v>
       </c>
       <c r="E739">
         <v>1</v>
       </c>
+      <c r="F739">
+        <v>28608710</v>
+      </c>
+      <c r="G739">
+        <v>0.03495438976451577</v>
+      </c>
       <c r="H739">
-        <v>334</v>
+        <v>600</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19986,22 +19998,22 @@
         <v>15</v>
       </c>
       <c r="C740" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D740">
-        <v>600</v>
+        <v>5396</v>
       </c>
       <c r="E740">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F740">
-        <v>28608710</v>
+        <v>17097130</v>
       </c>
       <c r="G740">
-        <v>0.03495438976451577</v>
+        <v>0.9943189295513341</v>
       </c>
       <c r="H740">
-        <v>600</v>
+        <v>317.4117647058824</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -20012,22 +20024,22 @@
         <v>15</v>
       </c>
       <c r="C741" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D741">
-        <v>5396</v>
+        <v>1514</v>
       </c>
       <c r="E741">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F741">
-        <v>17097130</v>
+        <v>4783063</v>
       </c>
       <c r="G741">
-        <v>0.9943189295513341</v>
+        <v>1.045355246209385</v>
       </c>
       <c r="H741">
-        <v>317.4117647058824</v>
+        <v>302.8</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -20038,22 +20050,22 @@
         <v>15</v>
       </c>
       <c r="C742" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D742">
-        <v>1514</v>
+        <v>185</v>
       </c>
       <c r="E742">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F742">
-        <v>4783063</v>
+        <v>2083458</v>
       </c>
       <c r="G742">
-        <v>1.045355246209385</v>
+        <v>0.4799712785186934</v>
       </c>
       <c r="H742">
-        <v>302.8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -20064,22 +20076,22 @@
         <v>15</v>
       </c>
       <c r="C743" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D743">
-        <v>185</v>
+        <v>873</v>
       </c>
       <c r="E743">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F743">
-        <v>2083458</v>
+        <v>5378857</v>
       </c>
       <c r="G743">
-        <v>0.4799712785186934</v>
+        <v>0.5577393115303121</v>
       </c>
       <c r="H743">
-        <v>185</v>
+        <v>291</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -20090,22 +20102,22 @@
         <v>15</v>
       </c>
       <c r="C744" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="D744">
-        <v>873</v>
+        <v>212</v>
       </c>
       <c r="E744">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F744">
-        <v>5378857</v>
+        <v>4974986</v>
       </c>
       <c r="G744">
-        <v>0.5577393115303121</v>
+        <v>0.2010055907695017</v>
       </c>
       <c r="H744">
-        <v>291</v>
+        <v>212</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -20116,22 +20128,22 @@
         <v>15</v>
       </c>
       <c r="C745" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="D745">
-        <v>212</v>
+        <v>973</v>
       </c>
       <c r="E745">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F745">
-        <v>4974986</v>
+        <v>216565318</v>
       </c>
       <c r="G745">
-        <v>0.2010055907695017</v>
+        <v>0.01385263359666851</v>
       </c>
       <c r="H745">
-        <v>212</v>
+        <v>324.3333333333333</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -20142,22 +20154,22 @@
         <v>15</v>
       </c>
       <c r="C746" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D746">
-        <v>973</v>
+        <v>571</v>
       </c>
       <c r="E746">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F746">
-        <v>216565318</v>
+        <v>4246439</v>
       </c>
       <c r="G746">
-        <v>0.01385263359666851</v>
+        <v>0.235491431762001</v>
       </c>
       <c r="H746">
-        <v>324.3333333333333</v>
+        <v>571</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -20168,22 +20180,22 @@
         <v>15</v>
       </c>
       <c r="C747" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D747">
-        <v>571</v>
+        <v>1900</v>
       </c>
       <c r="E747">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F747">
-        <v>4246439</v>
+        <v>32510453</v>
       </c>
       <c r="G747">
-        <v>0.235491431762001</v>
+        <v>0.1845560257188665</v>
       </c>
       <c r="H747">
-        <v>571</v>
+        <v>316.6666666666667</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -20194,22 +20206,22 @@
         <v>15</v>
       </c>
       <c r="C748" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D748">
-        <v>1900</v>
+        <v>4787</v>
       </c>
       <c r="E748">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F748">
-        <v>32510453</v>
+        <v>108116615</v>
       </c>
       <c r="G748">
-        <v>0.1845560257188665</v>
+        <v>0.110991266235999</v>
       </c>
       <c r="H748">
-        <v>316.6666666666667</v>
+        <v>398.9166666666667</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -20220,22 +20232,22 @@
         <v>15</v>
       </c>
       <c r="C749" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D749">
-        <v>4787</v>
+        <v>75056</v>
       </c>
       <c r="E749">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="F749">
-        <v>108116615</v>
+        <v>37887768</v>
       </c>
       <c r="G749">
-        <v>0.110991266235999</v>
+        <v>7.284672984695219</v>
       </c>
       <c r="H749">
-        <v>398.9166666666667</v>
+        <v>271.9420289855072</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -20246,22 +20258,22 @@
         <v>15</v>
       </c>
       <c r="C750" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D750">
-        <v>75056</v>
+        <v>3867</v>
       </c>
       <c r="E750">
-        <v>276</v>
+        <v>13</v>
       </c>
       <c r="F750">
-        <v>37887768</v>
+        <v>10226187</v>
       </c>
       <c r="G750">
-        <v>7.284672984695219</v>
+        <v>1.271246066593541</v>
       </c>
       <c r="H750">
-        <v>271.9420289855072</v>
+        <v>297.4615384615385</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20272,22 +20284,22 @@
         <v>15</v>
       </c>
       <c r="C751" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="D751">
-        <v>3867</v>
+        <v>184</v>
       </c>
       <c r="E751">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F751">
-        <v>10226187</v>
+        <v>2933408</v>
       </c>
       <c r="G751">
-        <v>1.271246066593541</v>
+        <v>0.3409004134440214</v>
       </c>
       <c r="H751">
-        <v>297.4615384615385</v>
+        <v>184</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -20298,22 +20310,22 @@
         <v>15</v>
       </c>
       <c r="C752" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="D752">
-        <v>184</v>
+        <v>4859</v>
       </c>
       <c r="E752">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F752">
-        <v>2933408</v>
+        <v>19364557</v>
       </c>
       <c r="G752">
-        <v>0.3409004134440214</v>
+        <v>0.8778925332503088</v>
       </c>
       <c r="H752">
-        <v>184</v>
+        <v>285.8235294117647</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -20324,22 +20336,22 @@
         <v>15</v>
       </c>
       <c r="C753" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D753">
-        <v>4859</v>
+        <v>187536</v>
       </c>
       <c r="E753">
-        <v>17</v>
+        <v>652</v>
       </c>
       <c r="F753">
-        <v>19364557</v>
+        <v>145872256</v>
       </c>
       <c r="G753">
-        <v>0.8778925332503088</v>
+        <v>4.469664197145207</v>
       </c>
       <c r="H753">
-        <v>285.8235294117647</v>
+        <v>287.6319018404908</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20350,22 +20362,22 @@
         <v>15</v>
       </c>
       <c r="C754" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D754">
-        <v>187536</v>
+        <v>2522</v>
       </c>
       <c r="E754">
-        <v>652</v>
+        <v>8</v>
       </c>
       <c r="F754">
-        <v>145872256</v>
+        <v>34268528</v>
       </c>
       <c r="G754">
-        <v>4.469664197145207</v>
+        <v>0.2334503542142224</v>
       </c>
       <c r="H754">
-        <v>287.6319018404908</v>
+        <v>315.25</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20376,22 +20388,22 @@
         <v>15</v>
       </c>
       <c r="C755" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D755">
-        <v>2522</v>
+        <v>4562</v>
       </c>
       <c r="E755">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F755">
-        <v>34268528</v>
+        <v>8772235</v>
       </c>
       <c r="G755">
-        <v>0.2334503542142224</v>
+        <v>1.367952408935693</v>
       </c>
       <c r="H755">
-        <v>315.25</v>
+        <v>380.1666666666667</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20402,22 +20414,22 @@
         <v>15</v>
       </c>
       <c r="C756" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D756">
-        <v>4562</v>
+        <v>4503</v>
       </c>
       <c r="E756">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F756">
-        <v>8772235</v>
+        <v>5804337</v>
       </c>
       <c r="G756">
-        <v>1.367952408935693</v>
+        <v>2.411989517493557</v>
       </c>
       <c r="H756">
-        <v>380.1666666666667</v>
+        <v>321.6428571428572</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20428,22 +20440,22 @@
         <v>15</v>
       </c>
       <c r="C757" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D757">
-        <v>4503</v>
+        <v>759</v>
       </c>
       <c r="E757">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F757">
-        <v>5804337</v>
+        <v>5457013</v>
       </c>
       <c r="G757">
-        <v>2.411989517493557</v>
+        <v>0.5497513016736445</v>
       </c>
       <c r="H757">
-        <v>321.6428571428572</v>
+        <v>253</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20454,22 +20466,22 @@
         <v>15</v>
       </c>
       <c r="C758" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D758">
-        <v>759</v>
+        <v>1400</v>
       </c>
       <c r="E758">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F758">
-        <v>5457013</v>
+        <v>2078654</v>
       </c>
       <c r="G758">
-        <v>0.5497513016736445</v>
+        <v>2.405402726956964</v>
       </c>
       <c r="H758">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20480,22 +20492,22 @@
         <v>15</v>
       </c>
       <c r="C759" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D759">
-        <v>1400</v>
+        <v>3618</v>
       </c>
       <c r="E759">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F759">
-        <v>2078654</v>
+        <v>58558270</v>
       </c>
       <c r="G759">
-        <v>2.405402726956964</v>
+        <v>0.1366160578172818</v>
       </c>
       <c r="H759">
-        <v>280</v>
+        <v>452.25</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20506,22 +20518,22 @@
         <v>15</v>
       </c>
       <c r="C760" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D760">
-        <v>3618</v>
+        <v>20527</v>
       </c>
       <c r="E760">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F760">
-        <v>58558270</v>
+        <v>46736776</v>
       </c>
       <c r="G760">
-        <v>0.1366160578172818</v>
+        <v>1.454957012867126</v>
       </c>
       <c r="H760">
-        <v>452.25</v>
+        <v>301.8676470588235</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20532,22 +20544,22 @@
         <v>15</v>
       </c>
       <c r="C761" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D761">
-        <v>20527</v>
+        <v>2644</v>
       </c>
       <c r="E761">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F761">
-        <v>46736776</v>
+        <v>10036379</v>
       </c>
       <c r="G761">
-        <v>1.454957012867126</v>
+        <v>1.096012814980383</v>
       </c>
       <c r="H761">
-        <v>301.8676470588235</v>
+        <v>240.3636363636364</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20558,22 +20570,22 @@
         <v>15</v>
       </c>
       <c r="C762" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D762">
-        <v>2644</v>
+        <v>3193</v>
       </c>
       <c r="E762">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F762">
-        <v>10036379</v>
+        <v>8591365</v>
       </c>
       <c r="G762">
-        <v>1.096012814980383</v>
+        <v>1.163959394112577</v>
       </c>
       <c r="H762">
-        <v>240.3636363636364</v>
+        <v>319.3</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20584,22 +20596,22 @@
         <v>15</v>
       </c>
       <c r="C763" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D763">
-        <v>3193</v>
+        <v>238</v>
       </c>
       <c r="E763">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F763">
-        <v>8591365</v>
+        <v>17070135</v>
       </c>
       <c r="G763">
-        <v>1.163959394112577</v>
+        <v>0.05858184484188321</v>
       </c>
       <c r="H763">
-        <v>319.3</v>
+        <v>238</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20610,22 +20622,22 @@
         <v>15</v>
       </c>
       <c r="C764" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D764">
-        <v>238</v>
+        <v>5695</v>
       </c>
       <c r="E764">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F764">
-        <v>17070135</v>
+        <v>23773876</v>
       </c>
       <c r="G764">
-        <v>0.05858184484188321</v>
+        <v>0.7150706094370139</v>
       </c>
       <c r="H764">
-        <v>238</v>
+        <v>335</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20636,22 +20648,22 @@
         <v>15</v>
       </c>
       <c r="C765" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D765">
-        <v>5695</v>
+        <v>3627</v>
       </c>
       <c r="E765">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F765">
-        <v>23773876</v>
+        <v>69625582</v>
       </c>
       <c r="G765">
-        <v>0.7150706094370139</v>
+        <v>0.1149002962732864</v>
       </c>
       <c r="H765">
-        <v>335</v>
+        <v>453.375</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20662,22 +20674,22 @@
         <v>15</v>
       </c>
       <c r="C766" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D766">
-        <v>3627</v>
+        <v>10531</v>
       </c>
       <c r="E766">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F766">
-        <v>69625582</v>
+        <v>83429615</v>
       </c>
       <c r="G766">
-        <v>0.1149002962732864</v>
+        <v>0.4315014518525586</v>
       </c>
       <c r="H766">
-        <v>453.375</v>
+        <v>292.5277777777778</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20688,22 +20700,22 @@
         <v>15</v>
       </c>
       <c r="C767" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D767">
-        <v>10531</v>
+        <v>53950</v>
       </c>
       <c r="E767">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="F767">
-        <v>83429615</v>
+        <v>43993638</v>
       </c>
       <c r="G767">
-        <v>0.4315014518525586</v>
+        <v>3.682350616241376</v>
       </c>
       <c r="H767">
-        <v>292.5277777777778</v>
+        <v>333.0246913580247</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20714,22 +20726,22 @@
         <v>15</v>
       </c>
       <c r="C768" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D768">
-        <v>54267</v>
+        <v>642</v>
       </c>
       <c r="E768">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="F768">
-        <v>43993638</v>
+        <v>9770529</v>
       </c>
       <c r="G768">
-        <v>3.70508117560089</v>
+        <v>0.2046972072852964</v>
       </c>
       <c r="H768">
-        <v>332.9263803680981</v>
+        <v>321</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20740,22 +20752,22 @@
         <v>15</v>
       </c>
       <c r="C769" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D769">
-        <v>642</v>
+        <v>24302</v>
       </c>
       <c r="E769">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="F769">
-        <v>9770529</v>
+        <v>67530172</v>
       </c>
       <c r="G769">
-        <v>0.2046972072852964</v>
+        <v>1.140231065900439</v>
       </c>
       <c r="H769">
-        <v>321</v>
+        <v>315.6103896103896</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20766,22 +20778,22 @@
         <v>15</v>
       </c>
       <c r="C770" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D770">
-        <v>24302</v>
+        <v>53493</v>
       </c>
       <c r="E770">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="F770">
-        <v>67530172</v>
+        <v>329064917</v>
       </c>
       <c r="G770">
-        <v>1.140231065900439</v>
+        <v>0.5500434432516548</v>
       </c>
       <c r="H770">
-        <v>315.6103896103896</v>
+        <v>295.5414364640884</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20792,22 +20804,22 @@
         <v>15</v>
       </c>
       <c r="C771" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D771">
-        <v>53493</v>
+        <v>1392</v>
       </c>
       <c r="E771">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F771">
-        <v>329064917</v>
+        <v>32981716</v>
       </c>
       <c r="G771">
-        <v>0.5500434432516548</v>
+        <v>0.1212793173041694</v>
       </c>
       <c r="H771">
-        <v>295.5414364640884</v>
+        <v>348</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20818,22 +20830,22 @@
         <v>15</v>
       </c>
       <c r="C772" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D772">
-        <v>1392</v>
+        <v>469</v>
       </c>
       <c r="E772">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F772">
-        <v>32981716</v>
+        <v>28515829</v>
       </c>
       <c r="G772">
-        <v>0.1212793173041694</v>
+        <v>0.07013648454688096</v>
       </c>
       <c r="H772">
-        <v>348</v>
+        <v>234.5</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20844,22 +20856,22 @@
         <v>15</v>
       </c>
       <c r="C773" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D773">
-        <v>469</v>
+        <v>4786</v>
       </c>
       <c r="E773">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F773">
-        <v>28515829</v>
+        <v>96462106</v>
       </c>
       <c r="G773">
-        <v>0.07013648454688096</v>
+        <v>0.1555014774402707</v>
       </c>
       <c r="H773">
-        <v>234.5</v>
+        <v>319.0666666666667</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20867,25 +20879,2281 @@
         <v>772</v>
       </c>
       <c r="B774" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C774" t="s">
+        <v>134</v>
+      </c>
+      <c r="D774">
+        <v>141</v>
+      </c>
+      <c r="E774">
+        <v>1</v>
+      </c>
+      <c r="F774">
+        <v>2880917</v>
+      </c>
+      <c r="G774">
+        <v>0.3471117008924589</v>
+      </c>
+      <c r="H774">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8">
+      <c r="A775" s="1">
+        <v>773</v>
+      </c>
+      <c r="B775" t="s">
+        <v>16</v>
+      </c>
+      <c r="C775" t="s">
+        <v>17</v>
+      </c>
+      <c r="D775">
+        <v>563</v>
+      </c>
+      <c r="E775">
+        <v>2</v>
+      </c>
+      <c r="F775">
+        <v>43053054</v>
+      </c>
+      <c r="G775">
+        <v>0.04645431192871939</v>
+      </c>
+      <c r="H775">
+        <v>281.5</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8">
+      <c r="A776" s="1">
+        <v>774</v>
+      </c>
+      <c r="B776" t="s">
+        <v>16</v>
+      </c>
+      <c r="C776" t="s">
+        <v>18</v>
+      </c>
+      <c r="D776">
+        <v>2100</v>
+      </c>
+      <c r="E776">
+        <v>7</v>
+      </c>
+      <c r="F776">
+        <v>44780677</v>
+      </c>
+      <c r="G776">
+        <v>0.1563174223560756</v>
+      </c>
+      <c r="H776">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8">
+      <c r="A777" s="1">
+        <v>775</v>
+      </c>
+      <c r="B777" t="s">
+        <v>16</v>
+      </c>
+      <c r="C777" t="s">
+        <v>19</v>
+      </c>
+      <c r="D777">
+        <v>227</v>
+      </c>
+      <c r="E777">
+        <v>1</v>
+      </c>
+      <c r="F777">
+        <v>2957731</v>
+      </c>
+      <c r="G777">
+        <v>0.3380970074695772</v>
+      </c>
+      <c r="H777">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8">
+      <c r="A778" s="1">
+        <v>776</v>
+      </c>
+      <c r="B778" t="s">
+        <v>16</v>
+      </c>
+      <c r="C778" t="s">
+        <v>20</v>
+      </c>
+      <c r="D778">
+        <v>13558</v>
+      </c>
+      <c r="E778">
+        <v>38</v>
+      </c>
+      <c r="F778">
+        <v>25203198</v>
+      </c>
+      <c r="G778">
+        <v>1.507745167894963</v>
+      </c>
+      <c r="H778">
+        <v>356.7894736842105</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8">
+      <c r="A779" s="1">
+        <v>777</v>
+      </c>
+      <c r="B779" t="s">
+        <v>16</v>
+      </c>
+      <c r="C779" t="s">
+        <v>21</v>
+      </c>
+      <c r="D779">
+        <v>4352</v>
+      </c>
+      <c r="E779">
+        <v>13</v>
+      </c>
+      <c r="F779">
+        <v>8955102</v>
+      </c>
+      <c r="G779">
+        <v>1.451686424118899</v>
+      </c>
+      <c r="H779">
+        <v>334.7692307692308</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8">
+      <c r="A780" s="1">
+        <v>778</v>
+      </c>
+      <c r="B780" t="s">
+        <v>16</v>
+      </c>
+      <c r="C780" t="s">
+        <v>22</v>
+      </c>
+      <c r="D780">
+        <v>902</v>
+      </c>
+      <c r="E780">
+        <v>3</v>
+      </c>
+      <c r="F780">
+        <v>10047718</v>
+      </c>
+      <c r="G780">
+        <v>0.2985752585811027</v>
+      </c>
+      <c r="H780">
+        <v>300.6666666666667</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8">
+      <c r="A781" s="1">
+        <v>779</v>
+      </c>
+      <c r="B781" t="s">
+        <v>16</v>
+      </c>
+      <c r="C781" t="s">
+        <v>23</v>
+      </c>
+      <c r="D781">
+        <v>284</v>
+      </c>
+      <c r="E781">
+        <v>1</v>
+      </c>
+      <c r="F781">
+        <v>1641172</v>
+      </c>
+      <c r="G781">
+        <v>0.6093206562139739</v>
+      </c>
+      <c r="H781">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8">
+      <c r="A782" s="1">
+        <v>780</v>
+      </c>
+      <c r="B782" t="s">
+        <v>16</v>
+      </c>
+      <c r="C782" t="s">
+        <v>106</v>
+      </c>
+      <c r="D782">
+        <v>677</v>
+      </c>
+      <c r="E782">
+        <v>2</v>
+      </c>
+      <c r="F782">
+        <v>163046161</v>
+      </c>
+      <c r="G782">
+        <v>0.01226646483261878</v>
+      </c>
+      <c r="H782">
+        <v>338.5</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8">
+      <c r="A783" s="1">
+        <v>781</v>
+      </c>
+      <c r="B783" t="s">
+        <v>16</v>
+      </c>
+      <c r="C783" t="s">
+        <v>24</v>
+      </c>
+      <c r="D783">
+        <v>13814</v>
+      </c>
+      <c r="E783">
+        <v>44</v>
+      </c>
+      <c r="F783">
+        <v>9452411</v>
+      </c>
+      <c r="G783">
+        <v>4.654897041611923</v>
+      </c>
+      <c r="H783">
+        <v>313.9545454545454</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8">
+      <c r="A784" s="1">
+        <v>782</v>
+      </c>
+      <c r="B784" t="s">
+        <v>16</v>
+      </c>
+      <c r="C784" t="s">
+        <v>25</v>
+      </c>
+      <c r="D784">
+        <v>1771</v>
+      </c>
+      <c r="E784">
+        <v>7</v>
+      </c>
+      <c r="F784">
+        <v>11539328</v>
+      </c>
+      <c r="G784">
+        <v>0.6066211134651862</v>
+      </c>
+      <c r="H784">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8">
+      <c r="A785" s="1">
+        <v>783</v>
+      </c>
+      <c r="B785" t="s">
+        <v>16</v>
+      </c>
+      <c r="C785" t="s">
+        <v>112</v>
+      </c>
+      <c r="D785">
+        <v>325</v>
+      </c>
+      <c r="E785">
+        <v>1</v>
+      </c>
+      <c r="F785">
+        <v>11513100</v>
+      </c>
+      <c r="G785">
+        <v>0.08685757962668612</v>
+      </c>
+      <c r="H785">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8">
+      <c r="A786" s="1">
+        <v>784</v>
+      </c>
+      <c r="B786" t="s">
+        <v>16</v>
+      </c>
+      <c r="C786" t="s">
+        <v>103</v>
+      </c>
+      <c r="D786">
+        <v>315</v>
+      </c>
+      <c r="E786">
+        <v>2</v>
+      </c>
+      <c r="F786">
+        <v>3301000</v>
+      </c>
+      <c r="G786">
+        <v>0.6058770069675856</v>
+      </c>
+      <c r="H786">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8">
+      <c r="A787" s="1">
+        <v>785</v>
+      </c>
+      <c r="B787" t="s">
+        <v>16</v>
+      </c>
+      <c r="C787" t="s">
+        <v>26</v>
+      </c>
+      <c r="D787">
+        <v>13790</v>
+      </c>
+      <c r="E787">
+        <v>38</v>
+      </c>
+      <c r="F787">
+        <v>211049527</v>
+      </c>
+      <c r="G787">
+        <v>0.1800525238798569</v>
+      </c>
+      <c r="H787">
+        <v>362.8947368421053</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8">
+      <c r="A788" s="1">
+        <v>786</v>
+      </c>
+      <c r="B788" t="s">
+        <v>16</v>
+      </c>
+      <c r="C788" t="s">
+        <v>27</v>
+      </c>
+      <c r="D788">
+        <v>2706</v>
+      </c>
+      <c r="E788">
+        <v>8</v>
+      </c>
+      <c r="F788">
+        <v>7000119</v>
+      </c>
+      <c r="G788">
+        <v>1.142837714615994</v>
+      </c>
+      <c r="H788">
+        <v>338.25</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8">
+      <c r="A789" s="1">
+        <v>787</v>
+      </c>
+      <c r="B789" t="s">
+        <v>16</v>
+      </c>
+      <c r="C789" t="s">
+        <v>28</v>
+      </c>
+      <c r="D789">
+        <v>12225</v>
+      </c>
+      <c r="E789">
+        <v>43</v>
+      </c>
+      <c r="F789">
+        <v>37411047</v>
+      </c>
+      <c r="G789">
+        <v>1.149393119096613</v>
+      </c>
+      <c r="H789">
+        <v>284.3023255813953</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8">
+      <c r="A790" s="1">
+        <v>788</v>
+      </c>
+      <c r="B790" t="s">
+        <v>16</v>
+      </c>
+      <c r="C790" t="s">
+        <v>29</v>
+      </c>
+      <c r="D790">
+        <v>2121</v>
+      </c>
+      <c r="E790">
+        <v>5</v>
+      </c>
+      <c r="F790">
+        <v>18952038</v>
+      </c>
+      <c r="G790">
+        <v>0.2638238694962515</v>
+      </c>
+      <c r="H790">
+        <v>424.2</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8">
+      <c r="A791" s="1">
+        <v>789</v>
+      </c>
+      <c r="B791" t="s">
+        <v>16</v>
+      </c>
+      <c r="C791" t="s">
+        <v>30</v>
+      </c>
+      <c r="D791">
+        <v>111214</v>
+      </c>
+      <c r="E791">
+        <v>325</v>
+      </c>
+      <c r="F791">
+        <v>1433783686</v>
+      </c>
+      <c r="G791">
+        <v>0.2266729655061789</v>
+      </c>
+      <c r="H791">
+        <v>342.1969230769231</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8">
+      <c r="A792" s="1">
+        <v>790</v>
+      </c>
+      <c r="B792" t="s">
+        <v>16</v>
+      </c>
+      <c r="C792" t="s">
+        <v>31</v>
+      </c>
+      <c r="D792">
+        <v>710</v>
+      </c>
+      <c r="E792">
+        <v>3</v>
+      </c>
+      <c r="F792">
+        <v>50339443</v>
+      </c>
+      <c r="G792">
+        <v>0.05959541507044486</v>
+      </c>
+      <c r="H792">
+        <v>236.6666666666667</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8">
+      <c r="A793" s="1">
+        <v>791</v>
+      </c>
+      <c r="B793" t="s">
+        <v>16</v>
+      </c>
+      <c r="C793" t="s">
+        <v>107</v>
+      </c>
+      <c r="D793">
+        <v>169</v>
+      </c>
+      <c r="E793">
+        <v>1</v>
+      </c>
+      <c r="F793">
+        <v>5047561</v>
+      </c>
+      <c r="G793">
+        <v>0.1981154858752574</v>
+      </c>
+      <c r="H793">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8">
+      <c r="A794" s="1">
+        <v>792</v>
+      </c>
+      <c r="B794" t="s">
+        <v>16</v>
+      </c>
+      <c r="C794" t="s">
+        <v>33</v>
+      </c>
+      <c r="D794">
+        <v>1721</v>
+      </c>
+      <c r="E794">
+        <v>6</v>
+      </c>
+      <c r="F794">
+        <v>4130304</v>
+      </c>
+      <c r="G794">
+        <v>1.452677575306806</v>
+      </c>
+      <c r="H794">
+        <v>286.8333333333333</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8">
+      <c r="A795" s="1">
+        <v>793</v>
+      </c>
+      <c r="B795" t="s">
+        <v>16</v>
+      </c>
+      <c r="C795" t="s">
+        <v>35</v>
+      </c>
+      <c r="D795">
+        <v>8221</v>
+      </c>
+      <c r="E795">
+        <v>25</v>
+      </c>
+      <c r="F795">
+        <v>10689209</v>
+      </c>
+      <c r="G795">
+        <v>2.338807296218083</v>
+      </c>
+      <c r="H795">
+        <v>328.84</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8">
+      <c r="A796" s="1">
+        <v>794</v>
+      </c>
+      <c r="B796" t="s">
+        <v>16</v>
+      </c>
+      <c r="C796" t="s">
+        <v>36</v>
+      </c>
+      <c r="D796">
+        <v>1824</v>
+      </c>
+      <c r="E796">
+        <v>6</v>
+      </c>
+      <c r="F796">
+        <v>5771876</v>
+      </c>
+      <c r="G796">
+        <v>1.039523371603964</v>
+      </c>
+      <c r="H796">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8">
+      <c r="A797" s="1">
+        <v>795</v>
+      </c>
+      <c r="B797" t="s">
+        <v>16</v>
+      </c>
+      <c r="C797" t="s">
+        <v>120</v>
+      </c>
+      <c r="D797">
+        <v>393</v>
+      </c>
+      <c r="E797">
+        <v>1</v>
+      </c>
+      <c r="F797">
+        <v>17373662</v>
+      </c>
+      <c r="G797">
+        <v>0.05755838924459334</v>
+      </c>
+      <c r="H797">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8">
+      <c r="A798" s="1">
+        <v>796</v>
+      </c>
+      <c r="B798" t="s">
+        <v>16</v>
+      </c>
+      <c r="C798" t="s">
+        <v>37</v>
+      </c>
+      <c r="D798">
+        <v>984</v>
+      </c>
+      <c r="E798">
+        <v>4</v>
+      </c>
+      <c r="F798">
+        <v>100388073</v>
+      </c>
+      <c r="G798">
+        <v>0.03984537087388858</v>
+      </c>
+      <c r="H798">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8">
+      <c r="A799" s="1">
+        <v>797</v>
+      </c>
+      <c r="B799" t="s">
+        <v>16</v>
+      </c>
+      <c r="C799" t="s">
+        <v>122</v>
+      </c>
+      <c r="D799">
+        <v>477</v>
+      </c>
+      <c r="E799">
+        <v>1</v>
+      </c>
+      <c r="F799">
+        <v>6453553</v>
+      </c>
+      <c r="G799">
+        <v>0.1549534031873605</v>
+      </c>
+      <c r="H799">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8">
+      <c r="A800" s="1">
+        <v>798</v>
+      </c>
+      <c r="B800" t="s">
+        <v>16</v>
+      </c>
+      <c r="C800" t="s">
+        <v>38</v>
+      </c>
+      <c r="D800">
+        <v>936</v>
+      </c>
+      <c r="E800">
+        <v>3</v>
+      </c>
+      <c r="F800">
+        <v>1325648</v>
+      </c>
+      <c r="G800">
+        <v>2.263044186692093</v>
+      </c>
+      <c r="H800">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8">
+      <c r="A801" s="1">
+        <v>799</v>
+      </c>
+      <c r="B801" t="s">
+        <v>16</v>
+      </c>
+      <c r="C801" t="s">
+        <v>40</v>
+      </c>
+      <c r="D801">
+        <v>6580</v>
+      </c>
+      <c r="E801">
+        <v>23</v>
+      </c>
+      <c r="F801">
+        <v>5532156</v>
+      </c>
+      <c r="G801">
+        <v>4.157511104169875</v>
+      </c>
+      <c r="H801">
+        <v>286.0869565217391</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8">
+      <c r="A802" s="1">
+        <v>800</v>
+      </c>
+      <c r="B802" t="s">
+        <v>16</v>
+      </c>
+      <c r="C802" t="s">
+        <v>41</v>
+      </c>
+      <c r="D802">
+        <v>14398</v>
+      </c>
+      <c r="E802">
+        <v>54</v>
+      </c>
+      <c r="F802">
+        <v>65129728</v>
+      </c>
+      <c r="G802">
+        <v>0.8291144713516998</v>
+      </c>
+      <c r="H802">
+        <v>266.6296296296296</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8">
+      <c r="A803" s="1">
+        <v>801</v>
+      </c>
+      <c r="B803" t="s">
+        <v>16</v>
+      </c>
+      <c r="C803" t="s">
+        <v>43</v>
+      </c>
+      <c r="D803">
+        <v>135</v>
+      </c>
+      <c r="E803">
+        <v>1</v>
+      </c>
+      <c r="F803">
+        <v>3996765</v>
+      </c>
+      <c r="G803">
+        <v>0.2502023511514938</v>
+      </c>
+      <c r="H803">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8">
+      <c r="A804" s="1">
+        <v>802</v>
+      </c>
+      <c r="B804" t="s">
+        <v>16</v>
+      </c>
+      <c r="C804" t="s">
+        <v>44</v>
+      </c>
+      <c r="D804">
+        <v>42195</v>
+      </c>
+      <c r="E804">
+        <v>146</v>
+      </c>
+      <c r="F804">
+        <v>83517045</v>
+      </c>
+      <c r="G804">
+        <v>1.748146141904326</v>
+      </c>
+      <c r="H804">
+        <v>289.0068493150685</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8">
+      <c r="A805" s="1">
+        <v>803</v>
+      </c>
+      <c r="B805" t="s">
+        <v>16</v>
+      </c>
+      <c r="C805" t="s">
+        <v>45</v>
+      </c>
+      <c r="D805">
+        <v>2819</v>
+      </c>
+      <c r="E805">
+        <v>10</v>
+      </c>
+      <c r="F805">
+        <v>10473455</v>
+      </c>
+      <c r="G805">
+        <v>0.9547947644783885</v>
+      </c>
+      <c r="H805">
+        <v>281.9</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8">
+      <c r="A806" s="1">
+        <v>804</v>
+      </c>
+      <c r="B806" t="s">
+        <v>16</v>
+      </c>
+      <c r="C806" t="s">
+        <v>123</v>
+      </c>
+      <c r="D806">
+        <v>595</v>
+      </c>
+      <c r="E806">
+        <v>2</v>
+      </c>
+      <c r="F806">
+        <v>17581472</v>
+      </c>
+      <c r="G806">
+        <v>0.1137561178040155</v>
+      </c>
+      <c r="H806">
+        <v>297.5</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8">
+      <c r="A807" s="1">
+        <v>805</v>
+      </c>
+      <c r="B807" t="s">
+        <v>16</v>
+      </c>
+      <c r="C807" t="s">
+        <v>46</v>
+      </c>
+      <c r="D807">
+        <v>5337</v>
+      </c>
+      <c r="E807">
+        <v>16</v>
+      </c>
+      <c r="F807">
+        <v>7436154</v>
+      </c>
+      <c r="G807">
+        <v>2.151649898590051</v>
+      </c>
+      <c r="H807">
+        <v>333.5625</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8">
+      <c r="A808" s="1">
+        <v>806</v>
+      </c>
+      <c r="B808" t="s">
+        <v>16</v>
+      </c>
+      <c r="C808" t="s">
+        <v>47</v>
+      </c>
+      <c r="D808">
+        <v>3861</v>
+      </c>
+      <c r="E808">
+        <v>12</v>
+      </c>
+      <c r="F808">
+        <v>9684679</v>
+      </c>
+      <c r="G808">
+        <v>1.239070494747425</v>
+      </c>
+      <c r="H808">
+        <v>321.75</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8">
+      <c r="A809" s="1">
+        <v>807</v>
+      </c>
+      <c r="B809" t="s">
+        <v>16</v>
+      </c>
+      <c r="C809" t="s">
+        <v>48</v>
+      </c>
+      <c r="D809">
+        <v>190</v>
+      </c>
+      <c r="E809">
+        <v>1</v>
+      </c>
+      <c r="F809">
+        <v>339031</v>
+      </c>
+      <c r="G809">
+        <v>2.949582781515554</v>
+      </c>
+      <c r="H809">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8">
+      <c r="A810" s="1">
+        <v>808</v>
+      </c>
+      <c r="B810" t="s">
+        <v>16</v>
+      </c>
+      <c r="C810" t="s">
+        <v>49</v>
+      </c>
+      <c r="D810">
+        <v>7784</v>
+      </c>
+      <c r="E810">
+        <v>21</v>
+      </c>
+      <c r="F810">
+        <v>1366417754</v>
+      </c>
+      <c r="G810">
+        <v>0.01536865277000785</v>
+      </c>
+      <c r="H810">
+        <v>370.6666666666667</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8">
+      <c r="A811" s="1">
+        <v>809</v>
+      </c>
+      <c r="B811" t="s">
+        <v>16</v>
+      </c>
+      <c r="C811" t="s">
+        <v>50</v>
+      </c>
+      <c r="D811">
+        <v>5281</v>
+      </c>
+      <c r="E811">
+        <v>14</v>
+      </c>
+      <c r="F811">
+        <v>270625568</v>
+      </c>
+      <c r="G811">
+        <v>0.0517319930391795</v>
+      </c>
+      <c r="H811">
+        <v>377.2142857142857</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8">
+      <c r="A812" s="1">
+        <v>810</v>
+      </c>
+      <c r="B812" t="s">
+        <v>16</v>
+      </c>
+      <c r="C812" t="s">
+        <v>51</v>
+      </c>
+      <c r="D812">
+        <v>561</v>
+      </c>
+      <c r="E812">
+        <v>2</v>
+      </c>
+      <c r="F812">
+        <v>82913906</v>
+      </c>
+      <c r="G812">
+        <v>0.02412140612456492</v>
+      </c>
+      <c r="H812">
+        <v>280.5</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8">
+      <c r="A813" s="1">
+        <v>811</v>
+      </c>
+      <c r="B813" t="s">
+        <v>16</v>
+      </c>
+      <c r="C813" t="s">
+        <v>52</v>
+      </c>
+      <c r="D813">
+        <v>1731</v>
+      </c>
+      <c r="E813">
+        <v>5</v>
+      </c>
+      <c r="F813">
+        <v>4882495</v>
+      </c>
+      <c r="G813">
+        <v>1.024066588905877</v>
+      </c>
+      <c r="H813">
+        <v>346.2</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8">
+      <c r="A814" s="1">
+        <v>812</v>
+      </c>
+      <c r="B814" t="s">
+        <v>16</v>
+      </c>
+      <c r="C814" t="s">
+        <v>53</v>
+      </c>
+      <c r="D814">
+        <v>2440</v>
+      </c>
+      <c r="E814">
+        <v>7</v>
+      </c>
+      <c r="F814">
+        <v>8519377</v>
+      </c>
+      <c r="G814">
+        <v>0.8216563253392825</v>
+      </c>
+      <c r="H814">
+        <v>348.5714285714286</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8">
+      <c r="A815" s="1">
+        <v>813</v>
+      </c>
+      <c r="B815" t="s">
+        <v>16</v>
+      </c>
+      <c r="C815" t="s">
+        <v>54</v>
+      </c>
+      <c r="D815">
+        <v>22059</v>
+      </c>
+      <c r="E815">
+        <v>70</v>
+      </c>
+      <c r="F815">
+        <v>60550075</v>
+      </c>
+      <c r="G815">
+        <v>1.156067932203222</v>
+      </c>
+      <c r="H815">
+        <v>315.1285714285714</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8">
+      <c r="A816" s="1">
+        <v>814</v>
+      </c>
+      <c r="B816" t="s">
+        <v>16</v>
+      </c>
+      <c r="C816" t="s">
+        <v>55</v>
+      </c>
+      <c r="D816">
+        <v>23481</v>
+      </c>
+      <c r="E816">
+        <v>63</v>
+      </c>
+      <c r="F816">
+        <v>126860301</v>
+      </c>
+      <c r="G816">
+        <v>0.496609258399915</v>
+      </c>
+      <c r="H816">
+        <v>372.7142857142857</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8">
+      <c r="A817" s="1">
+        <v>815</v>
+      </c>
+      <c r="B817" t="s">
+        <v>16</v>
+      </c>
+      <c r="C817" t="s">
+        <v>56</v>
+      </c>
+      <c r="D817">
+        <v>663</v>
+      </c>
+      <c r="E817">
+        <v>2</v>
+      </c>
+      <c r="F817">
+        <v>10101694</v>
+      </c>
+      <c r="G817">
+        <v>0.1979865951195908</v>
+      </c>
+      <c r="H817">
+        <v>331.5</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8">
+      <c r="A818" s="1">
+        <v>816</v>
+      </c>
+      <c r="B818" t="s">
+        <v>16</v>
+      </c>
+      <c r="C818" t="s">
+        <v>57</v>
+      </c>
+      <c r="D818">
+        <v>6824</v>
+      </c>
+      <c r="E818">
+        <v>20</v>
+      </c>
+      <c r="F818">
+        <v>18551427</v>
+      </c>
+      <c r="G818">
+        <v>1.078084181879917</v>
+      </c>
+      <c r="H818">
+        <v>341.2</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8">
+      <c r="A819" s="1">
+        <v>817</v>
+      </c>
+      <c r="B819" t="s">
+        <v>16</v>
+      </c>
+      <c r="C819" t="s">
+        <v>58</v>
+      </c>
+      <c r="D819">
+        <v>22620</v>
+      </c>
+      <c r="E819">
+        <v>63</v>
+      </c>
+      <c r="F819">
+        <v>51225308</v>
+      </c>
+      <c r="G819">
+        <v>1.22986083363325</v>
+      </c>
+      <c r="H819">
+        <v>359.047619047619</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8">
+      <c r="A820" s="1">
+        <v>818</v>
+      </c>
+      <c r="B820" t="s">
+        <v>16</v>
+      </c>
+      <c r="C820" t="s">
+        <v>115</v>
+      </c>
+      <c r="D820">
+        <v>365</v>
+      </c>
+      <c r="E820">
+        <v>1</v>
+      </c>
+      <c r="F820">
+        <v>6415850</v>
+      </c>
+      <c r="G820">
+        <v>0.1558639930796387</v>
+      </c>
+      <c r="H820">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8">
+      <c r="A821" s="1">
+        <v>819</v>
+      </c>
+      <c r="B821" t="s">
+        <v>16</v>
+      </c>
+      <c r="C821" t="s">
+        <v>60</v>
+      </c>
+      <c r="D821">
+        <v>2060</v>
+      </c>
+      <c r="E821">
+        <v>5</v>
+      </c>
+      <c r="F821">
+        <v>1906743</v>
+      </c>
+      <c r="G821">
+        <v>2.622272639784176</v>
+      </c>
+      <c r="H821">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8">
+      <c r="A822" s="1">
+        <v>820</v>
+      </c>
+      <c r="B822" t="s">
+        <v>16</v>
+      </c>
+      <c r="C822" t="s">
+        <v>62</v>
+      </c>
+      <c r="D822">
+        <v>1736</v>
+      </c>
+      <c r="E822">
+        <v>6</v>
+      </c>
+      <c r="F822">
+        <v>2759627</v>
+      </c>
+      <c r="G822">
+        <v>2.174206876509035</v>
+      </c>
+      <c r="H822">
+        <v>289.3333333333333</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8">
+      <c r="A823" s="1">
+        <v>821</v>
+      </c>
+      <c r="B823" t="s">
+        <v>16</v>
+      </c>
+      <c r="C823" t="s">
+        <v>64</v>
+      </c>
+      <c r="D823">
+        <v>3470</v>
+      </c>
+      <c r="E823">
+        <v>9</v>
+      </c>
+      <c r="F823">
+        <v>31949777</v>
+      </c>
+      <c r="G823">
+        <v>0.2816921069589938</v>
+      </c>
+      <c r="H823">
+        <v>385.5555555555555</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8">
+      <c r="A824" s="1">
+        <v>822</v>
+      </c>
+      <c r="B824" t="s">
+        <v>16</v>
+      </c>
+      <c r="C824" t="s">
+        <v>66</v>
+      </c>
+      <c r="D824">
+        <v>2563</v>
+      </c>
+      <c r="E824">
+        <v>12</v>
+      </c>
+      <c r="F824">
+        <v>127575529</v>
+      </c>
+      <c r="G824">
+        <v>0.0940619262491947</v>
+      </c>
+      <c r="H824">
+        <v>213.5833333333333</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8">
+      <c r="A825" s="1">
+        <v>823</v>
+      </c>
+      <c r="B825" t="s">
+        <v>16</v>
+      </c>
+      <c r="C825" t="s">
+        <v>67</v>
+      </c>
+      <c r="D825">
+        <v>2486</v>
+      </c>
+      <c r="E825">
+        <v>7</v>
+      </c>
+      <c r="F825">
+        <v>4043263</v>
+      </c>
+      <c r="G825">
+        <v>1.73127496282087</v>
+      </c>
+      <c r="H825">
+        <v>355.1428571428572</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8">
+      <c r="A826" s="1">
+        <v>824</v>
+      </c>
+      <c r="B826" t="s">
+        <v>16</v>
+      </c>
+      <c r="C826" t="s">
+        <v>69</v>
+      </c>
+      <c r="D826">
+        <v>425</v>
+      </c>
+      <c r="E826">
+        <v>1</v>
+      </c>
+      <c r="F826">
+        <v>54045420</v>
+      </c>
+      <c r="G826">
+        <v>0.01850295547707835</v>
+      </c>
+      <c r="H826">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8">
+      <c r="A827" s="1">
+        <v>825</v>
+      </c>
+      <c r="B827" t="s">
+        <v>16</v>
+      </c>
+      <c r="C827" t="s">
+        <v>135</v>
+      </c>
+      <c r="D827">
+        <v>376</v>
+      </c>
+      <c r="E827">
+        <v>1</v>
+      </c>
+      <c r="H827">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8">
+      <c r="A828" s="1">
+        <v>826</v>
+      </c>
+      <c r="B828" t="s">
+        <v>16</v>
+      </c>
+      <c r="C828" t="s">
+        <v>110</v>
+      </c>
+      <c r="D828">
+        <v>577</v>
+      </c>
+      <c r="E828">
+        <v>1</v>
+      </c>
+      <c r="F828">
+        <v>28608710</v>
+      </c>
+      <c r="G828">
+        <v>0.03495438976451577</v>
+      </c>
+      <c r="H828">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8">
+      <c r="A829" s="1">
+        <v>827</v>
+      </c>
+      <c r="B829" t="s">
+        <v>16</v>
+      </c>
+      <c r="C829" t="s">
+        <v>70</v>
+      </c>
+      <c r="D829">
+        <v>5638</v>
+      </c>
+      <c r="E829">
+        <v>14</v>
+      </c>
+      <c r="F829">
+        <v>17097130</v>
+      </c>
+      <c r="G829">
+        <v>0.8188508831599222</v>
+      </c>
+      <c r="H829">
+        <v>402.7142857142857</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8">
+      <c r="A830" s="1">
+        <v>828</v>
+      </c>
+      <c r="B830" t="s">
+        <v>16</v>
+      </c>
+      <c r="C830" t="s">
+        <v>71</v>
+      </c>
+      <c r="D830">
+        <v>1028</v>
+      </c>
+      <c r="E830">
+        <v>3</v>
+      </c>
+      <c r="F830">
+        <v>4783063</v>
+      </c>
+      <c r="G830">
+        <v>0.6272131477256311</v>
+      </c>
+      <c r="H830">
+        <v>342.6666666666667</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8">
+      <c r="A831" s="1">
+        <v>829</v>
+      </c>
+      <c r="B831" t="s">
+        <v>16</v>
+      </c>
+      <c r="C831" t="s">
+        <v>125</v>
+      </c>
+      <c r="D831">
+        <v>207</v>
+      </c>
+      <c r="E831">
+        <v>1</v>
+      </c>
+      <c r="F831">
+        <v>200963599</v>
+      </c>
+      <c r="G831">
+        <v>0.004976025533858</v>
+      </c>
+      <c r="H831">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8">
+      <c r="A832" s="1">
+        <v>830</v>
+      </c>
+      <c r="B832" t="s">
+        <v>16</v>
+      </c>
+      <c r="C832" t="s">
+        <v>72</v>
+      </c>
+      <c r="D832">
+        <v>1086</v>
+      </c>
+      <c r="E832">
+        <v>3</v>
+      </c>
+      <c r="F832">
+        <v>2083458</v>
+      </c>
+      <c r="G832">
+        <v>1.43991383555608</v>
+      </c>
+      <c r="H832">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8">
+      <c r="A833" s="1">
+        <v>831</v>
+      </c>
+      <c r="B833" t="s">
+        <v>16</v>
+      </c>
+      <c r="C833" t="s">
+        <v>73</v>
+      </c>
+      <c r="D833">
+        <v>824</v>
+      </c>
+      <c r="E833">
+        <v>3</v>
+      </c>
+      <c r="F833">
+        <v>5378857</v>
+      </c>
+      <c r="G833">
+        <v>0.5577393115303121</v>
+      </c>
+      <c r="H833">
+        <v>274.6666666666667</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8">
+      <c r="A834" s="1">
+        <v>832</v>
+      </c>
+      <c r="B834" t="s">
+        <v>16</v>
+      </c>
+      <c r="C834" t="s">
+        <v>74</v>
+      </c>
+      <c r="D834">
+        <v>594</v>
+      </c>
+      <c r="E834">
+        <v>2</v>
+      </c>
+      <c r="F834">
+        <v>216565318</v>
+      </c>
+      <c r="G834">
+        <v>0.009235089064445675</v>
+      </c>
+      <c r="H834">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8">
+      <c r="A835" s="1">
+        <v>833</v>
+      </c>
+      <c r="B835" t="s">
+        <v>16</v>
+      </c>
+      <c r="C835" t="s">
+        <v>129</v>
+      </c>
+      <c r="D835">
+        <v>1101</v>
+      </c>
+      <c r="E835">
+        <v>1</v>
+      </c>
+      <c r="F835">
+        <v>4246439</v>
+      </c>
+      <c r="G835">
+        <v>0.235491431762001</v>
+      </c>
+      <c r="H835">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8">
+      <c r="A836" s="1">
+        <v>834</v>
+      </c>
+      <c r="B836" t="s">
+        <v>16</v>
+      </c>
+      <c r="C836" t="s">
+        <v>75</v>
+      </c>
+      <c r="D836">
+        <v>2289</v>
+      </c>
+      <c r="E836">
+        <v>8</v>
+      </c>
+      <c r="F836">
+        <v>32510453</v>
+      </c>
+      <c r="G836">
+        <v>0.2460747009584887</v>
+      </c>
+      <c r="H836">
+        <v>286.125</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8">
+      <c r="A837" s="1">
+        <v>835</v>
+      </c>
+      <c r="B837" t="s">
+        <v>16</v>
+      </c>
+      <c r="C837" t="s">
+        <v>76</v>
+      </c>
+      <c r="D837">
+        <v>3472</v>
+      </c>
+      <c r="E837">
+        <v>10</v>
+      </c>
+      <c r="F837">
+        <v>108116615</v>
+      </c>
+      <c r="G837">
+        <v>0.09249272186333247</v>
+      </c>
+      <c r="H837">
+        <v>347.2</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8">
+      <c r="A838" s="1">
+        <v>836</v>
+      </c>
+      <c r="B838" t="s">
+        <v>16</v>
+      </c>
+      <c r="C838" t="s">
+        <v>77</v>
+      </c>
+      <c r="D838">
+        <v>81932</v>
+      </c>
+      <c r="E838">
+        <v>275</v>
+      </c>
+      <c r="F838">
+        <v>37887768</v>
+      </c>
+      <c r="G838">
+        <v>7.258279241997048</v>
+      </c>
+      <c r="H838">
+        <v>297.9345454545455</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8">
+      <c r="A839" s="1">
+        <v>837</v>
+      </c>
+      <c r="B839" t="s">
+        <v>16</v>
+      </c>
+      <c r="C839" t="s">
+        <v>78</v>
+      </c>
+      <c r="D839">
+        <v>3413</v>
+      </c>
+      <c r="E839">
+        <v>12</v>
+      </c>
+      <c r="F839">
+        <v>10226187</v>
+      </c>
+      <c r="G839">
+        <v>1.173457907624807</v>
+      </c>
+      <c r="H839">
+        <v>284.4166666666667</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8">
+      <c r="A840" s="1">
+        <v>838</v>
+      </c>
+      <c r="B840" t="s">
+        <v>16</v>
+      </c>
+      <c r="C840" t="s">
+        <v>79</v>
+      </c>
+      <c r="D840">
+        <v>3397</v>
+      </c>
+      <c r="E840">
+        <v>11</v>
+      </c>
+      <c r="F840">
+        <v>19364557</v>
+      </c>
+      <c r="G840">
+        <v>0.5680481097501998</v>
+      </c>
+      <c r="H840">
+        <v>308.8181818181818</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8">
+      <c r="A841" s="1">
+        <v>839</v>
+      </c>
+      <c r="B841" t="s">
+        <v>16</v>
+      </c>
+      <c r="C841" t="s">
+        <v>80</v>
+      </c>
+      <c r="D841">
+        <v>235042</v>
+      </c>
+      <c r="E841">
+        <v>732</v>
+      </c>
+      <c r="F841">
+        <v>145872256</v>
+      </c>
+      <c r="G841">
+        <v>5.018089252009649</v>
+      </c>
+      <c r="H841">
+        <v>321.0956284153006</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8">
+      <c r="A842" s="1">
+        <v>840</v>
+      </c>
+      <c r="B842" t="s">
+        <v>16</v>
+      </c>
+      <c r="C842" t="s">
+        <v>81</v>
+      </c>
+      <c r="D842">
+        <v>3502</v>
+      </c>
+      <c r="E842">
+        <v>11</v>
+      </c>
+      <c r="F842">
+        <v>34268528</v>
+      </c>
+      <c r="G842">
+        <v>0.3209942370445559</v>
+      </c>
+      <c r="H842">
+        <v>318.3636363636364</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8">
+      <c r="A843" s="1">
+        <v>841</v>
+      </c>
+      <c r="B843" t="s">
+        <v>16</v>
+      </c>
+      <c r="C843" t="s">
+        <v>82</v>
+      </c>
+      <c r="D843">
+        <v>4191</v>
+      </c>
+      <c r="E843">
+        <v>11</v>
+      </c>
+      <c r="F843">
+        <v>8772235</v>
+      </c>
+      <c r="G843">
+        <v>1.253956374857719</v>
+      </c>
+      <c r="H843">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8">
+      <c r="A844" s="1">
+        <v>842</v>
+      </c>
+      <c r="B844" t="s">
+        <v>16</v>
+      </c>
+      <c r="C844" t="s">
+        <v>83</v>
+      </c>
+      <c r="D844">
+        <v>1705</v>
+      </c>
+      <c r="E844">
+        <v>5</v>
+      </c>
+      <c r="F844">
+        <v>5804337</v>
+      </c>
+      <c r="G844">
+        <v>0.8614248276762704</v>
+      </c>
+      <c r="H844">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8">
+      <c r="A845" s="1">
+        <v>843</v>
+      </c>
+      <c r="B845" t="s">
+        <v>16</v>
+      </c>
+      <c r="C845" t="s">
+        <v>84</v>
+      </c>
+      <c r="D845">
+        <v>1031</v>
+      </c>
+      <c r="E845">
+        <v>3</v>
+      </c>
+      <c r="F845">
+        <v>5457013</v>
+      </c>
+      <c r="G845">
+        <v>0.5497513016736445</v>
+      </c>
+      <c r="H845">
+        <v>343.6666666666667</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8">
+      <c r="A846" s="1">
+        <v>844</v>
+      </c>
+      <c r="B846" t="s">
+        <v>16</v>
+      </c>
+      <c r="C846" t="s">
+        <v>85</v>
+      </c>
+      <c r="D846">
+        <v>1928</v>
+      </c>
+      <c r="E846">
+        <v>6</v>
+      </c>
+      <c r="F846">
+        <v>2078654</v>
+      </c>
+      <c r="G846">
+        <v>2.886483272348356</v>
+      </c>
+      <c r="H846">
+        <v>321.3333333333333</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8">
+      <c r="A847" s="1">
+        <v>845</v>
+      </c>
+      <c r="B847" t="s">
+        <v>16</v>
+      </c>
+      <c r="C847" t="s">
+        <v>86</v>
+      </c>
+      <c r="D847">
+        <v>4165</v>
+      </c>
+      <c r="E847">
+        <v>9</v>
+      </c>
+      <c r="F847">
+        <v>58558270</v>
+      </c>
+      <c r="G847">
+        <v>0.1536930650444421</v>
+      </c>
+      <c r="H847">
+        <v>462.7777777777778</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8">
+      <c r="A848" s="1">
+        <v>846</v>
+      </c>
+      <c r="B848" t="s">
+        <v>16</v>
+      </c>
+      <c r="C848" t="s">
+        <v>87</v>
+      </c>
+      <c r="D848">
+        <v>21886</v>
+      </c>
+      <c r="E848">
+        <v>72</v>
+      </c>
+      <c r="F848">
+        <v>46736776</v>
+      </c>
+      <c r="G848">
+        <v>1.540542719506369</v>
+      </c>
+      <c r="H848">
+        <v>303.9722222222222</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8">
+      <c r="A849" s="1">
+        <v>847</v>
+      </c>
+      <c r="B849" t="s">
+        <v>16</v>
+      </c>
+      <c r="C849" t="s">
+        <v>88</v>
+      </c>
+      <c r="D849">
+        <v>3275</v>
+      </c>
+      <c r="E849">
+        <v>12</v>
+      </c>
+      <c r="F849">
+        <v>10036379</v>
+      </c>
+      <c r="G849">
+        <v>1.195650343614963</v>
+      </c>
+      <c r="H849">
+        <v>272.9166666666667</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8">
+      <c r="A850" s="1">
+        <v>848</v>
+      </c>
+      <c r="B850" t="s">
+        <v>16</v>
+      </c>
+      <c r="C850" t="s">
+        <v>89</v>
+      </c>
+      <c r="D850">
+        <v>3488</v>
+      </c>
+      <c r="E850">
+        <v>9</v>
+      </c>
+      <c r="F850">
+        <v>8591365</v>
+      </c>
+      <c r="G850">
+        <v>1.047563454701319</v>
+      </c>
+      <c r="H850">
+        <v>387.5555555555555</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8">
+      <c r="A851" s="1">
+        <v>849</v>
+      </c>
+      <c r="B851" t="s">
+        <v>16</v>
+      </c>
+      <c r="C851" t="s">
+        <v>90</v>
+      </c>
+      <c r="D851">
+        <v>775</v>
+      </c>
+      <c r="E851">
+        <v>2</v>
+      </c>
+      <c r="F851">
+        <v>17070135</v>
+      </c>
+      <c r="G851">
+        <v>0.1171636896837664</v>
+      </c>
+      <c r="H851">
+        <v>387.5</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8">
+      <c r="A852" s="1">
+        <v>850</v>
+      </c>
+      <c r="B852" t="s">
+        <v>16</v>
+      </c>
+      <c r="C852" t="s">
+        <v>91</v>
+      </c>
+      <c r="D852">
+        <v>5433</v>
+      </c>
+      <c r="E852">
+        <v>18</v>
+      </c>
+      <c r="F852">
+        <v>23773876</v>
+      </c>
+      <c r="G852">
+        <v>0.7571335864627207</v>
+      </c>
+      <c r="H852">
+        <v>301.8333333333333</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8">
+      <c r="A853" s="1">
+        <v>851</v>
+      </c>
+      <c r="B853" t="s">
+        <v>16</v>
+      </c>
+      <c r="C853" t="s">
+        <v>93</v>
+      </c>
+      <c r="D853">
+        <v>3024</v>
+      </c>
+      <c r="E853">
+        <v>7</v>
+      </c>
+      <c r="F853">
+        <v>69625582</v>
+      </c>
+      <c r="G853">
+        <v>0.1005377592391256</v>
+      </c>
+      <c r="H853">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8">
+      <c r="A854" s="1">
+        <v>852</v>
+      </c>
+      <c r="B854" t="s">
+        <v>16</v>
+      </c>
+      <c r="C854" t="s">
+        <v>95</v>
+      </c>
+      <c r="D854">
+        <v>8035</v>
+      </c>
+      <c r="E854">
+        <v>27</v>
+      </c>
+      <c r="F854">
+        <v>83429615</v>
+      </c>
+      <c r="G854">
+        <v>0.323626088889419</v>
+      </c>
+      <c r="H854">
+        <v>297.5925925925926</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8">
+      <c r="A855" s="1">
+        <v>853</v>
+      </c>
+      <c r="B855" t="s">
+        <v>16</v>
+      </c>
+      <c r="C855" t="s">
+        <v>97</v>
+      </c>
+      <c r="D855">
+        <v>68578</v>
+      </c>
+      <c r="E855">
+        <v>202</v>
+      </c>
+      <c r="F855">
+        <v>43993638</v>
+      </c>
+      <c r="G855">
+        <v>4.591572990621962</v>
+      </c>
+      <c r="H855">
+        <v>339.4950495049505</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8">
+      <c r="A856" s="1">
+        <v>854</v>
+      </c>
+      <c r="B856" t="s">
+        <v>16</v>
+      </c>
+      <c r="C856" t="s">
+        <v>98</v>
+      </c>
+      <c r="D856">
+        <v>1432</v>
+      </c>
+      <c r="E856">
+        <v>3</v>
+      </c>
+      <c r="F856">
+        <v>9770529</v>
+      </c>
+      <c r="G856">
+        <v>0.3070458109279446</v>
+      </c>
+      <c r="H856">
+        <v>477.3333333333333</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8">
+      <c r="A857" s="1">
+        <v>855</v>
+      </c>
+      <c r="B857" t="s">
+        <v>16</v>
+      </c>
+      <c r="C857" t="s">
+        <v>99</v>
+      </c>
+      <c r="D857">
+        <v>20185</v>
+      </c>
+      <c r="E857">
+        <v>59</v>
+      </c>
+      <c r="F857">
+        <v>67530172</v>
+      </c>
+      <c r="G857">
+        <v>0.8736835440016353</v>
+      </c>
+      <c r="H857">
+        <v>342.1186440677966</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8">
+      <c r="A858" s="1">
+        <v>856</v>
+      </c>
+      <c r="B858" t="s">
+        <v>16</v>
+      </c>
+      <c r="C858" t="s">
+        <v>100</v>
+      </c>
+      <c r="D858">
+        <v>52247</v>
+      </c>
+      <c r="E858">
+        <v>151</v>
+      </c>
+      <c r="F858">
+        <v>329064917</v>
+      </c>
+      <c r="G858">
+        <v>0.4588760217182314</v>
+      </c>
+      <c r="H858">
+        <v>346.0066225165563</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8">
+      <c r="A859" s="1">
+        <v>857</v>
+      </c>
+      <c r="B859" t="s">
+        <v>16</v>
+      </c>
+      <c r="C859" t="s">
         <v>101</v>
       </c>
-      <c r="D774">
-        <v>4786</v>
-      </c>
-      <c r="E774">
-        <v>15</v>
-      </c>
-      <c r="F774">
+      <c r="D859">
+        <v>1255</v>
+      </c>
+      <c r="E859">
+        <v>3</v>
+      </c>
+      <c r="F859">
+        <v>32981716</v>
+      </c>
+      <c r="G859">
+        <v>0.09095948797812703</v>
+      </c>
+      <c r="H859">
+        <v>418.3333333333333</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8">
+      <c r="A860" s="1">
+        <v>858</v>
+      </c>
+      <c r="B860" t="s">
+        <v>16</v>
+      </c>
+      <c r="C860" t="s">
+        <v>111</v>
+      </c>
+      <c r="D860">
+        <v>425</v>
+      </c>
+      <c r="E860">
+        <v>1</v>
+      </c>
+      <c r="F860">
+        <v>28515829</v>
+      </c>
+      <c r="G860">
+        <v>0.03506824227344048</v>
+      </c>
+      <c r="H860">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8">
+      <c r="A861" s="1">
+        <v>859</v>
+      </c>
+      <c r="B861" t="s">
+        <v>16</v>
+      </c>
+      <c r="C861" t="s">
+        <v>102</v>
+      </c>
+      <c r="D861">
+        <v>2898</v>
+      </c>
+      <c r="E861">
+        <v>8</v>
+      </c>
+      <c r="F861">
         <v>96462106</v>
       </c>
-      <c r="G774">
-        <v>0.1555014774402707</v>
-      </c>
-      <c r="H774">
-        <v>319.0666666666667</v>
+      <c r="G861">
+        <v>0.0829341213014777</v>
+      </c>
+      <c r="H861">
+        <v>362.25</v>
       </c>
     </row>
   </sheetData>
